--- a/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Element</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>GWP [kg*CO2-eq/kg]</t>
+  </si>
+  <si>
+    <t>Income tax [%]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,85 +794,85 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.2788087576000876</v>
+        <v>0.2539536547515366</v>
       </c>
       <c r="D4">
-        <v>-0.0116097503960975</v>
+        <v>0.00151221894312219</v>
       </c>
       <c r="E4">
-        <v>0.3452186837481868</v>
+        <v>0.3580882127328821</v>
       </c>
       <c r="F4">
-        <v>-4.052799640527996E-05</v>
+        <v>-0.01679969961599699</v>
       </c>
       <c r="G4">
-        <v>-0.2377607845696078</v>
+        <v>-0.2092298578122986</v>
       </c>
       <c r="I4">
-        <v>-0.08123227883632278</v>
+        <v>-0.06871125243911252</v>
       </c>
       <c r="J4">
-        <v>0.03524019982803996</v>
+        <v>0.02494441758713834</v>
       </c>
       <c r="K4">
-        <v>-0.150843106640431</v>
+        <v>-0.1675319493673195</v>
       </c>
       <c r="L4">
-        <v>-0.150843106640431</v>
+        <v>-0.1675319493673195</v>
       </c>
       <c r="M4">
-        <v>-0.150843106640431</v>
+        <v>-0.1675319493673195</v>
       </c>
       <c r="N4">
-        <v>-0.150843106640431</v>
+        <v>-0.1675319493673195</v>
       </c>
       <c r="O4">
-        <v>-0.150843106640431</v>
+        <v>-0.1675319493673195</v>
       </c>
       <c r="P4">
-        <v>-0.02096419364964194</v>
+        <v>-0.04037411181174112</v>
       </c>
       <c r="Q4">
-        <v>0.05220881627408816</v>
+        <v>0.02995235043552351</v>
       </c>
       <c r="R4">
-        <v>0.05220881627408816</v>
+        <v>0.02995235043552351</v>
       </c>
       <c r="S4">
-        <v>0.05220881627408816</v>
+        <v>0.02995235043552351</v>
       </c>
       <c r="T4">
-        <v>0.05220881627408816</v>
+        <v>0.02995235043552351</v>
       </c>
       <c r="U4">
-        <v>0.4029599662055997</v>
+        <v>0.2429343567653436</v>
       </c>
       <c r="V4">
-        <v>0.9908846543608465</v>
+        <v>0.9908888613328886</v>
       </c>
       <c r="W4">
-        <v>0.02020082264200823</v>
+        <v>0.010369200331692</v>
       </c>
       <c r="X4">
-        <v>-0.6454679441506794</v>
+        <v>-0.5913066180090661</v>
       </c>
       <c r="Z4">
-        <v>-0.3552352595283527</v>
+        <v>-0.3250906774189067</v>
       </c>
       <c r="AA4">
-        <v>-0.178309802911098</v>
+        <v>-0.1615344408433444</v>
       </c>
       <c r="AB4">
-        <v>-0.178309802911098</v>
+        <v>-0.1615344408433444</v>
       </c>
       <c r="AC4">
-        <v>-0.178309802911098</v>
+        <v>-0.1615344408433444</v>
       </c>
       <c r="AD4">
-        <v>-0.178309802911098</v>
+        <v>-0.1615344408433444</v>
       </c>
       <c r="AE4">
-        <v>-0.178309802911098</v>
+        <v>-0.1615344408433444</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -878,85 +881,85 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.009723117085231171</v>
+        <v>-0.002460376584603766</v>
       </c>
       <c r="D5">
-        <v>-0.002939783177397832</v>
+        <v>0.0009778538137785381</v>
       </c>
       <c r="E5">
-        <v>0.008804033896040338</v>
+        <v>-0.006160118773601188</v>
       </c>
       <c r="F5">
-        <v>-0.01588827715488277</v>
+        <v>-0.0004933948489339485</v>
       </c>
       <c r="G5">
-        <v>0.01865405147454051</v>
+        <v>0.004710400283104003</v>
       </c>
       <c r="I5">
-        <v>0.002794778607947786</v>
+        <v>0.0008057554280575544</v>
       </c>
       <c r="J5">
-        <v>-0.0002479876945758482</v>
+        <v>0.004328495092995976</v>
       </c>
       <c r="K5">
-        <v>-0.006535854521358545</v>
+        <v>0.002685447626854476</v>
       </c>
       <c r="L5">
-        <v>-0.006535854521358545</v>
+        <v>0.002685447626854476</v>
       </c>
       <c r="M5">
-        <v>-0.006535854521358545</v>
+        <v>0.002685447626854476</v>
       </c>
       <c r="N5">
-        <v>-0.006535854521358545</v>
+        <v>0.002685447626854476</v>
       </c>
       <c r="O5">
-        <v>-0.006535854521358545</v>
+        <v>0.002685447626854476</v>
       </c>
       <c r="P5">
-        <v>-0.01549102519091025</v>
+        <v>7.130271671302717E-05</v>
       </c>
       <c r="Q5">
-        <v>-0.0111533402435334</v>
+        <v>-0.002424158100241581</v>
       </c>
       <c r="R5">
-        <v>-0.0111533402435334</v>
+        <v>-0.002424158100241581</v>
       </c>
       <c r="S5">
-        <v>-0.0111533402435334</v>
+        <v>-0.002424158100241581</v>
       </c>
       <c r="T5">
-        <v>-0.0111533402435334</v>
+        <v>-0.002424158100241581</v>
       </c>
       <c r="U5">
-        <v>-0.01293237288932373</v>
+        <v>-0.006822961676229616</v>
       </c>
       <c r="V5">
-        <v>-0.01697454360174544</v>
+        <v>-0.01968692773686928</v>
       </c>
       <c r="W5">
-        <v>0.003285608636856086</v>
+        <v>-0.0129290800292908</v>
       </c>
       <c r="X5">
-        <v>0.01160634821606348</v>
+        <v>0.005945732039457321</v>
       </c>
       <c r="Z5">
-        <v>0.002229476770294767</v>
+        <v>0.005146840563468405</v>
       </c>
       <c r="AA5">
-        <v>0.01092909526929095</v>
+        <v>0.01032193563121936</v>
       </c>
       <c r="AB5">
-        <v>0.01092909526929095</v>
+        <v>0.01032193563121936</v>
       </c>
       <c r="AC5">
-        <v>0.01092909526929095</v>
+        <v>0.01032193563121936</v>
       </c>
       <c r="AD5">
-        <v>0.01092909526929095</v>
+        <v>0.01032193563121936</v>
       </c>
       <c r="AE5">
-        <v>0.01092909526929095</v>
+        <v>0.01032193563121936</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -965,85 +968,85 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.3806475036984751</v>
+        <v>0.2893679397136794</v>
       </c>
       <c r="D6">
-        <v>0.005496748062967481</v>
+        <v>-0.02621256331012563</v>
       </c>
       <c r="E6">
-        <v>-0.001267444452674445</v>
+        <v>0.01256328583763286</v>
       </c>
       <c r="F6">
-        <v>-0.00563828799238288</v>
+        <v>-0.01358696699186967</v>
       </c>
       <c r="G6">
-        <v>0.0008591995525919955</v>
+        <v>0.0009118882891188828</v>
       </c>
       <c r="I6">
-        <v>-0.5680233607962336</v>
+        <v>-0.5849067788570678</v>
       </c>
       <c r="J6">
-        <v>-0.01924779625992686</v>
+        <v>-0.0003120903351189057</v>
       </c>
       <c r="K6">
-        <v>0.008270403742704036</v>
+        <v>0.007247951448479514</v>
       </c>
       <c r="L6">
-        <v>0.008270403742704036</v>
+        <v>0.007247951448479514</v>
       </c>
       <c r="M6">
-        <v>0.008270403742704036</v>
+        <v>0.007247951448479514</v>
       </c>
       <c r="N6">
-        <v>0.008270403742704036</v>
+        <v>0.007247951448479514</v>
       </c>
       <c r="O6">
-        <v>0.008270403742704036</v>
+        <v>0.007247951448479514</v>
       </c>
       <c r="P6">
-        <v>-0.002181517665815177</v>
+        <v>-0.009440449606404496</v>
       </c>
       <c r="Q6">
-        <v>0.006052073916520739</v>
+        <v>0.008037268676372687</v>
       </c>
       <c r="R6">
-        <v>0.006052073916520739</v>
+        <v>0.008037268676372687</v>
       </c>
       <c r="S6">
-        <v>0.006052073916520739</v>
+        <v>0.008037268676372687</v>
       </c>
       <c r="T6">
-        <v>0.006052073916520739</v>
+        <v>0.008037268676372687</v>
       </c>
       <c r="U6">
-        <v>0.07684147294841474</v>
+        <v>0.03675540552755405</v>
       </c>
       <c r="V6">
-        <v>-0.02132413200924132</v>
+        <v>-0.00103186701431867</v>
       </c>
       <c r="W6">
-        <v>0.025675500028755</v>
+        <v>-0.00729577795295778</v>
       </c>
       <c r="X6">
-        <v>0.01787073233870732</v>
+        <v>0.003686886372868864</v>
       </c>
       <c r="Z6">
-        <v>-0.2380365226963652</v>
+        <v>-0.2262952314189523</v>
       </c>
       <c r="AA6">
-        <v>0.004670389690703896</v>
+        <v>-0.01187946877079469</v>
       </c>
       <c r="AB6">
-        <v>0.004670389690703896</v>
+        <v>-0.01187946877079469</v>
       </c>
       <c r="AC6">
-        <v>0.004670389690703896</v>
+        <v>-0.01187946877079469</v>
       </c>
       <c r="AD6">
-        <v>0.004670389690703896</v>
+        <v>-0.01187946877079469</v>
       </c>
       <c r="AE6">
-        <v>0.004670389690703896</v>
+        <v>-0.01187946877079469</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1052,85 +1055,85 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.002986174577861746</v>
+        <v>-0.0001966011379660114</v>
       </c>
       <c r="D7">
-        <v>-0.003539119187391192</v>
+        <v>0.02194901197549012</v>
       </c>
       <c r="E7">
-        <v>0.001431422930314229</v>
+        <v>-0.007607017168070171</v>
       </c>
       <c r="F7">
-        <v>-0.00340429699004297</v>
+        <v>0.004926785905267859</v>
       </c>
       <c r="G7">
-        <v>0.006041105916411059</v>
+        <v>-0.001812220314122203</v>
       </c>
       <c r="I7">
-        <v>-0.003494091790940917</v>
+        <v>0.02121450398014504</v>
       </c>
       <c r="J7">
-        <v>0.005280172758845155</v>
+        <v>-0.002280658783407365</v>
       </c>
       <c r="K7">
-        <v>-0.002095058396950584</v>
+        <v>0.007592379087923791</v>
       </c>
       <c r="L7">
-        <v>-0.002095058396950584</v>
+        <v>0.007592379087923791</v>
       </c>
       <c r="M7">
-        <v>-0.002095058396950584</v>
+        <v>0.007592379087923791</v>
       </c>
       <c r="N7">
-        <v>-0.002095058396950584</v>
+        <v>0.007592379087923791</v>
       </c>
       <c r="O7">
-        <v>-0.002095058396950584</v>
+        <v>0.007592379087923791</v>
       </c>
       <c r="P7">
-        <v>-0.003150316747503167</v>
+        <v>0.005266152640661527</v>
       </c>
       <c r="Q7">
-        <v>-0.004337190775371908</v>
+        <v>0.004548341697483417</v>
       </c>
       <c r="R7">
-        <v>-0.004337190775371908</v>
+        <v>0.004548341697483417</v>
       </c>
       <c r="S7">
-        <v>-0.004337190775371908</v>
+        <v>0.004548341697483417</v>
       </c>
       <c r="T7">
-        <v>-0.004337190775371908</v>
+        <v>0.004548341697483417</v>
       </c>
       <c r="U7">
-        <v>-0.004001631688016317</v>
+        <v>-0.01457430380574304</v>
       </c>
       <c r="V7">
-        <v>-0.00297530596175306</v>
+        <v>-0.01112494905924949</v>
       </c>
       <c r="W7">
-        <v>-0.02158756709987567</v>
+        <v>0.006252944798529447</v>
       </c>
       <c r="X7">
-        <v>0.004000250584002506</v>
+        <v>0.004051510456515105</v>
       </c>
       <c r="Z7">
-        <v>0.004339836679398367</v>
+        <v>0.008207671198076711</v>
       </c>
       <c r="AA7">
-        <v>0.005125026759250268</v>
+        <v>-0.00127404201674042</v>
       </c>
       <c r="AB7">
-        <v>0.005125026759250268</v>
+        <v>-0.00127404201674042</v>
       </c>
       <c r="AC7">
-        <v>0.005125026759250268</v>
+        <v>-0.00127404201674042</v>
       </c>
       <c r="AD7">
-        <v>0.005125026759250268</v>
+        <v>-0.00127404201674042</v>
       </c>
       <c r="AE7">
-        <v>0.005125026759250268</v>
+        <v>-0.00127404201674042</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1139,85 +1142,85 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.3794623748306237</v>
+        <v>0.307584395631844</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.0007245637872456378</v>
+        <v>0.004681714306817144</v>
       </c>
       <c r="F8">
-        <v>-0.005156414295564143</v>
+        <v>-0.003719666725196667</v>
       </c>
       <c r="G8">
-        <v>0.02004640478046405</v>
+        <v>0.01821311351013114</v>
       </c>
       <c r="I8">
-        <v>0.7446510528305106</v>
+        <v>0.7474452434864525</v>
       </c>
       <c r="J8">
-        <v>0.03794933451417973</v>
+        <v>0.02437932620786971</v>
       </c>
       <c r="K8">
-        <v>-0.02254035665740357</v>
+        <v>-0.02708383769483838</v>
       </c>
       <c r="L8">
-        <v>-0.02254035665740357</v>
+        <v>-0.02708383769483838</v>
       </c>
       <c r="M8">
-        <v>-0.02254035665740357</v>
+        <v>-0.02708383769483838</v>
       </c>
       <c r="N8">
-        <v>-0.02254035665740357</v>
+        <v>-0.02708383769483838</v>
       </c>
       <c r="O8">
-        <v>-0.02254035665740357</v>
+        <v>-0.02708383769483838</v>
       </c>
       <c r="P8">
-        <v>-0.008837985628379856</v>
+        <v>-0.008868462316684622</v>
       </c>
       <c r="Q8">
-        <v>-0.02839405889594059</v>
+        <v>-0.02799051432390514</v>
       </c>
       <c r="R8">
-        <v>-0.02839405889594059</v>
+        <v>-0.02799051432390514</v>
       </c>
       <c r="S8">
-        <v>-0.02839405889594059</v>
+        <v>-0.02799051432390514</v>
       </c>
       <c r="T8">
-        <v>-0.02839405889594059</v>
+        <v>-0.02799051432390514</v>
       </c>
       <c r="U8">
-        <v>0.05766951813669519</v>
+        <v>0.0277950899659509</v>
       </c>
       <c r="V8">
-        <v>-0.009487695442876953</v>
+        <v>0.001843003242430033</v>
       </c>
       <c r="W8">
-        <v>-0.02133278495732785</v>
+        <v>-0.006565161833651619</v>
       </c>
       <c r="X8">
-        <v>-0.001630285264302853</v>
+        <v>-0.02976428219764282</v>
       </c>
       <c r="Z8">
-        <v>0.2917409563934095</v>
+        <v>0.252787097683871</v>
       </c>
       <c r="AA8">
-        <v>0.01871610111116101</v>
+        <v>0.03137897605378976</v>
       </c>
       <c r="AB8">
-        <v>0.01871610111116101</v>
+        <v>0.03137897605378976</v>
       </c>
       <c r="AC8">
-        <v>0.01871610111116101</v>
+        <v>0.03137897605378976</v>
       </c>
       <c r="AD8">
-        <v>0.01871610111116101</v>
+        <v>0.03137897605378976</v>
       </c>
       <c r="AE8">
-        <v>0.01871610111116101</v>
+        <v>0.03137897605378976</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1228,85 +1231,85 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.01042322646823226</v>
+        <v>0.003861168422611684</v>
       </c>
       <c r="D9">
-        <v>0.02306001840260018</v>
+        <v>-0.009849915098499151</v>
       </c>
       <c r="E9">
-        <v>-0.001814294118142941</v>
+        <v>0.01613564500135645</v>
       </c>
       <c r="F9">
-        <v>0.008045673296456732</v>
+        <v>-0.01166989785269898</v>
       </c>
       <c r="G9">
-        <v>-0.01143224249432242</v>
+        <v>0.007734231221342312</v>
       </c>
       <c r="I9">
-        <v>0.01857049654170496</v>
+        <v>0.001272640824726408</v>
       </c>
       <c r="J9">
-        <v>0.0009810434621900985</v>
+        <v>-0.01761753621696283</v>
       </c>
       <c r="K9">
-        <v>-0.002417446920174469</v>
+        <v>-0.004856159832561598</v>
       </c>
       <c r="L9">
-        <v>-0.002417446920174469</v>
+        <v>-0.004856159832561598</v>
       </c>
       <c r="M9">
-        <v>-0.002417446920174469</v>
+        <v>-0.004856159832561598</v>
       </c>
       <c r="N9">
-        <v>-0.002417446920174469</v>
+        <v>-0.004856159832561598</v>
       </c>
       <c r="O9">
-        <v>-0.002417446920174469</v>
+        <v>-0.004856159832561598</v>
       </c>
       <c r="P9">
-        <v>0.007359721825597219</v>
+        <v>-0.01192764855527649</v>
       </c>
       <c r="Q9">
-        <v>0.0015621799716218</v>
+        <v>-0.004970181841701818</v>
       </c>
       <c r="R9">
-        <v>0.0015621799716218</v>
+        <v>-0.004970181841701818</v>
       </c>
       <c r="S9">
-        <v>0.0015621799716218</v>
+        <v>-0.004970181841701818</v>
       </c>
       <c r="T9">
-        <v>0.0015621799716218</v>
+        <v>-0.004970181841701818</v>
       </c>
       <c r="U9">
-        <v>0.011519200411192</v>
+        <v>0.009270708308707083</v>
       </c>
       <c r="V9">
-        <v>0.01560906519609065</v>
+        <v>0.01382349832223498</v>
       </c>
       <c r="W9">
-        <v>0.005338723637387237</v>
+        <v>0.004175853221758532</v>
       </c>
       <c r="X9">
-        <v>-0.01230622440306224</v>
+        <v>-0.01312283541522835</v>
       </c>
       <c r="Z9">
-        <v>0.00754934894749349</v>
+        <v>-0.01864735477847355</v>
       </c>
       <c r="AA9">
-        <v>0.006118753165187532</v>
+        <v>0.0002029581500295815</v>
       </c>
       <c r="AB9">
-        <v>0.006118753165187532</v>
+        <v>0.0002029581500295815</v>
       </c>
       <c r="AC9">
-        <v>0.006118753165187532</v>
+        <v>0.0002029581500295815</v>
       </c>
       <c r="AD9">
-        <v>0.006118753165187532</v>
+        <v>0.0002029581500295815</v>
       </c>
       <c r="AE9">
-        <v>0.006118753165187532</v>
+        <v>0.0002029581500295815</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1317,85 +1320,85 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3351532162355322</v>
+        <v>0.3616189057481891</v>
       </c>
       <c r="D10">
-        <v>-0.006359613351596133</v>
+        <v>-0.006061106124611061</v>
       </c>
       <c r="E10">
-        <v>-0.001034903794349038</v>
+        <v>0.01118963213189632</v>
       </c>
       <c r="F10">
-        <v>0.0002944050149440502</v>
+        <v>-0.005970094127700941</v>
       </c>
       <c r="G10">
-        <v>0.0005155413771554139</v>
+        <v>0.001548103695481037</v>
       </c>
       <c r="I10">
-        <v>0.00191492495514925</v>
+        <v>-0.01147237074672371</v>
       </c>
       <c r="J10">
-        <v>0.008837817643798413</v>
+        <v>0.004192917386772231</v>
       </c>
       <c r="K10">
-        <v>-0.01205986344059864</v>
+        <v>-0.001144004087440041</v>
       </c>
       <c r="L10">
-        <v>-0.01205986344059864</v>
+        <v>-0.001144004087440041</v>
       </c>
       <c r="M10">
-        <v>-0.01205986344059864</v>
+        <v>-0.001144004087440041</v>
       </c>
       <c r="N10">
-        <v>-0.01205986344059864</v>
+        <v>-0.001144004087440041</v>
       </c>
       <c r="O10">
-        <v>-0.01205986344059864</v>
+        <v>-0.001144004087440041</v>
       </c>
       <c r="P10">
-        <v>7.811954478119544E-05</v>
+        <v>-0.006327280863272809</v>
       </c>
       <c r="Q10">
-        <v>-0.01104853349048533</v>
+        <v>0.002216203414162034</v>
       </c>
       <c r="R10">
-        <v>-0.01104853349048533</v>
+        <v>0.002216203414162034</v>
       </c>
       <c r="S10">
-        <v>-0.01104853349048533</v>
+        <v>0.002216203414162034</v>
       </c>
       <c r="T10">
-        <v>-0.01104853349048533</v>
+        <v>0.002216203414162034</v>
       </c>
       <c r="U10">
-        <v>-0.5625774662377746</v>
+        <v>-0.4276805870688059</v>
       </c>
       <c r="V10">
-        <v>-0.005167247751672478</v>
+        <v>0.01968483350884833</v>
       </c>
       <c r="W10">
-        <v>-0.004234646214346462</v>
+        <v>0.009430588714305887</v>
       </c>
       <c r="X10">
-        <v>4.27506604275066E-05</v>
+        <v>-0.01682867559628675</v>
       </c>
       <c r="Z10">
-        <v>0.004696451638964517</v>
+        <v>-0.01020841167008412</v>
       </c>
       <c r="AA10">
-        <v>0.009810119918101198</v>
+        <v>0.002040140816401408</v>
       </c>
       <c r="AB10">
-        <v>0.009810119918101198</v>
+        <v>0.002040140816401408</v>
       </c>
       <c r="AC10">
-        <v>0.009810119918101198</v>
+        <v>0.002040140816401408</v>
       </c>
       <c r="AD10">
-        <v>0.009810119918101198</v>
+        <v>0.002040140816401408</v>
       </c>
       <c r="AE10">
-        <v>0.009810119918101198</v>
+        <v>0.002040140816401408</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1406,85 +1409,85 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.1919503927315039</v>
+        <v>0.4964427540804275</v>
       </c>
       <c r="D11">
-        <v>-0.002171633421716334</v>
+        <v>-1.081171210811712E-05</v>
       </c>
       <c r="E11">
-        <v>-0.02191662228316622</v>
+        <v>-0.0281065099010651</v>
       </c>
       <c r="F11">
-        <v>0.02362912662829127</v>
+        <v>0.02342056351820564</v>
       </c>
       <c r="G11">
-        <v>-0.02225048086250481</v>
+        <v>-0.01971655298916553</v>
       </c>
       <c r="I11">
-        <v>-0.0100209101682091</v>
+        <v>-0.001040180350401804</v>
       </c>
       <c r="J11">
-        <v>-0.01243156016112662</v>
+        <v>-0.01822913508499427</v>
       </c>
       <c r="K11">
-        <v>0.006942042261420423</v>
+        <v>0.01340896619008966</v>
       </c>
       <c r="L11">
-        <v>0.006942042261420423</v>
+        <v>0.01340896619008966</v>
       </c>
       <c r="M11">
-        <v>0.006942042261420423</v>
+        <v>0.01340896619008966</v>
       </c>
       <c r="N11">
-        <v>0.006942042261420423</v>
+        <v>0.01340896619008966</v>
       </c>
       <c r="O11">
-        <v>0.006942042261420423</v>
+        <v>0.01340896619008966</v>
       </c>
       <c r="P11">
-        <v>0.02329613789296138</v>
+        <v>0.02393785325937853</v>
       </c>
       <c r="Q11">
-        <v>0.009919731555197315</v>
+        <v>0.01416891760568918</v>
       </c>
       <c r="R11">
-        <v>0.009919731555197315</v>
+        <v>0.01416891760568918</v>
       </c>
       <c r="S11">
-        <v>0.009919731555197315</v>
+        <v>0.01416891760568918</v>
       </c>
       <c r="T11">
-        <v>0.009919731555197315</v>
+        <v>0.01416891760568918</v>
       </c>
       <c r="U11">
-        <v>0.3589929741019298</v>
+        <v>0.688988298769883</v>
       </c>
       <c r="V11">
-        <v>0.005325635177256352</v>
+        <v>-0.0204169097521691</v>
       </c>
       <c r="W11">
-        <v>0.01600542884805429</v>
+        <v>0.004843196208431962</v>
       </c>
       <c r="X11">
-        <v>0.01482799957628</v>
+        <v>0.03025521909855219</v>
       </c>
       <c r="Z11">
-        <v>0.01273990073539901</v>
+        <v>0.03559380545593806</v>
       </c>
       <c r="AA11">
-        <v>-0.02408234824882349</v>
+        <v>-0.01852980612529806</v>
       </c>
       <c r="AB11">
-        <v>-0.02408234824882349</v>
+        <v>-0.01852980612529806</v>
       </c>
       <c r="AC11">
-        <v>-0.02408234824882349</v>
+        <v>-0.01852980612529806</v>
       </c>
       <c r="AD11">
-        <v>-0.02408234824882349</v>
+        <v>-0.01852980612529806</v>
       </c>
       <c r="AE11">
-        <v>-0.02408234824882349</v>
+        <v>-0.01852980612529806</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1495,85 +1498,85 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.001496356682963567</v>
+        <v>0.02341559955015599</v>
       </c>
       <c r="D12">
-        <v>-0.003981231303812314</v>
+        <v>0.01840892352408923</v>
       </c>
       <c r="E12">
-        <v>0.008685931994859319</v>
+        <v>0.002335527527355275</v>
       </c>
       <c r="F12">
-        <v>-0.006095795736957957</v>
+        <v>0.006081509832815099</v>
       </c>
       <c r="G12">
-        <v>0.004633661782336618</v>
+        <v>-0.01135085312950853</v>
       </c>
       <c r="I12">
-        <v>-0.005177715675777157</v>
+        <v>0.006581050229810503</v>
       </c>
       <c r="J12">
-        <v>0.008482321810105876</v>
+        <v>0.006524544047015572</v>
       </c>
       <c r="K12">
-        <v>0.005094190706941908</v>
+        <v>-0.01348279371882794</v>
       </c>
       <c r="L12">
-        <v>0.005094190706941908</v>
+        <v>-0.01348279371882794</v>
       </c>
       <c r="M12">
-        <v>0.005094190706941908</v>
+        <v>-0.01348279371882794</v>
       </c>
       <c r="N12">
-        <v>0.005094190706941908</v>
+        <v>-0.01348279371882794</v>
       </c>
       <c r="O12">
-        <v>0.005094190706941908</v>
+        <v>-0.01348279371882794</v>
       </c>
       <c r="P12">
-        <v>-0.005663239496632395</v>
+        <v>0.004879486104794861</v>
       </c>
       <c r="Q12">
-        <v>0.004755136667551367</v>
+        <v>-0.00473528305135283</v>
       </c>
       <c r="R12">
-        <v>0.004755136667551367</v>
+        <v>-0.00473528305135283</v>
       </c>
       <c r="S12">
-        <v>0.004755136667551367</v>
+        <v>-0.00473528305135283</v>
       </c>
       <c r="T12">
-        <v>0.004755136667551367</v>
+        <v>-0.00473528305135283</v>
       </c>
       <c r="U12">
-        <v>-0.002669796794697968</v>
+        <v>0.008060066180600662</v>
       </c>
       <c r="V12">
-        <v>0.007690586068905861</v>
+        <v>0.0225542199455422</v>
       </c>
       <c r="W12">
-        <v>-0.006047612688476128</v>
+        <v>0.0003599394755993948</v>
       </c>
       <c r="X12">
-        <v>-0.006119887129198872</v>
+        <v>-0.007048642366486423</v>
       </c>
       <c r="Z12">
-        <v>-0.0009436587454365875</v>
+        <v>0.001952970967529709</v>
       </c>
       <c r="AA12">
-        <v>-0.001335087121350871</v>
+        <v>-0.01560550765205508</v>
       </c>
       <c r="AB12">
-        <v>-0.001335087121350871</v>
+        <v>-0.01560550765205508</v>
       </c>
       <c r="AC12">
-        <v>-0.001335087121350871</v>
+        <v>-0.01560550765205508</v>
       </c>
       <c r="AD12">
-        <v>-0.001335087121350871</v>
+        <v>-0.01560550765205508</v>
       </c>
       <c r="AE12">
-        <v>-0.001335087121350871</v>
+        <v>-0.01560550765205508</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1584,85 +1587,85 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.1254351119223511</v>
+        <v>0.09250151505701515</v>
       </c>
       <c r="D13">
-        <v>-0.002156053365560533</v>
+        <v>-0.02004360854043609</v>
       </c>
       <c r="E13">
-        <v>-0.01112893373128934</v>
+        <v>0.005089091546890916</v>
       </c>
       <c r="F13">
-        <v>0.007782948209829482</v>
+        <v>-0.001462348538623485</v>
       </c>
       <c r="G13">
-        <v>-0.005348211485482115</v>
+        <v>-0.000530285405302854</v>
       </c>
       <c r="I13">
-        <v>0.004327823959278239</v>
+        <v>-0.007829091186290911</v>
       </c>
       <c r="J13">
-        <v>-0.02268697953764966</v>
+        <v>0.01267725406593232</v>
       </c>
       <c r="K13">
-        <v>0.001409117570091176</v>
+        <v>0.02082445313224453</v>
       </c>
       <c r="L13">
-        <v>0.001409117570091176</v>
+        <v>0.02082445313224453</v>
       </c>
       <c r="M13">
-        <v>0.001409117570091176</v>
+        <v>0.02082445313224453</v>
       </c>
       <c r="N13">
-        <v>0.001409117570091176</v>
+        <v>0.02082445313224453</v>
       </c>
       <c r="O13">
-        <v>0.001409117570091176</v>
+        <v>0.02082445313224453</v>
       </c>
       <c r="P13">
-        <v>0.007887246114872463</v>
+        <v>-0.001089249526892495</v>
       </c>
       <c r="Q13">
-        <v>0.0003597434915974349</v>
+        <v>0.01838086645580866</v>
       </c>
       <c r="R13">
-        <v>0.0003597434915974349</v>
+        <v>0.01838086645580866</v>
       </c>
       <c r="S13">
-        <v>0.0003597434915974349</v>
+        <v>0.01838086645580866</v>
       </c>
       <c r="T13">
-        <v>0.0003597434915974349</v>
+        <v>0.01838086645580866</v>
       </c>
       <c r="U13">
-        <v>0.1097920821899208</v>
+        <v>0.06204549770045498</v>
       </c>
       <c r="V13">
-        <v>-0.01198385385583854</v>
+        <v>0.007060281454602814</v>
       </c>
       <c r="W13">
-        <v>0.002382299603822996</v>
+        <v>-0.00903891689438917</v>
       </c>
       <c r="X13">
-        <v>0.003341539593415396</v>
+        <v>-0.01742366095823661</v>
       </c>
       <c r="Z13">
-        <v>0.004787214311872143</v>
+        <v>-0.0164978606129786</v>
       </c>
       <c r="AA13">
-        <v>0.003542727575427276</v>
+        <v>-0.00459648102996481</v>
       </c>
       <c r="AB13">
-        <v>0.003542727575427276</v>
+        <v>-0.00459648102996481</v>
       </c>
       <c r="AC13">
-        <v>0.003542727575427276</v>
+        <v>-0.00459648102996481</v>
       </c>
       <c r="AD13">
-        <v>0.003542727575427276</v>
+        <v>-0.00459648102996481</v>
       </c>
       <c r="AE13">
-        <v>0.003542727575427276</v>
+        <v>-0.00459648102996481</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1671,85 +1674,85 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.4917837068498371</v>
+        <v>-0.3999854378438544</v>
       </c>
       <c r="D14">
-        <v>0.0122786597307866</v>
+        <v>-0.003031562910315629</v>
       </c>
       <c r="E14">
-        <v>0.003498174358981743</v>
+        <v>-0.001948150483481505</v>
       </c>
       <c r="F14">
-        <v>-0.004494018044940181</v>
+        <v>0.003876248678762486</v>
       </c>
       <c r="G14">
-        <v>0.00521123605611236</v>
+        <v>-0.004973890825738908</v>
       </c>
       <c r="I14">
-        <v>0.02331587402915874</v>
+        <v>-0.01461605487816055</v>
       </c>
       <c r="J14">
-        <v>-0.00964660730219931</v>
+        <v>-0.004448339004961657</v>
       </c>
       <c r="K14">
-        <v>0.003499550566995506</v>
+        <v>0.007772384585723846</v>
       </c>
       <c r="L14">
-        <v>0.003499550566995506</v>
+        <v>0.007772384585723846</v>
       </c>
       <c r="M14">
-        <v>0.003499550566995506</v>
+        <v>0.007772384585723846</v>
       </c>
       <c r="N14">
-        <v>0.003499550566995506</v>
+        <v>0.007772384585723846</v>
       </c>
       <c r="O14">
-        <v>0.003499550566995506</v>
+        <v>0.007772384585723846</v>
       </c>
       <c r="P14">
-        <v>-0.004476752480767525</v>
+        <v>0.003942920103429201</v>
       </c>
       <c r="Q14">
-        <v>0.001864895862648959</v>
+        <v>0.009336848877368489</v>
       </c>
       <c r="R14">
-        <v>0.001864895862648959</v>
+        <v>0.009336848877368489</v>
       </c>
       <c r="S14">
-        <v>0.001864895862648959</v>
+        <v>0.009336848877368489</v>
       </c>
       <c r="T14">
-        <v>0.001864895862648959</v>
+        <v>0.009336848877368489</v>
       </c>
       <c r="U14">
-        <v>-0.09199741882397421</v>
+        <v>-0.07430361166703611</v>
       </c>
       <c r="V14">
-        <v>-0.001800726558007266</v>
+        <v>0.004846744740467447</v>
       </c>
       <c r="W14">
-        <v>-0.003613021800130218</v>
+        <v>-0.0117172703611727</v>
       </c>
       <c r="X14">
-        <v>-0.00362968903229689</v>
+        <v>-0.002120803233208032</v>
       </c>
       <c r="Z14">
-        <v>0.006638544834385448</v>
+        <v>-0.007786957001869569</v>
       </c>
       <c r="AA14">
-        <v>0.003112214227122143</v>
+        <v>0.0006903886509038865</v>
       </c>
       <c r="AB14">
-        <v>0.003112214227122143</v>
+        <v>0.0006903886509038865</v>
       </c>
       <c r="AC14">
-        <v>0.003112214227122143</v>
+        <v>0.0006903886509038865</v>
       </c>
       <c r="AD14">
-        <v>0.003112214227122143</v>
+        <v>0.0006903886509038865</v>
       </c>
       <c r="AE14">
-        <v>0.003112214227122143</v>
+        <v>0.0006903886509038865</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1760,85 +1763,85 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.0334751795267518</v>
+        <v>0.03224583507445835</v>
       </c>
       <c r="D15">
-        <v>-0.004798577807985778</v>
+        <v>-0.002824025776240258</v>
       </c>
       <c r="E15">
-        <v>-0.01070303806703038</v>
+        <v>0.008071989704719897</v>
       </c>
       <c r="F15">
-        <v>0.01109499408294994</v>
+        <v>-0.00778354199383542</v>
       </c>
       <c r="G15">
-        <v>-0.01052962379729624</v>
+        <v>0.006560539781605397</v>
       </c>
       <c r="I15">
-        <v>-0.007076285098762852</v>
+        <v>-0.004730086271300863</v>
       </c>
       <c r="J15">
-        <v>-0.006022439258555077</v>
+        <v>0.001173245557243574</v>
       </c>
       <c r="K15">
-        <v>-0.001142033939420339</v>
+        <v>-0.01016120374161204</v>
       </c>
       <c r="L15">
-        <v>-0.001142033939420339</v>
+        <v>-0.01016120374161204</v>
       </c>
       <c r="M15">
-        <v>-0.001142033939420339</v>
+        <v>-0.01016120374161204</v>
       </c>
       <c r="N15">
-        <v>-0.001142033939420339</v>
+        <v>-0.01016120374161204</v>
       </c>
       <c r="O15">
-        <v>-0.001142033939420339</v>
+        <v>-0.01016120374161204</v>
       </c>
       <c r="P15">
-        <v>0.01110464771104648</v>
+        <v>-0.007816614366166144</v>
       </c>
       <c r="Q15">
-        <v>-0.0002545796065457961</v>
+        <v>-0.01105826066658261</v>
       </c>
       <c r="R15">
-        <v>-0.0002545796065457961</v>
+        <v>-0.01105826066658261</v>
       </c>
       <c r="S15">
-        <v>-0.0002545796065457961</v>
+        <v>-0.01105826066658261</v>
       </c>
       <c r="T15">
-        <v>-0.0002545796065457961</v>
+        <v>-0.01105826066658261</v>
       </c>
       <c r="U15">
-        <v>0.05327127215271273</v>
+        <v>0.0224449696044497</v>
       </c>
       <c r="V15">
-        <v>-0.001723180517231805</v>
+        <v>-0.0009242356292423564</v>
       </c>
       <c r="W15">
-        <v>-0.01622917581029176</v>
+        <v>-0.01280991688409917</v>
       </c>
       <c r="X15">
-        <v>0.002143829481438295</v>
+        <v>-0.01123538914035389</v>
       </c>
       <c r="Z15">
-        <v>0.003374676189746762</v>
+        <v>-0.007729838633298386</v>
       </c>
       <c r="AA15">
-        <v>-0.004401953708019536</v>
+        <v>0.008304796187047962</v>
       </c>
       <c r="AB15">
-        <v>-0.004401953708019536</v>
+        <v>0.008304796187047962</v>
       </c>
       <c r="AC15">
-        <v>-0.004401953708019536</v>
+        <v>0.008304796187047962</v>
       </c>
       <c r="AD15">
-        <v>-0.004401953708019536</v>
+        <v>0.008304796187047962</v>
       </c>
       <c r="AE15">
-        <v>-0.004401953708019536</v>
+        <v>0.008304796187047962</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1849,85 +1852,85 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.04765679111656792</v>
+        <v>-0.02772259740122598</v>
       </c>
       <c r="D16">
-        <v>-0.02848500249285003</v>
+        <v>0.0007758225677582258</v>
       </c>
       <c r="E16">
-        <v>0.01221668385816684</v>
+        <v>-0.02726818269268183</v>
       </c>
       <c r="F16">
-        <v>-0.006420316264203163</v>
+        <v>0.02306721747867217</v>
       </c>
       <c r="G16">
-        <v>-0.0008832796288327962</v>
+        <v>-0.02011940094919401</v>
       </c>
       <c r="I16">
-        <v>-0.01800569468405695</v>
+        <v>-0.007086758710867586</v>
       </c>
       <c r="J16">
-        <v>-0.002366201094577731</v>
+        <v>-0.003861721695339959</v>
       </c>
       <c r="K16">
-        <v>-0.008761330467613305</v>
+        <v>0.001524449763244498</v>
       </c>
       <c r="L16">
-        <v>-0.008761330467613305</v>
+        <v>0.001524449763244498</v>
       </c>
       <c r="M16">
-        <v>-0.008761330467613305</v>
+        <v>0.001524449763244498</v>
       </c>
       <c r="N16">
-        <v>-0.008761330467613305</v>
+        <v>0.001524449763244498</v>
       </c>
       <c r="O16">
-        <v>-0.008761330467613305</v>
+        <v>0.001524449763244498</v>
       </c>
       <c r="P16">
-        <v>-0.006843430556434306</v>
+        <v>0.02315841255958413</v>
       </c>
       <c r="Q16">
-        <v>-0.003448444426484444</v>
+        <v>0.004095621160956212</v>
       </c>
       <c r="R16">
-        <v>-0.003448444426484444</v>
+        <v>0.004095621160956212</v>
       </c>
       <c r="S16">
-        <v>-0.003448444426484444</v>
+        <v>0.004095621160956212</v>
       </c>
       <c r="T16">
-        <v>-0.003448444426484444</v>
+        <v>0.004095621160956212</v>
       </c>
       <c r="U16">
-        <v>-0.0597279309452793</v>
+        <v>-0.02587897200678972</v>
       </c>
       <c r="V16">
-        <v>0.02048428902084289</v>
+        <v>-0.01402351748023517</v>
       </c>
       <c r="W16">
-        <v>-0.01917543295175433</v>
+        <v>0.004277973330779733</v>
       </c>
       <c r="X16">
-        <v>-0.008872351576723515</v>
+        <v>0.01891545634515457</v>
       </c>
       <c r="Z16">
-        <v>-0.009442167934421678</v>
+        <v>0.01933122458531224</v>
       </c>
       <c r="AA16">
-        <v>-0.006919850361198503</v>
+        <v>-0.00321436804414368</v>
       </c>
       <c r="AB16">
-        <v>-0.006919850361198503</v>
+        <v>-0.00321436804414368</v>
       </c>
       <c r="AC16">
-        <v>-0.006919850361198503</v>
+        <v>-0.00321436804414368</v>
       </c>
       <c r="AD16">
-        <v>-0.006919850361198503</v>
+        <v>-0.00321436804414368</v>
       </c>
       <c r="AE16">
-        <v>-0.006919850361198503</v>
+        <v>-0.00321436804414368</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -1938,85 +1941,85 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>-0.02153566606735666</v>
+        <v>0.02167381417273814</v>
       </c>
       <c r="D17">
-        <v>0.003260992484609925</v>
+        <v>0.01176501519365015</v>
       </c>
       <c r="E17">
-        <v>-0.009312092673120926</v>
+        <v>0.0136704401927044</v>
       </c>
       <c r="F17">
-        <v>0.01142404239024042</v>
+        <v>-0.01388937406289374</v>
       </c>
       <c r="G17">
-        <v>-0.01141857138618571</v>
+        <v>0.01384185533441855</v>
       </c>
       <c r="I17">
-        <v>0.005560429243604293</v>
+        <v>0.00133401496934015</v>
       </c>
       <c r="J17">
-        <v>-0.01200585489470482</v>
+        <v>0.01832933020863767</v>
       </c>
       <c r="K17">
-        <v>0.007562806251628062</v>
+        <v>-0.01511154166311542</v>
       </c>
       <c r="L17">
-        <v>0.007562806251628062</v>
+        <v>-0.01511154166311542</v>
       </c>
       <c r="M17">
-        <v>0.007562806251628062</v>
+        <v>-0.01511154166311542</v>
       </c>
       <c r="N17">
-        <v>0.007562806251628062</v>
+        <v>-0.01511154166311542</v>
       </c>
       <c r="O17">
-        <v>0.007562806251628062</v>
+        <v>-0.01511154166311542</v>
       </c>
       <c r="P17">
-        <v>0.01157049291170493</v>
+        <v>-0.01410843410108434</v>
       </c>
       <c r="Q17">
-        <v>0.007820262174202623</v>
+        <v>-0.01575238746152388</v>
       </c>
       <c r="R17">
-        <v>0.007820262174202623</v>
+        <v>-0.01575238746152388</v>
       </c>
       <c r="S17">
-        <v>0.007820262174202623</v>
+        <v>-0.01575238746152388</v>
       </c>
       <c r="T17">
-        <v>0.007820262174202623</v>
+        <v>-0.01575238746152388</v>
       </c>
       <c r="U17">
-        <v>0.01016818228168182</v>
+        <v>-0.004178573633785736</v>
       </c>
       <c r="V17">
-        <v>0.002176790349767903</v>
+        <v>0.001993201399932014</v>
       </c>
       <c r="W17">
-        <v>-0.008200616674006168</v>
+        <v>0.01027403663474037</v>
       </c>
       <c r="X17">
-        <v>0.005015364194153642</v>
+        <v>-0.01875415513954155</v>
       </c>
       <c r="Z17">
-        <v>0.001300009333000093</v>
+        <v>-0.01688060522480605</v>
       </c>
       <c r="AA17">
-        <v>-0.006702970243029703</v>
+        <v>0.02045203710052037</v>
       </c>
       <c r="AB17">
-        <v>-0.006702970243029703</v>
+        <v>0.02045203710052037</v>
       </c>
       <c r="AC17">
-        <v>-0.006702970243029703</v>
+        <v>0.02045203710052037</v>
       </c>
       <c r="AD17">
-        <v>-0.006702970243029703</v>
+        <v>0.02045203710052037</v>
       </c>
       <c r="AE17">
-        <v>-0.006702970243029703</v>
+        <v>0.02045203710052037</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2027,85 +2030,85 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>-0.008131541973315419</v>
+        <v>0.01155633331956333</v>
       </c>
       <c r="D18">
-        <v>-0.001949569399495694</v>
+        <v>-0.001414514918145149</v>
       </c>
       <c r="E18">
-        <v>-0.005595378667953788</v>
+        <v>0.003013297578132975</v>
       </c>
       <c r="F18">
-        <v>0.005662267124622671</v>
+        <v>5.673199256731993E-05</v>
       </c>
       <c r="G18">
-        <v>-0.006304459887044598</v>
+        <v>-0.003073432182734322</v>
       </c>
       <c r="I18">
-        <v>0.0006214410182144102</v>
+        <v>-0.007629596488295965</v>
       </c>
       <c r="J18">
-        <v>-0.01784857294739313</v>
+        <v>0.008194575860407432</v>
       </c>
       <c r="K18">
-        <v>0.001075440754754408</v>
+        <v>0.001228764120287641</v>
       </c>
       <c r="L18">
-        <v>0.001075440754754408</v>
+        <v>0.001228764120287641</v>
       </c>
       <c r="M18">
-        <v>0.001075440754754408</v>
+        <v>0.001228764120287641</v>
       </c>
       <c r="N18">
-        <v>0.001075440754754408</v>
+        <v>0.001228764120287641</v>
       </c>
       <c r="O18">
-        <v>0.001075440754754408</v>
+        <v>0.001228764120287641</v>
       </c>
       <c r="P18">
-        <v>0.005630512904305129</v>
+        <v>-0.0001226983572269836</v>
       </c>
       <c r="Q18">
-        <v>0.001684369432843694</v>
+        <v>0.003458363806583638</v>
       </c>
       <c r="R18">
-        <v>0.001684369432843694</v>
+        <v>0.003458363806583638</v>
       </c>
       <c r="S18">
-        <v>0.001684369432843694</v>
+        <v>0.003458363806583638</v>
       </c>
       <c r="T18">
-        <v>0.001684369432843694</v>
+        <v>0.003458363806583638</v>
       </c>
       <c r="U18">
-        <v>-0.002941839389418394</v>
+        <v>0.007317714157177141</v>
       </c>
       <c r="V18">
-        <v>-0.003145274071452741</v>
+        <v>0.009279273092792731</v>
       </c>
       <c r="W18">
-        <v>0.005723024853230249</v>
+        <v>-0.01051650140116501</v>
       </c>
       <c r="X18">
-        <v>0.002019958904199589</v>
+        <v>-6.154537261545372E-05</v>
       </c>
       <c r="Z18">
-        <v>-0.003687684708876847</v>
+        <v>0.00122238903622389</v>
       </c>
       <c r="AA18">
-        <v>0.001520752539207525</v>
+        <v>-0.006162189277621893</v>
       </c>
       <c r="AB18">
-        <v>0.001520752539207525</v>
+        <v>-0.006162189277621893</v>
       </c>
       <c r="AC18">
-        <v>0.001520752539207525</v>
+        <v>-0.006162189277621893</v>
       </c>
       <c r="AD18">
-        <v>0.001520752539207525</v>
+        <v>-0.006162189277621893</v>
       </c>
       <c r="AE18">
-        <v>0.001520752539207525</v>
+        <v>-0.006162189277621893</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2114,85 +2117,85 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.00525263196452632</v>
+        <v>0.0206798099307981</v>
       </c>
       <c r="D19">
-        <v>-0.001040220934402209</v>
+        <v>0.01707790277077903</v>
       </c>
       <c r="E19">
-        <v>-0.009736176001361761</v>
+        <v>0.004200122646001226</v>
       </c>
       <c r="F19">
-        <v>0.008366621567666216</v>
+        <v>0.000318045399180454</v>
       </c>
       <c r="G19">
-        <v>-0.007104529919045299</v>
+        <v>-0.002883877240838773</v>
       </c>
       <c r="I19">
-        <v>0.005823985642239857</v>
+        <v>0.001417676534176765</v>
       </c>
       <c r="J19">
-        <v>0.02354475137855933</v>
+        <v>0.0006236747802295138</v>
       </c>
       <c r="K19">
-        <v>0.007534573407345734</v>
+        <v>-0.009294473324944734</v>
       </c>
       <c r="L19">
-        <v>0.007534573407345734</v>
+        <v>-0.009294473324944734</v>
       </c>
       <c r="M19">
-        <v>0.007534573407345734</v>
+        <v>-0.009294473324944734</v>
       </c>
       <c r="N19">
-        <v>0.007534573407345734</v>
+        <v>-0.009294473324944734</v>
       </c>
       <c r="O19">
-        <v>0.007534573407345734</v>
+        <v>-0.009294473324944734</v>
       </c>
       <c r="P19">
-        <v>0.008324521103245211</v>
+        <v>-0.0002527196065271961</v>
       </c>
       <c r="Q19">
-        <v>0.006382039167820391</v>
+        <v>-0.007499688230996882</v>
       </c>
       <c r="R19">
-        <v>0.006382039167820391</v>
+        <v>-0.007499688230996882</v>
       </c>
       <c r="S19">
-        <v>0.006382039167820391</v>
+        <v>-0.007499688230996882</v>
       </c>
       <c r="T19">
-        <v>0.006382039167820391</v>
+        <v>-0.007499688230996882</v>
       </c>
       <c r="U19">
-        <v>0.005418545706185457</v>
+        <v>0.004769809367698093</v>
       </c>
       <c r="V19">
-        <v>-0.0009831175898311758</v>
+        <v>0.0148380702643807</v>
       </c>
       <c r="W19">
-        <v>0.004262378982623789</v>
+        <v>-0.007856058138560581</v>
       </c>
       <c r="X19">
-        <v>0.01288481277284813</v>
+        <v>-0.01390969519909695</v>
       </c>
       <c r="Z19">
-        <v>0.005741610537416105</v>
+        <v>-0.004009519228095192</v>
       </c>
       <c r="AA19">
-        <v>-0.009103714711037146</v>
+        <v>0.01038121675981217</v>
       </c>
       <c r="AB19">
-        <v>-0.009103714711037146</v>
+        <v>0.01038121675981217</v>
       </c>
       <c r="AC19">
-        <v>-0.009103714711037146</v>
+        <v>0.01038121675981217</v>
       </c>
       <c r="AD19">
-        <v>-0.009103714711037146</v>
+        <v>0.01038121675981217</v>
       </c>
       <c r="AE19">
-        <v>-0.009103714711037146</v>
+        <v>0.01038121675981217</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2203,85 +2206,85 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>0.009552072419520724</v>
+        <v>-0.001115839367158394</v>
       </c>
       <c r="D20">
-        <v>0.008694975218949751</v>
+        <v>-0.007641676312416763</v>
       </c>
       <c r="E20">
-        <v>-0.0004481258084812581</v>
+        <v>0.0027617800476178</v>
       </c>
       <c r="F20">
-        <v>0.002472252288722523</v>
+        <v>-0.007380473137804731</v>
       </c>
       <c r="G20">
-        <v>-0.002109430785094308</v>
+        <v>0.01050700802107008</v>
       </c>
       <c r="I20">
-        <v>-0.00311401497114015</v>
+        <v>-0.008259163282591632</v>
       </c>
       <c r="J20">
-        <v>-0.003057233503755484</v>
+        <v>0.01341735858407152</v>
       </c>
       <c r="K20">
-        <v>0.001394593837945939</v>
+        <v>0.0003349532793495328</v>
       </c>
       <c r="L20">
-        <v>0.001394593837945939</v>
+        <v>0.0003349532793495328</v>
       </c>
       <c r="M20">
-        <v>0.001394593837945939</v>
+        <v>0.0003349532793495328</v>
       </c>
       <c r="N20">
-        <v>0.001394593837945939</v>
+        <v>0.0003349532793495328</v>
       </c>
       <c r="O20">
-        <v>0.001394593837945939</v>
+        <v>0.0003349532793495328</v>
       </c>
       <c r="P20">
-        <v>0.002344579799445798</v>
+        <v>-0.0069279600332796</v>
       </c>
       <c r="Q20">
-        <v>0.002294358574943586</v>
+        <v>-0.004642464718424647</v>
       </c>
       <c r="R20">
-        <v>0.002294358574943586</v>
+        <v>-0.004642464718424647</v>
       </c>
       <c r="S20">
-        <v>0.002294358574943586</v>
+        <v>-0.004642464718424647</v>
       </c>
       <c r="T20">
-        <v>0.002294358574943586</v>
+        <v>-0.004642464718424647</v>
       </c>
       <c r="U20">
-        <v>-0.004982797765827978</v>
+        <v>0.0009277738052777382</v>
       </c>
       <c r="V20">
-        <v>0.00466501108665011</v>
+        <v>-0.01793639131136392</v>
       </c>
       <c r="W20">
-        <v>0.01885855316058553</v>
+        <v>0.02820094386600944</v>
       </c>
       <c r="X20">
-        <v>0.001079858650798586</v>
+        <v>0.007028662114286621</v>
       </c>
       <c r="Z20">
-        <v>4.08100804081008E-06</v>
+        <v>-0.0003468235474682355</v>
       </c>
       <c r="AA20">
-        <v>0.0008963344289633442</v>
+        <v>0.006571249205712493</v>
       </c>
       <c r="AB20">
-        <v>0.0008963344289633442</v>
+        <v>0.006571249205712493</v>
       </c>
       <c r="AC20">
-        <v>0.0008963344289633442</v>
+        <v>0.006571249205712493</v>
       </c>
       <c r="AD20">
-        <v>0.0008963344289633442</v>
+        <v>0.006571249205712493</v>
       </c>
       <c r="AE20">
-        <v>0.0008963344289633442</v>
+        <v>0.006571249205712493</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2292,85 +2295,85 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>-0.003370860309708603</v>
+        <v>0.01273547691135477</v>
       </c>
       <c r="D21">
-        <v>-0.000906212205062122</v>
+        <v>0.004832216064322161</v>
       </c>
       <c r="E21">
-        <v>0.007102270811022708</v>
+        <v>0.01655416718154167</v>
       </c>
       <c r="F21">
-        <v>-0.003658836204588362</v>
+        <v>-0.01692728530927285</v>
       </c>
       <c r="G21">
-        <v>0.0008487122964871229</v>
+        <v>0.01733983817339838</v>
       </c>
       <c r="I21">
-        <v>-0.001783562489835625</v>
+        <v>0.01527920219679202</v>
       </c>
       <c r="J21">
-        <v>0.006184237852235679</v>
+        <v>0.02265939976165947</v>
       </c>
       <c r="K21">
-        <v>-0.0006418632184186323</v>
+        <v>-0.004026224728262247</v>
       </c>
       <c r="L21">
-        <v>-0.0006418632184186323</v>
+        <v>-0.004026224728262247</v>
       </c>
       <c r="M21">
-        <v>-0.0006418632184186323</v>
+        <v>-0.004026224728262247</v>
       </c>
       <c r="N21">
-        <v>-0.0006418632184186323</v>
+        <v>-0.004026224728262247</v>
       </c>
       <c r="O21">
-        <v>-0.0006418632184186323</v>
+        <v>-0.004026224728262247</v>
       </c>
       <c r="P21">
-        <v>-0.003788670181886702</v>
+        <v>-0.0167749801797498</v>
       </c>
       <c r="Q21">
-        <v>-0.0004836646368366464</v>
+        <v>-0.009492142078921422</v>
       </c>
       <c r="R21">
-        <v>-0.0004836646368366464</v>
+        <v>-0.009492142078921422</v>
       </c>
       <c r="S21">
-        <v>-0.0004836646368366464</v>
+        <v>-0.009492142078921422</v>
       </c>
       <c r="T21">
-        <v>-0.0004836646368366464</v>
+        <v>-0.009492142078921422</v>
       </c>
       <c r="U21">
-        <v>-0.003603873840038738</v>
+        <v>0.004364805727648057</v>
       </c>
       <c r="V21">
-        <v>0.008184817725848179</v>
+        <v>0.002640140606401406</v>
       </c>
       <c r="W21">
-        <v>-0.00521983397219834</v>
+        <v>-0.002548001257480013</v>
       </c>
       <c r="X21">
-        <v>-0.008766391467663915</v>
+        <v>-0.01233778337137783</v>
       </c>
       <c r="Z21">
-        <v>-0.006061669836616698</v>
+        <v>-0.008157573249575731</v>
       </c>
       <c r="AA21">
-        <v>0.005214348904143489</v>
+        <v>0.01898231801782318</v>
       </c>
       <c r="AB21">
-        <v>0.005214348904143489</v>
+        <v>0.01898231801782318</v>
       </c>
       <c r="AC21">
-        <v>0.005214348904143489</v>
+        <v>0.01898231801782318</v>
       </c>
       <c r="AD21">
-        <v>0.005214348904143489</v>
+        <v>0.01898231801782318</v>
       </c>
       <c r="AE21">
-        <v>0.005214348904143489</v>
+        <v>0.01898231801782318</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2379,85 +2382,85 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>0.009871584170715842</v>
+        <v>-0.01538535394585354</v>
       </c>
       <c r="D22">
-        <v>0.00435194299951943</v>
+        <v>-7.972794079727941E-05</v>
       </c>
       <c r="E22">
-        <v>0.01848131450881314</v>
+        <v>-0.01285769184857692</v>
       </c>
       <c r="F22">
-        <v>-0.02082009516420095</v>
+        <v>0.006654242682542427</v>
       </c>
       <c r="G22">
-        <v>0.01982530162225302</v>
+        <v>-0.001652903104529031</v>
       </c>
       <c r="I22">
-        <v>0.0131507498875075</v>
+        <v>0.009875488058754879</v>
       </c>
       <c r="J22">
-        <v>-0.01889736612428694</v>
+        <v>-0.00781592426019679</v>
       </c>
       <c r="K22">
-        <v>0.01512577780325778</v>
+        <v>-0.002984396273843963</v>
       </c>
       <c r="L22">
-        <v>0.01512577780325778</v>
+        <v>-0.002984396273843963</v>
       </c>
       <c r="M22">
-        <v>0.01512577780325778</v>
+        <v>-0.002984396273843963</v>
       </c>
       <c r="N22">
-        <v>0.01512577780325778</v>
+        <v>-0.002984396273843963</v>
       </c>
       <c r="O22">
-        <v>0.01512577780325778</v>
+        <v>-0.002984396273843963</v>
       </c>
       <c r="P22">
-        <v>-0.02039939851199398</v>
+        <v>0.006550541789505419</v>
       </c>
       <c r="Q22">
-        <v>0.01167752214877522</v>
+        <v>-0.00382606097026061</v>
       </c>
       <c r="R22">
-        <v>0.01167752214877522</v>
+        <v>-0.00382606097026061</v>
       </c>
       <c r="S22">
-        <v>0.01167752214877522</v>
+        <v>-0.00382606097026061</v>
       </c>
       <c r="T22">
-        <v>0.01167752214877522</v>
+        <v>-0.00382606097026061</v>
       </c>
       <c r="U22">
-        <v>-0.012455500408555</v>
+        <v>0.001036160290361603</v>
       </c>
       <c r="V22">
-        <v>9.511512095115122E-06</v>
+        <v>-0.01520679876806799</v>
       </c>
       <c r="W22">
-        <v>0.003616517256165172</v>
+        <v>0.0005167798491677986</v>
       </c>
       <c r="X22">
-        <v>-0.01176650634966506</v>
+        <v>0.01229548878295489</v>
       </c>
       <c r="Z22">
-        <v>-0.009193643203936433</v>
+        <v>0.005529921571299216</v>
       </c>
       <c r="AA22">
-        <v>0.009176790415767905</v>
+        <v>0.00125542795255428</v>
       </c>
       <c r="AB22">
-        <v>0.009176790415767905</v>
+        <v>0.00125542795255428</v>
       </c>
       <c r="AC22">
-        <v>0.009176790415767905</v>
+        <v>0.00125542795255428</v>
       </c>
       <c r="AD22">
-        <v>0.009176790415767905</v>
+        <v>0.00125542795255428</v>
       </c>
       <c r="AE22">
-        <v>0.009176790415767905</v>
+        <v>0.00125542795255428</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2466,85 +2469,85 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>-0.0006913041309130413</v>
+        <v>0.002678611166786112</v>
       </c>
       <c r="D23">
-        <v>-0.01252184628521846</v>
+        <v>0.01001911825619118</v>
       </c>
       <c r="E23">
-        <v>-0.00579743597797436</v>
+        <v>0.005723880873238809</v>
       </c>
       <c r="F23">
-        <v>0.002534988697349887</v>
+        <v>-0.008357544491575445</v>
       </c>
       <c r="G23">
-        <v>4.282341642823417E-05</v>
+        <v>0.009091067370910673</v>
       </c>
       <c r="I23">
-        <v>-0.01270488865904889</v>
+        <v>0.0002724733227247332</v>
       </c>
       <c r="J23">
-        <v>-0.007570516434634956</v>
+        <v>-0.007095583916381768</v>
       </c>
       <c r="K23">
-        <v>0.002556475297564753</v>
+        <v>-0.002499155220991552</v>
       </c>
       <c r="L23">
-        <v>0.002556475297564753</v>
+        <v>-0.002499155220991552</v>
       </c>
       <c r="M23">
-        <v>0.002556475297564753</v>
+        <v>-0.002499155220991552</v>
       </c>
       <c r="N23">
-        <v>0.002556475297564753</v>
+        <v>-0.002499155220991552</v>
       </c>
       <c r="O23">
-        <v>0.002556475297564753</v>
+        <v>-0.002499155220991552</v>
       </c>
       <c r="P23">
-        <v>0.002753667711536677</v>
+        <v>-0.008257056538570565</v>
       </c>
       <c r="Q23">
-        <v>0.0007723090157230901</v>
+        <v>-0.005377167353771673</v>
       </c>
       <c r="R23">
-        <v>0.0007723090157230901</v>
+        <v>-0.005377167353771673</v>
       </c>
       <c r="S23">
-        <v>0.0007723090157230901</v>
+        <v>-0.005377167353771673</v>
       </c>
       <c r="T23">
-        <v>0.0007723090157230901</v>
+        <v>-0.005377167353771673</v>
       </c>
       <c r="U23">
-        <v>-0.0109356596653566</v>
+        <v>-0.01096654647766547</v>
       </c>
       <c r="V23">
-        <v>-0.01251463570114636</v>
+        <v>-0.002553338545533386</v>
       </c>
       <c r="W23">
-        <v>-0.01868510154685101</v>
+        <v>0.02362653344026533</v>
       </c>
       <c r="X23">
-        <v>0.005445111630451117</v>
+        <v>-0.003373159629731596</v>
       </c>
       <c r="Z23">
-        <v>0.003215957252159572</v>
+        <v>-0.01237039214770392</v>
       </c>
       <c r="AA23">
-        <v>0.005285487556854876</v>
+        <v>0.007644882568448826</v>
       </c>
       <c r="AB23">
-        <v>0.005285487556854876</v>
+        <v>0.007644882568448826</v>
       </c>
       <c r="AC23">
-        <v>0.005285487556854876</v>
+        <v>0.007644882568448826</v>
       </c>
       <c r="AD23">
-        <v>0.005285487556854876</v>
+        <v>0.007644882568448826</v>
       </c>
       <c r="AE23">
-        <v>0.005285487556854876</v>
+        <v>0.007644882568448826</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2553,85 +2556,85 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>0.002906448497064485</v>
+        <v>0.001912121383121214</v>
       </c>
       <c r="D24">
-        <v>0.001710453641104536</v>
+        <v>-0.01110188474701885</v>
       </c>
       <c r="E24">
-        <v>0.006042018108420181</v>
+        <v>0.001966429255664292</v>
       </c>
       <c r="F24">
-        <v>-0.006472316080723161</v>
+        <v>-0.003462141682621417</v>
       </c>
       <c r="G24">
-        <v>0.004966507117665071</v>
+        <v>0.002875117900751179</v>
       </c>
       <c r="I24">
-        <v>-0.001939809787398098</v>
+        <v>-0.01163357474033575</v>
       </c>
       <c r="J24">
-        <v>-0.001515762237744222</v>
+        <v>0.00965409761034651</v>
       </c>
       <c r="K24">
-        <v>0.003137482627374827</v>
+        <v>0.0006884231228842313</v>
       </c>
       <c r="L24">
-        <v>0.003137482627374827</v>
+        <v>0.0006884231228842313</v>
       </c>
       <c r="M24">
-        <v>0.003137482627374827</v>
+        <v>0.0006884231228842313</v>
       </c>
       <c r="N24">
-        <v>0.003137482627374827</v>
+        <v>0.0006884231228842313</v>
       </c>
       <c r="O24">
-        <v>0.003137482627374827</v>
+        <v>0.0006884231228842313</v>
       </c>
       <c r="P24">
-        <v>-0.006393698163936981</v>
+        <v>-0.00314792797947928</v>
       </c>
       <c r="Q24">
-        <v>0.001967569579675696</v>
+        <v>-0.0009812212058122121</v>
       </c>
       <c r="R24">
-        <v>0.001967569579675696</v>
+        <v>-0.0009812212058122121</v>
       </c>
       <c r="S24">
-        <v>0.001967569579675696</v>
+        <v>-0.0009812212058122121</v>
       </c>
       <c r="T24">
-        <v>0.001967569579675696</v>
+        <v>-0.0009812212058122121</v>
       </c>
       <c r="U24">
-        <v>-0.005973448343734483</v>
+        <v>0.0132967597329676</v>
       </c>
       <c r="V24">
-        <v>0.003447218026472181</v>
+        <v>-0.001961084383610844</v>
       </c>
       <c r="W24">
-        <v>-0.01372289798922898</v>
+        <v>-0.02431269295512693</v>
       </c>
       <c r="X24">
-        <v>0.0007530331035303311</v>
+        <v>0.003399981849999819</v>
       </c>
       <c r="Z24">
-        <v>-0.002929295381292954</v>
+        <v>-0.005836884382368845</v>
       </c>
       <c r="AA24">
-        <v>0.0008711405007114049</v>
+        <v>-0.002774793171747932</v>
       </c>
       <c r="AB24">
-        <v>0.0008711405007114049</v>
+        <v>-0.002774793171747932</v>
       </c>
       <c r="AC24">
-        <v>0.0008711405007114049</v>
+        <v>-0.002774793171747932</v>
       </c>
       <c r="AD24">
-        <v>0.0008711405007114049</v>
+        <v>-0.002774793171747932</v>
       </c>
       <c r="AE24">
-        <v>0.0008711405007114049</v>
+        <v>-0.002774793171747932</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2642,85 +2645,85 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>-0.002902716053027161</v>
+        <v>-0.009354070953540709</v>
       </c>
       <c r="D25">
-        <v>-0.007245772692457727</v>
+        <v>0.001704990857049909</v>
       </c>
       <c r="E25">
-        <v>0.01107264751472647</v>
+        <v>-0.01351072763110728</v>
       </c>
       <c r="F25">
-        <v>-0.007684403152844031</v>
+        <v>0.01168406774084068</v>
       </c>
       <c r="G25">
-        <v>0.006105732577057326</v>
+        <v>-0.01023241264232413</v>
       </c>
       <c r="I25">
-        <v>0.004822364652223647</v>
+        <v>-0.005711243601112436</v>
       </c>
       <c r="J25">
-        <v>-0.01041333304816329</v>
+        <v>0.00369344771457993</v>
       </c>
       <c r="K25">
-        <v>0.0004491177404911773</v>
+        <v>-0.0007150598111505982</v>
       </c>
       <c r="L25">
-        <v>0.0004491177404911773</v>
+        <v>-0.0007150598111505982</v>
       </c>
       <c r="M25">
-        <v>0.0004491177404911773</v>
+        <v>-0.0007150598111505982</v>
       </c>
       <c r="N25">
-        <v>0.0004491177404911773</v>
+        <v>-0.0007150598111505982</v>
       </c>
       <c r="O25">
-        <v>0.0004491177404911773</v>
+        <v>-0.0007150598111505982</v>
       </c>
       <c r="P25">
-        <v>-0.007828862634288626</v>
+        <v>0.01170771483307715</v>
       </c>
       <c r="Q25">
-        <v>0.001141704683417047</v>
+        <v>0.001549822443498224</v>
       </c>
       <c r="R25">
-        <v>0.001141704683417047</v>
+        <v>0.001549822443498224</v>
       </c>
       <c r="S25">
-        <v>0.001141704683417047</v>
+        <v>0.001549822443498224</v>
       </c>
       <c r="T25">
-        <v>0.001141704683417047</v>
+        <v>0.001549822443498224</v>
       </c>
       <c r="U25">
-        <v>0.008908078169080782</v>
+        <v>-0.001479970682799707</v>
       </c>
       <c r="V25">
-        <v>0.01019715064197151</v>
+        <v>-0.003653570772535708</v>
       </c>
       <c r="W25">
-        <v>-0.006274348262743482</v>
+        <v>-0.007989545431895454</v>
       </c>
       <c r="X25">
-        <v>-0.007673910640739107</v>
+        <v>0.005506063723060638</v>
       </c>
       <c r="Z25">
-        <v>-0.006358586307585863</v>
+        <v>0.006880920296809204</v>
       </c>
       <c r="AA25">
-        <v>-0.002940196301401963</v>
+        <v>-0.000700713895007139</v>
       </c>
       <c r="AB25">
-        <v>-0.002940196301401963</v>
+        <v>-0.000700713895007139</v>
       </c>
       <c r="AC25">
-        <v>-0.002940196301401963</v>
+        <v>-0.000700713895007139</v>
       </c>
       <c r="AD25">
-        <v>-0.002940196301401963</v>
+        <v>-0.000700713895007139</v>
       </c>
       <c r="AE25">
-        <v>-0.002940196301401963</v>
+        <v>-0.000700713895007139</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2729,85 +2732,85 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>-0.01033634505136345</v>
+        <v>0.001553858943538589</v>
       </c>
       <c r="D26">
-        <v>0.01007396478473965</v>
+        <v>-0.01081725564017256</v>
       </c>
       <c r="E26">
-        <v>-0.005797525629975257</v>
+        <v>-0.004280922642809225</v>
       </c>
       <c r="F26">
-        <v>0.009625173132251731</v>
+        <v>-0.001728425237284253</v>
       </c>
       <c r="G26">
-        <v>-0.01206132511261325</v>
+        <v>0.00495944893359449</v>
       </c>
       <c r="I26">
-        <v>0.01352704723527047</v>
+        <v>-0.01237438709174387</v>
       </c>
       <c r="J26">
-        <v>-0.002725593664310742</v>
+        <v>0.01226762243121354</v>
       </c>
       <c r="K26">
-        <v>0.01601912238419122</v>
+        <v>-0.01270014846700148</v>
       </c>
       <c r="L26">
-        <v>0.01601912238419122</v>
+        <v>-0.01270014846700148</v>
       </c>
       <c r="M26">
-        <v>0.01601912238419122</v>
+        <v>-0.01270014846700148</v>
       </c>
       <c r="N26">
-        <v>0.01601912238419122</v>
+        <v>-0.01270014846700148</v>
       </c>
       <c r="O26">
-        <v>0.01601912238419122</v>
+        <v>-0.01270014846700148</v>
       </c>
       <c r="P26">
-        <v>0.009689796156897962</v>
+        <v>-0.001538844519388445</v>
       </c>
       <c r="Q26">
-        <v>0.01693204399332044</v>
+        <v>-0.01355587578355876</v>
       </c>
       <c r="R26">
-        <v>0.01693204399332044</v>
+        <v>-0.01355587578355876</v>
       </c>
       <c r="S26">
-        <v>0.01693204399332044</v>
+        <v>-0.01355587578355876</v>
       </c>
       <c r="T26">
-        <v>0.01693204399332044</v>
+        <v>-0.01355587578355876</v>
       </c>
       <c r="U26">
-        <v>0.02858024631380246</v>
+        <v>-0.01127403716874037</v>
       </c>
       <c r="V26">
-        <v>0.009286273700862735</v>
+        <v>-0.0173375601053756</v>
       </c>
       <c r="W26">
-        <v>-0.003433469374334694</v>
+        <v>0.001942118767421188</v>
       </c>
       <c r="X26">
-        <v>0.007683486076834861</v>
+        <v>0.006742331347423313</v>
       </c>
       <c r="Z26">
-        <v>0.007960420435604205</v>
+        <v>0.003838124738381247</v>
       </c>
       <c r="AA26">
-        <v>-0.01761943317219433</v>
+        <v>0.01280149781601498</v>
       </c>
       <c r="AB26">
-        <v>-0.01761943317219433</v>
+        <v>0.01280149781601498</v>
       </c>
       <c r="AC26">
-        <v>-0.01761943317219433</v>
+        <v>0.01280149781601498</v>
       </c>
       <c r="AD26">
-        <v>-0.01761943317219433</v>
+        <v>0.01280149781601498</v>
       </c>
       <c r="AE26">
-        <v>-0.01761943317219433</v>
+        <v>0.01280149781601498</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -2818,85 +2821,85 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>-0.005920112471201126</v>
+        <v>0.001025007490250075</v>
       </c>
       <c r="D27">
-        <v>0.002818360048183601</v>
+        <v>-0.001261675212616752</v>
       </c>
       <c r="E27">
-        <v>0.01502721115827211</v>
+        <v>0.007709248205092483</v>
       </c>
       <c r="F27">
-        <v>-0.01203943279239433</v>
+        <v>-0.003774548077745481</v>
       </c>
       <c r="G27">
-        <v>0.01113129488731295</v>
+        <v>0.0008460266604602666</v>
       </c>
       <c r="I27">
-        <v>0.01710669780306698</v>
+        <v>-0.001396427809964278</v>
       </c>
       <c r="J27">
-        <v>0.007002428802734228</v>
+        <v>0.006662103943271829</v>
       </c>
       <c r="K27">
-        <v>-0.01411576166115762</v>
+        <v>0.0006846256508462565</v>
       </c>
       <c r="L27">
-        <v>-0.01411576166115762</v>
+        <v>0.0006846256508462565</v>
       </c>
       <c r="M27">
-        <v>-0.01411576166115762</v>
+        <v>0.0006846256508462565</v>
       </c>
       <c r="N27">
-        <v>-0.01411576166115762</v>
+        <v>0.0006846256508462565</v>
       </c>
       <c r="O27">
-        <v>-0.01411576166115762</v>
+        <v>0.0006846256508462565</v>
       </c>
       <c r="P27">
-        <v>-0.01269351605493516</v>
+        <v>-0.00372095193720952</v>
       </c>
       <c r="Q27">
-        <v>-0.01363163720831637</v>
+        <v>0.002628219134282191</v>
       </c>
       <c r="R27">
-        <v>-0.01363163720831637</v>
+        <v>0.002628219134282191</v>
       </c>
       <c r="S27">
-        <v>-0.01363163720831637</v>
+        <v>0.002628219134282191</v>
       </c>
       <c r="T27">
-        <v>-0.01363163720831637</v>
+        <v>0.002628219134282191</v>
       </c>
       <c r="U27">
-        <v>-0.01249076197690762</v>
+        <v>-0.008003744024037441</v>
       </c>
       <c r="V27">
-        <v>0.008330057591300576</v>
+        <v>0.007647292552472926</v>
       </c>
       <c r="W27">
-        <v>0.004463292692632926</v>
+        <v>-0.004630984414309845</v>
       </c>
       <c r="X27">
-        <v>-0.01714346459143464</v>
+        <v>-0.00729474600094746</v>
       </c>
       <c r="Z27">
-        <v>-0.006338704491387044</v>
+        <v>-0.003100032319000323</v>
       </c>
       <c r="AA27">
-        <v>0.01302981602229816</v>
+        <v>-0.003191927587919276</v>
       </c>
       <c r="AB27">
-        <v>0.01302981602229816</v>
+        <v>-0.003191927587919276</v>
       </c>
       <c r="AC27">
-        <v>0.01302981602229816</v>
+        <v>-0.003191927587919276</v>
       </c>
       <c r="AD27">
-        <v>0.01302981602229816</v>
+        <v>-0.003191927587919276</v>
       </c>
       <c r="AE27">
-        <v>0.01302981602229816</v>
+        <v>-0.003191927587919276</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -2905,85 +2908,85 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>-0.02308523753085237</v>
+        <v>0.005560139551601396</v>
       </c>
       <c r="D28">
-        <v>-0.01172729186127292</v>
+        <v>0.01474209685542097</v>
       </c>
       <c r="E28">
-        <v>-0.01231973467519735</v>
+        <v>2.675030426750304E-05</v>
       </c>
       <c r="F28">
-        <v>0.01400538280405383</v>
+        <v>0.002552999665529996</v>
       </c>
       <c r="G28">
-        <v>-0.01161675360816754</v>
+        <v>-0.004246247802462478</v>
       </c>
       <c r="I28">
-        <v>-0.01423086085030861</v>
+        <v>0.002932327901323279</v>
       </c>
       <c r="J28">
-        <v>-0.009687320158622195</v>
+        <v>-0.005651548448696698</v>
       </c>
       <c r="K28">
-        <v>0.003327119649271197</v>
+        <v>0.002901795293017953</v>
       </c>
       <c r="L28">
-        <v>0.003327119649271197</v>
+        <v>0.002901795293017953</v>
       </c>
       <c r="M28">
-        <v>0.003327119649271197</v>
+        <v>0.002901795293017953</v>
       </c>
       <c r="N28">
-        <v>0.003327119649271197</v>
+        <v>0.002901795293017953</v>
       </c>
       <c r="O28">
-        <v>0.003327119649271197</v>
+        <v>0.002901795293017953</v>
       </c>
       <c r="P28">
-        <v>0.01380041903400419</v>
+        <v>0.002331545411315454</v>
       </c>
       <c r="Q28">
-        <v>0.004151429429514295</v>
+        <v>0.003673458552734586</v>
       </c>
       <c r="R28">
-        <v>0.004151429429514295</v>
+        <v>0.003673458552734586</v>
       </c>
       <c r="S28">
-        <v>0.004151429429514295</v>
+        <v>0.003673458552734586</v>
       </c>
       <c r="T28">
-        <v>0.004151429429514295</v>
+        <v>0.003673458552734586</v>
       </c>
       <c r="U28">
-        <v>0.01084792144847922</v>
+        <v>-0.004378569763785698</v>
       </c>
       <c r="V28">
-        <v>-0.0001091455450914555</v>
+        <v>0.003928961367289614</v>
       </c>
       <c r="W28">
-        <v>-0.002685183338851833</v>
+        <v>4.964595649645957E-05</v>
       </c>
       <c r="X28">
-        <v>0.01036253509962535</v>
+        <v>-0.01492505628525056</v>
       </c>
       <c r="Z28">
-        <v>0.003077980410779804</v>
+        <v>-0.006434192392341924</v>
       </c>
       <c r="AA28">
-        <v>-0.01186900539469006</v>
+        <v>-0.002541205345412053</v>
       </c>
       <c r="AB28">
-        <v>-0.01186900539469006</v>
+        <v>-0.002541205345412053</v>
       </c>
       <c r="AC28">
-        <v>-0.01186900539469006</v>
+        <v>-0.002541205345412053</v>
       </c>
       <c r="AD28">
-        <v>-0.01186900539469006</v>
+        <v>-0.002541205345412053</v>
       </c>
       <c r="AE28">
-        <v>-0.01186900539469006</v>
+        <v>-0.002541205345412053</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -2994,85 +2997,85 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>-0.0310163895581639</v>
+        <v>-0.0330199599061996</v>
       </c>
       <c r="D29">
-        <v>-0.01902751617427517</v>
+        <v>-0.005577593131775931</v>
       </c>
       <c r="E29">
-        <v>-0.05273049485930495</v>
+        <v>-0.0414300696543007</v>
       </c>
       <c r="F29">
-        <v>0.02206822458468224</v>
+        <v>0.006060023700600237</v>
       </c>
       <c r="G29">
-        <v>0.003599624543996245</v>
+        <v>0.02062999464229994</v>
       </c>
       <c r="I29">
-        <v>-0.02785282761852828</v>
+        <v>0.005999657663996576</v>
       </c>
       <c r="J29">
-        <v>0.009460308176264221</v>
+        <v>-0.005802956267180089</v>
       </c>
       <c r="K29">
-        <v>0.03500965463009655</v>
+        <v>0.0234162602341626</v>
       </c>
       <c r="L29">
-        <v>0.03500965463009655</v>
+        <v>0.0234162602341626</v>
       </c>
       <c r="M29">
-        <v>0.03500965463009655</v>
+        <v>0.0234162602341626</v>
       </c>
       <c r="N29">
-        <v>0.03500965463009655</v>
+        <v>0.0234162602341626</v>
       </c>
       <c r="O29">
-        <v>0.03500965463009655</v>
+        <v>0.0234162602341626</v>
       </c>
       <c r="P29">
-        <v>0.02398901481589014</v>
+        <v>0.007761495521614955</v>
       </c>
       <c r="Q29">
-        <v>0.01644238774442388</v>
+        <v>0.00207686098476861</v>
       </c>
       <c r="R29">
-        <v>0.01644238774442388</v>
+        <v>0.00207686098476861</v>
       </c>
       <c r="S29">
-        <v>0.01644238774442388</v>
+        <v>0.00207686098476861</v>
       </c>
       <c r="T29">
-        <v>0.01644238774442388</v>
+        <v>0.00207686098476861</v>
       </c>
       <c r="U29">
-        <v>-0.04494409340944094</v>
+        <v>-0.04541274710212748</v>
       </c>
       <c r="V29">
-        <v>-0.1115586860515869</v>
+        <v>-0.1224586658405867</v>
       </c>
       <c r="W29">
-        <v>0.9913914345019144</v>
+        <v>0.9914667796346679</v>
       </c>
       <c r="X29">
-        <v>0.0433945301299453</v>
+        <v>0.03286075028860751</v>
       </c>
       <c r="Z29">
-        <v>0.0222900497709005</v>
+        <v>0.01478455260384553</v>
       </c>
       <c r="AA29">
-        <v>0.01653658863336589</v>
+        <v>0.03337886934978869</v>
       </c>
       <c r="AB29">
-        <v>0.01653658863336589</v>
+        <v>0.03337886934978869</v>
       </c>
       <c r="AC29">
-        <v>0.01653658863336589</v>
+        <v>0.03337886934978869</v>
       </c>
       <c r="AD29">
-        <v>0.01653658863336589</v>
+        <v>0.03337886934978869</v>
       </c>
       <c r="AE29">
-        <v>0.01653658863336589</v>
+        <v>0.03337886934978869</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3083,85 +3086,85 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.01128717563287175</v>
+        <v>0.003554532683545327</v>
       </c>
       <c r="D30">
-        <v>-0.01022602807826028</v>
+        <v>0.004842115728421158</v>
       </c>
       <c r="E30">
-        <v>-0.004025027560250275</v>
+        <v>0.01915552247955522</v>
       </c>
       <c r="F30">
-        <v>0.001126554227265542</v>
+        <v>-0.01777573331775734</v>
       </c>
       <c r="G30">
-        <v>0.001340266357402664</v>
+        <v>0.01611320927313209</v>
       </c>
       <c r="I30">
-        <v>0.002485806480858064</v>
+        <v>0.006928606593286066</v>
       </c>
       <c r="J30">
-        <v>0.001269342727184663</v>
+        <v>0.01355291591429493</v>
       </c>
       <c r="K30">
-        <v>-0.002690876846908768</v>
+        <v>-0.004585628145856282</v>
       </c>
       <c r="L30">
-        <v>-0.002690876846908768</v>
+        <v>-0.004585628145856282</v>
       </c>
       <c r="M30">
-        <v>-0.002690876846908768</v>
+        <v>-0.004585628145856282</v>
       </c>
       <c r="N30">
-        <v>-0.002690876846908768</v>
+        <v>-0.004585628145856282</v>
       </c>
       <c r="O30">
-        <v>-0.002690876846908768</v>
+        <v>-0.004585628145856282</v>
       </c>
       <c r="P30">
-        <v>0.001378773565787736</v>
+        <v>-0.01813852542138525</v>
       </c>
       <c r="Q30">
-        <v>-0.004400144600001446</v>
+        <v>-0.007561083723610838</v>
       </c>
       <c r="R30">
-        <v>-0.004400144600001446</v>
+        <v>-0.007561083723610838</v>
       </c>
       <c r="S30">
-        <v>-0.004400144600001446</v>
+        <v>-0.007561083723610838</v>
       </c>
       <c r="T30">
-        <v>-0.004400144600001446</v>
+        <v>-0.007561083723610838</v>
       </c>
       <c r="U30">
-        <v>-0.01358363628383636</v>
+        <v>-0.001982100667821006</v>
       </c>
       <c r="V30">
-        <v>-0.01243722799637228</v>
+        <v>0.01149808493498085</v>
       </c>
       <c r="W30">
-        <v>0.007513006743130067</v>
+        <v>0.004717465739174658</v>
       </c>
       <c r="X30">
-        <v>0.004502011077020111</v>
+        <v>-0.02163071380830714</v>
       </c>
       <c r="Z30">
-        <v>0.007289290752892907</v>
+        <v>-0.02029695815896958</v>
       </c>
       <c r="AA30">
-        <v>0.002611729142117292</v>
+        <v>0.01550893721908937</v>
       </c>
       <c r="AB30">
-        <v>0.002611729142117292</v>
+        <v>0.01550893721908937</v>
       </c>
       <c r="AC30">
-        <v>0.002611729142117292</v>
+        <v>0.01550893721908937</v>
       </c>
       <c r="AD30">
-        <v>0.002611729142117292</v>
+        <v>0.01550893721908937</v>
       </c>
       <c r="AE30">
-        <v>0.002611729142117292</v>
+        <v>0.01550893721908937</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3172,85 +3175,85 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.009358029057580292</v>
+        <v>0.00171604499316045</v>
       </c>
       <c r="D31">
-        <v>-0.02147488223874882</v>
+        <v>-0.01621171205411712</v>
       </c>
       <c r="E31">
-        <v>0.01327864268478643</v>
+        <v>-0.000263966798639668</v>
       </c>
       <c r="F31">
-        <v>-0.003894289274942893</v>
+        <v>0.01424115677841157</v>
       </c>
       <c r="G31">
-        <v>0.002600526614005266</v>
+        <v>-0.01944730542247306</v>
       </c>
       <c r="I31">
-        <v>-0.01075272224352722</v>
+        <v>-0.01204567066845671</v>
       </c>
       <c r="J31">
-        <v>0.004307856500745705</v>
+        <v>0.001086914957827579</v>
       </c>
       <c r="K31">
-        <v>-0.007926181723261818</v>
+        <v>0.006695016354950164</v>
       </c>
       <c r="L31">
-        <v>-0.007926181723261818</v>
+        <v>0.006695016354950164</v>
       </c>
       <c r="M31">
-        <v>-0.007926181723261818</v>
+        <v>0.006695016354950164</v>
       </c>
       <c r="N31">
-        <v>-0.007926181723261818</v>
+        <v>0.006695016354950164</v>
       </c>
       <c r="O31">
-        <v>-0.007926181723261818</v>
+        <v>0.006695016354950164</v>
       </c>
       <c r="P31">
-        <v>-0.005158331499583315</v>
+        <v>0.01308640283886403</v>
       </c>
       <c r="Q31">
-        <v>-0.004476468260764682</v>
+        <v>0.01570936626109366</v>
       </c>
       <c r="R31">
-        <v>-0.004476468260764682</v>
+        <v>0.01570936626109366</v>
       </c>
       <c r="S31">
-        <v>-0.004476468260764682</v>
+        <v>0.01570936626109366</v>
       </c>
       <c r="T31">
-        <v>-0.004476468260764682</v>
+        <v>0.01570936626109366</v>
       </c>
       <c r="U31">
-        <v>0.0189712594177126</v>
+        <v>0.01688881760488817</v>
       </c>
       <c r="V31">
-        <v>0.02159114702391147</v>
+        <v>0.03209343990893439</v>
       </c>
       <c r="W31">
-        <v>0.1193906908739069</v>
+        <v>0.1337964057539641</v>
       </c>
       <c r="X31">
-        <v>-0.01276864139568641</v>
+        <v>-0.004903764409037645</v>
       </c>
       <c r="Z31">
-        <v>-0.01299552638195526</v>
+        <v>0.001236039936360399</v>
       </c>
       <c r="AA31">
-        <v>0.03378874474988745</v>
+        <v>0.006552995105529951</v>
       </c>
       <c r="AB31">
-        <v>0.03378874474988745</v>
+        <v>0.006552995105529951</v>
       </c>
       <c r="AC31">
-        <v>0.03378874474988745</v>
+        <v>0.006552995105529951</v>
       </c>
       <c r="AD31">
-        <v>0.03378874474988745</v>
+        <v>0.006552995105529951</v>
       </c>
       <c r="AE31">
-        <v>0.03378874474988745</v>
+        <v>0.006552995105529951</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3261,85 +3264,85 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>-0.01254232394942324</v>
+        <v>-0.005762838645628386</v>
       </c>
       <c r="D32">
-        <v>-0.01185691121856911</v>
+        <v>-0.002000245952002459</v>
       </c>
       <c r="E32">
-        <v>-0.01108795928687959</v>
+        <v>-0.005735441421354415</v>
       </c>
       <c r="F32">
-        <v>0.004584137325841373</v>
+        <v>-0.001494080114940801</v>
       </c>
       <c r="G32">
-        <v>0.000189160501891605</v>
+        <v>0.006092510364925104</v>
       </c>
       <c r="I32">
-        <v>-0.001188362387883624</v>
+        <v>0.00185913703859137</v>
       </c>
       <c r="J32">
-        <v>-0.004109429520684645</v>
+        <v>-0.003969044153100262</v>
       </c>
       <c r="K32">
-        <v>-0.006654359166543592</v>
+        <v>-0.006300268239002682</v>
       </c>
       <c r="L32">
-        <v>-0.006654359166543592</v>
+        <v>-0.006300268239002682</v>
       </c>
       <c r="M32">
-        <v>-0.006654359166543592</v>
+        <v>-0.006300268239002682</v>
       </c>
       <c r="N32">
-        <v>-0.006654359166543592</v>
+        <v>-0.006300268239002682</v>
       </c>
       <c r="O32">
-        <v>-0.006654359166543592</v>
+        <v>-0.006300268239002682</v>
       </c>
       <c r="P32">
-        <v>0.004541894601418946</v>
+        <v>-0.00119250605992506</v>
       </c>
       <c r="Q32">
-        <v>-0.009963786075637859</v>
+        <v>-0.009158759107587591</v>
       </c>
       <c r="R32">
-        <v>-0.009963786075637859</v>
+        <v>-0.009158759107587591</v>
       </c>
       <c r="S32">
-        <v>-0.009963786075637859</v>
+        <v>-0.009158759107587591</v>
       </c>
       <c r="T32">
-        <v>-0.009963786075637859</v>
+        <v>-0.009158759107587591</v>
       </c>
       <c r="U32">
-        <v>0.00339987699399877</v>
+        <v>-0.007680019156800191</v>
       </c>
       <c r="V32">
-        <v>-0.01922454632424546</v>
+        <v>-0.02315669961956699</v>
       </c>
       <c r="W32">
-        <v>0.002074291460742915</v>
+        <v>0.01060841575008416</v>
       </c>
       <c r="X32">
-        <v>0.01254163237741632</v>
+        <v>0.01579986388999864</v>
       </c>
       <c r="Z32">
-        <v>0.009110807707108077</v>
+        <v>0.009900781815007819</v>
       </c>
       <c r="AA32">
-        <v>0.005274606736746067</v>
+        <v>0.001564831671648317</v>
       </c>
       <c r="AB32">
-        <v>0.005274606736746067</v>
+        <v>0.001564831671648317</v>
       </c>
       <c r="AC32">
-        <v>0.005274606736746067</v>
+        <v>0.001564831671648317</v>
       </c>
       <c r="AD32">
-        <v>0.005274606736746067</v>
+        <v>0.001564831671648317</v>
       </c>
       <c r="AE32">
-        <v>0.005274606736746067</v>
+        <v>0.001564831671648317</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3350,85 +3353,85 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.3862021474780215</v>
+        <v>0.3343118380271184</v>
       </c>
       <c r="D33">
-        <v>0.004970403265704033</v>
+        <v>0.003653658888536589</v>
       </c>
       <c r="E33">
-        <v>0.93091299105313</v>
+        <v>0.9318570488105704</v>
       </c>
       <c r="F33">
-        <v>-0.9999566804075668</v>
+        <v>-0.9999567120275671</v>
       </c>
       <c r="G33">
-        <v>0.9626372429543725</v>
+        <v>0.963943695195437</v>
       </c>
       <c r="I33">
-        <v>0.289926905371269</v>
+        <v>0.2937654599256546</v>
       </c>
       <c r="J33">
-        <v>0.1682320854134267</v>
+        <v>0.1367331608506973</v>
       </c>
       <c r="K33">
-        <v>-0.4268531788405318</v>
+        <v>-0.4202100209541001</v>
       </c>
       <c r="L33">
-        <v>-0.4268531788405318</v>
+        <v>-0.4202100209541001</v>
       </c>
       <c r="M33">
-        <v>-0.4268531788405318</v>
+        <v>-0.4202100209541001</v>
       </c>
       <c r="N33">
-        <v>-0.4268531788405318</v>
+        <v>-0.4202100209541001</v>
       </c>
       <c r="O33">
-        <v>-0.4268531788405318</v>
+        <v>-0.4202100209541001</v>
       </c>
       <c r="P33">
-        <v>-0.999369789081698</v>
+        <v>-0.9992793404127934</v>
       </c>
       <c r="Q33">
-        <v>-0.5695567390155674</v>
+        <v>-0.6124279485642795</v>
       </c>
       <c r="R33">
-        <v>-0.5695567390155674</v>
+        <v>-0.6124279485642795</v>
       </c>
       <c r="S33">
-        <v>-0.5695567390155674</v>
+        <v>-0.6124279485642795</v>
       </c>
       <c r="T33">
-        <v>-0.5695567390155674</v>
+        <v>-0.6124279485642795</v>
       </c>
       <c r="U33">
-        <v>-0.3126217243742173</v>
+        <v>-0.2843292739552927</v>
       </c>
       <c r="V33">
-        <v>0.002223140434231404</v>
+        <v>0.01626134879461348</v>
       </c>
       <c r="W33">
-        <v>-0.01377363493773635</v>
+        <v>-0.0002734698507346985</v>
       </c>
       <c r="X33">
-        <v>-0.5270743985667439</v>
+        <v>-0.6003992174319922</v>
       </c>
       <c r="Z33">
-        <v>-0.6614042354300423</v>
+        <v>-0.7283970338639704</v>
       </c>
       <c r="AA33">
-        <v>0.7472000751560007</v>
+        <v>0.7595868430558684</v>
       </c>
       <c r="AB33">
-        <v>0.7472000751560007</v>
+        <v>0.7595868430558684</v>
       </c>
       <c r="AC33">
-        <v>0.7472000751560007</v>
+        <v>0.7595868430558684</v>
       </c>
       <c r="AD33">
-        <v>0.7472000751560007</v>
+        <v>0.7595868430558684</v>
       </c>
       <c r="AE33">
-        <v>0.7472000751560007</v>
+        <v>0.7595868430558684</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3439,85 +3442,85 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>0.00742693593826936</v>
+        <v>-0.008457872712578727</v>
       </c>
       <c r="D34">
-        <v>0.006450291148502912</v>
+        <v>-0.00284086194440862</v>
       </c>
       <c r="E34">
-        <v>0.008554100401541002</v>
+        <v>0.007908502303085024</v>
       </c>
       <c r="F34">
-        <v>-0.009618933624189337</v>
+        <v>-0.008230589398305895</v>
       </c>
       <c r="G34">
-        <v>0.01189084636690846</v>
+        <v>0.007245476688454767</v>
       </c>
       <c r="I34">
-        <v>0.006470326804703269</v>
+        <v>0.003543892307438923</v>
       </c>
       <c r="J34">
-        <v>0.005379633199878251</v>
+        <v>-0.01149953467461537</v>
       </c>
       <c r="K34">
-        <v>0.002982051113820511</v>
+        <v>-0.00294376698543767</v>
       </c>
       <c r="L34">
-        <v>0.002982051113820511</v>
+        <v>-0.00294376698543767</v>
       </c>
       <c r="M34">
-        <v>0.002982051113820511</v>
+        <v>-0.00294376698543767</v>
       </c>
       <c r="N34">
-        <v>0.002982051113820511</v>
+        <v>-0.00294376698543767</v>
       </c>
       <c r="O34">
-        <v>0.002982051113820511</v>
+        <v>-0.00294376698543767</v>
       </c>
       <c r="P34">
-        <v>-0.009410207254102073</v>
+        <v>-0.008039499464394995</v>
       </c>
       <c r="Q34">
-        <v>-0.001461763670617637</v>
+        <v>-0.004360735375607354</v>
       </c>
       <c r="R34">
-        <v>-0.001461763670617637</v>
+        <v>-0.004360735375607354</v>
       </c>
       <c r="S34">
-        <v>-0.001461763670617637</v>
+        <v>-0.004360735375607354</v>
       </c>
       <c r="T34">
-        <v>-0.001461763670617637</v>
+        <v>-0.004360735375607354</v>
       </c>
       <c r="U34">
-        <v>-0.00681489093214891</v>
+        <v>0.006207038270070383</v>
       </c>
       <c r="V34">
-        <v>-0.006381824991818249</v>
+        <v>-0.005554894327548943</v>
       </c>
       <c r="W34">
-        <v>0.008250804898508048</v>
+        <v>0.00959957194799572</v>
       </c>
       <c r="X34">
-        <v>-0.00405489301654893</v>
+        <v>0.001294901244949012</v>
       </c>
       <c r="Z34">
-        <v>0.001034149786341498</v>
+        <v>-0.005161644867616448</v>
       </c>
       <c r="AA34">
-        <v>0.004984581133845811</v>
+        <v>0.002002535612025356</v>
       </c>
       <c r="AB34">
-        <v>0.004984581133845811</v>
+        <v>0.002002535612025356</v>
       </c>
       <c r="AC34">
-        <v>0.004984581133845811</v>
+        <v>0.002002535612025356</v>
       </c>
       <c r="AD34">
-        <v>0.004984581133845811</v>
+        <v>0.002002535612025356</v>
       </c>
       <c r="AE34">
-        <v>0.004984581133845811</v>
+        <v>0.002002535612025356</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3528,85 +3531,85 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>-0.02244870722048707</v>
+        <v>-0.003591777107917771</v>
       </c>
       <c r="D35">
-        <v>-0.02203354159633542</v>
+        <v>0.006341509179415093</v>
       </c>
       <c r="E35">
-        <v>-0.02086081728460817</v>
+        <v>0.002831896180318962</v>
       </c>
       <c r="F35">
-        <v>0.01435884415158844</v>
+        <v>-0.005876096794760968</v>
       </c>
       <c r="G35">
-        <v>-0.01074719595547196</v>
+        <v>0.006397901895979019</v>
       </c>
       <c r="I35">
-        <v>-0.0274950897109509</v>
+        <v>0.008995806641958067</v>
       </c>
       <c r="J35">
-        <v>-0.00614001433577633</v>
+        <v>0.01099857512439863</v>
       </c>
       <c r="K35">
-        <v>0.06588602179086023</v>
+        <v>0.02263870270638703</v>
       </c>
       <c r="L35">
-        <v>0.06588602179086023</v>
+        <v>0.02263870270638703</v>
       </c>
       <c r="M35">
-        <v>0.06588602179086023</v>
+        <v>0.02263870270638703</v>
       </c>
       <c r="N35">
-        <v>0.06588602179086023</v>
+        <v>0.02263870270638703</v>
       </c>
       <c r="O35">
-        <v>0.06588602179086023</v>
+        <v>0.02263870270638703</v>
       </c>
       <c r="P35">
-        <v>0.0167193200631932</v>
+        <v>-0.004620529330205293</v>
       </c>
       <c r="Q35">
-        <v>0.05938397455783974</v>
+        <v>0.01542733321027333</v>
       </c>
       <c r="R35">
-        <v>0.05938397455783974</v>
+        <v>0.01542733321027333</v>
       </c>
       <c r="S35">
-        <v>0.05938397455783974</v>
+        <v>0.01542733321027333</v>
       </c>
       <c r="T35">
-        <v>0.05938397455783974</v>
+        <v>0.01542733321027333</v>
       </c>
       <c r="U35">
-        <v>-0.03447551457275515</v>
+        <v>-0.01248317594883176</v>
       </c>
       <c r="V35">
-        <v>-0.01955928331559283</v>
+        <v>-0.01060020747400208</v>
       </c>
       <c r="W35">
-        <v>-0.0003017755830177559</v>
+        <v>-0.01203178497631785</v>
       </c>
       <c r="X35">
-        <v>0.01518938529189385</v>
+        <v>0.0001173429491734295</v>
       </c>
       <c r="Z35">
-        <v>0.004433630252336302</v>
+        <v>0.006344391651443917</v>
       </c>
       <c r="AA35">
-        <v>0.07699399504993996</v>
+        <v>0.09172414924124149</v>
       </c>
       <c r="AB35">
-        <v>0.07699399504993996</v>
+        <v>0.09172414924124149</v>
       </c>
       <c r="AC35">
-        <v>0.07699399504993996</v>
+        <v>0.09172414924124149</v>
       </c>
       <c r="AD35">
-        <v>0.07699399504993996</v>
+        <v>0.09172414924124149</v>
       </c>
       <c r="AE35">
-        <v>0.07699399504993996</v>
+        <v>0.09172414924124149</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3617,85 +3620,85 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>-0.01805559184855592</v>
+        <v>0.003730678933306789</v>
       </c>
       <c r="D36">
-        <v>-0.008016407720164077</v>
+        <v>-0.00246730699267307</v>
       </c>
       <c r="E36">
-        <v>-0.008802019876020199</v>
+        <v>0.00494204203342042</v>
       </c>
       <c r="F36">
-        <v>0.01428923487489235</v>
+        <v>0.0009719832697198328</v>
       </c>
       <c r="G36">
-        <v>-0.01439619601196196</v>
+        <v>-0.005175456519754566</v>
       </c>
       <c r="I36">
-        <v>-0.008957160713571607</v>
+        <v>-0.001764421361644213</v>
       </c>
       <c r="J36">
-        <v>-0.00312714737648168</v>
+        <v>0.02298731737703798</v>
       </c>
       <c r="K36">
-        <v>0.8738981595869816</v>
+        <v>0.8655657645996577</v>
       </c>
       <c r="L36">
-        <v>0.8738981595869816</v>
+        <v>0.8655657645996577</v>
       </c>
       <c r="M36">
-        <v>0.8738981595869816</v>
+        <v>0.8655657645996577</v>
       </c>
       <c r="N36">
-        <v>0.8738981595869816</v>
+        <v>0.8655657645996577</v>
       </c>
       <c r="O36">
-        <v>0.8738981595869816</v>
+        <v>0.8655657645996577</v>
       </c>
       <c r="P36">
-        <v>0.03522757758427578</v>
+        <v>0.02174476372944764</v>
       </c>
       <c r="Q36">
-        <v>0.80104800286248</v>
+        <v>0.7527000281910003</v>
       </c>
       <c r="R36">
-        <v>0.80104800286248</v>
+        <v>0.7527000281910003</v>
       </c>
       <c r="S36">
-        <v>0.80104800286248</v>
+        <v>0.7527000281910003</v>
       </c>
       <c r="T36">
-        <v>0.80104800286248</v>
+        <v>0.7527000281910003</v>
       </c>
       <c r="U36">
-        <v>0.02279638301996383</v>
+        <v>0.003164335771643358</v>
       </c>
       <c r="V36">
-        <v>0.01467899061878991</v>
+        <v>0.01308290551082905</v>
       </c>
       <c r="W36">
-        <v>0.008902643837026438</v>
+        <v>0.005444655714446558</v>
       </c>
       <c r="X36">
-        <v>0.008722568391225684</v>
+        <v>-0.006821787884217878</v>
       </c>
       <c r="Z36">
-        <v>0.00528498299284983</v>
+        <v>-0.004682488738824887</v>
       </c>
       <c r="AA36">
-        <v>-0.357952807815528</v>
+        <v>-0.3244781536967815</v>
       </c>
       <c r="AB36">
-        <v>-0.357952807815528</v>
+        <v>-0.3244781536967815</v>
       </c>
       <c r="AC36">
-        <v>-0.357952807815528</v>
+        <v>-0.3244781536967815</v>
       </c>
       <c r="AD36">
-        <v>-0.357952807815528</v>
+        <v>-0.3244781536967815</v>
       </c>
       <c r="AE36">
-        <v>-0.357952807815528</v>
+        <v>-0.3244781536967815</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3706,85 +3709,85 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.0008268130522681305</v>
+        <v>0.010879400112794</v>
       </c>
       <c r="D37">
-        <v>0.0003113487631134876</v>
+        <v>-0.01519095769990958</v>
       </c>
       <c r="E37">
-        <v>-0.008756146179561462</v>
+        <v>0.008347741703477416</v>
       </c>
       <c r="F37">
-        <v>0.007777528661775286</v>
+        <v>-0.004383378775833787</v>
       </c>
       <c r="G37">
-        <v>-0.006459354784593548</v>
+        <v>0.003629931216299312</v>
       </c>
       <c r="I37">
-        <v>-0.01147166256671663</v>
+        <v>-0.008189109909891098</v>
       </c>
       <c r="J37">
-        <v>0.006107320233436736</v>
+        <v>0.006692577703771661</v>
       </c>
       <c r="K37">
-        <v>-0.006612942438129424</v>
+        <v>0.005650964708509646</v>
       </c>
       <c r="L37">
-        <v>-0.006612942438129424</v>
+        <v>0.005650964708509646</v>
       </c>
       <c r="M37">
-        <v>-0.006612942438129424</v>
+        <v>0.005650964708509646</v>
       </c>
       <c r="N37">
-        <v>-0.006612942438129424</v>
+        <v>0.005650964708509646</v>
       </c>
       <c r="O37">
-        <v>-0.006612942438129424</v>
+        <v>0.005650964708509646</v>
       </c>
       <c r="P37">
-        <v>0.007424014394240144</v>
+        <v>-0.004442471144424711</v>
       </c>
       <c r="Q37">
-        <v>-0.003914068731140687</v>
+        <v>0.00619155097391551</v>
       </c>
       <c r="R37">
-        <v>-0.003914068731140687</v>
+        <v>0.00619155097391551</v>
       </c>
       <c r="S37">
-        <v>-0.003914068731140687</v>
+        <v>0.00619155097391551</v>
       </c>
       <c r="T37">
-        <v>-0.003914068731140687</v>
+        <v>0.00619155097391551</v>
       </c>
       <c r="U37">
-        <v>-0.001542008331420083</v>
+        <v>0.003300976305009763</v>
       </c>
       <c r="V37">
-        <v>-0.0001455839054558391</v>
+        <v>0.01030551401505514</v>
       </c>
       <c r="W37">
-        <v>0.005000077862000779</v>
+        <v>-0.007470609302706092</v>
       </c>
       <c r="X37">
-        <v>0.01051603570516036</v>
+        <v>-0.007980773167807731</v>
       </c>
       <c r="Z37">
-        <v>0.005333410409334104</v>
+        <v>-0.00581151202611512</v>
       </c>
       <c r="AA37">
-        <v>-0.00772778093327781</v>
+        <v>-0.003605433840054338</v>
       </c>
       <c r="AB37">
-        <v>-0.00772778093327781</v>
+        <v>-0.003605433840054338</v>
       </c>
       <c r="AC37">
-        <v>-0.00772778093327781</v>
+        <v>-0.003605433840054338</v>
       </c>
       <c r="AD37">
-        <v>-0.00772778093327781</v>
+        <v>-0.003605433840054338</v>
       </c>
       <c r="AE37">
-        <v>-0.00772778093327781</v>
+        <v>-0.003605433840054338</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -3795,85 +3798,85 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.00199639903996399</v>
+        <v>-0.01398364559583646</v>
       </c>
       <c r="D38">
-        <v>0.004457391692573916</v>
+        <v>-0.01165142259251423</v>
       </c>
       <c r="E38">
-        <v>-0.0005202384532023845</v>
+        <v>0.00118333203583332</v>
       </c>
       <c r="F38">
-        <v>-0.003923078403230785</v>
+        <v>-0.0004535847525358476</v>
       </c>
       <c r="G38">
-        <v>0.006725101591251016</v>
+        <v>0.0009084054810840547</v>
       </c>
       <c r="I38">
-        <v>0.00314142195141422</v>
+        <v>-0.001833948462339485</v>
       </c>
       <c r="J38">
-        <v>-0.004703316312853346</v>
+        <v>0.01386813335346512</v>
       </c>
       <c r="K38">
-        <v>0.1074585310865853</v>
+        <v>0.09476563030765631</v>
       </c>
       <c r="L38">
-        <v>0.1074585310865853</v>
+        <v>0.09476563030765631</v>
       </c>
       <c r="M38">
-        <v>0.1074585310865853</v>
+        <v>0.09476563030765631</v>
       </c>
       <c r="N38">
-        <v>0.1074585310865853</v>
+        <v>0.09476563030765631</v>
       </c>
       <c r="O38">
-        <v>0.1074585310865853</v>
+        <v>0.09476563030765631</v>
       </c>
       <c r="P38">
-        <v>-0.001262096064620961</v>
+        <v>0.001822300602223006</v>
       </c>
       <c r="Q38">
-        <v>0.0971486503914865</v>
+        <v>0.0853857193578572</v>
       </c>
       <c r="R38">
-        <v>0.0971486503914865</v>
+        <v>0.0853857193578572</v>
       </c>
       <c r="S38">
-        <v>0.0971486503914865</v>
+        <v>0.0853857193578572</v>
       </c>
       <c r="T38">
-        <v>0.0971486503914865</v>
+        <v>0.0853857193578572</v>
       </c>
       <c r="U38">
-        <v>-0.01791305959113059</v>
+        <v>-0.0007286515032865151</v>
       </c>
       <c r="V38">
-        <v>-0.01022456939424569</v>
+        <v>0.001888969182889692</v>
       </c>
       <c r="W38">
-        <v>-0.02012789384127894</v>
+        <v>-0.008202724366027243</v>
       </c>
       <c r="X38">
-        <v>-0.0006675512826755128</v>
+        <v>-0.002062910156629101</v>
       </c>
       <c r="Z38">
-        <v>-0.0001059281410592814</v>
+        <v>0.0003504097475040975</v>
       </c>
       <c r="AA38">
-        <v>0.2294487881784879</v>
+        <v>0.2262072886500729</v>
       </c>
       <c r="AB38">
-        <v>0.2294487881784879</v>
+        <v>0.2262072886500729</v>
       </c>
       <c r="AC38">
-        <v>0.2294487881784879</v>
+        <v>0.2262072886500729</v>
       </c>
       <c r="AD38">
-        <v>0.2294487881784879</v>
+        <v>0.2262072886500729</v>
       </c>
       <c r="AE38">
-        <v>0.2294487881784879</v>
+        <v>0.2262072886500729</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -3884,85 +3887,85 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>-0.006699148314991483</v>
+        <v>0.009526005527260054</v>
       </c>
       <c r="D39">
-        <v>-0.004132257473322575</v>
+        <v>0.007499023610990236</v>
       </c>
       <c r="E39">
-        <v>0.006053014812530148</v>
+        <v>-0.01929627730896277</v>
       </c>
       <c r="F39">
-        <v>-0.004238956650389567</v>
+        <v>0.01913936945939369</v>
       </c>
       <c r="G39">
-        <v>0.005740542441405425</v>
+        <v>-0.01627277476272775</v>
       </c>
       <c r="I39">
-        <v>0.008390136455901365</v>
+        <v>0.0112343600443436</v>
       </c>
       <c r="J39">
-        <v>0.01036255341563584</v>
+        <v>-0.007541470593695201</v>
       </c>
       <c r="K39">
-        <v>0.0009717296617172966</v>
+        <v>0.001605838816058388</v>
       </c>
       <c r="L39">
-        <v>0.0009717296617172966</v>
+        <v>0.001605838816058388</v>
       </c>
       <c r="M39">
-        <v>0.0009717296617172966</v>
+        <v>0.001605838816058388</v>
       </c>
       <c r="N39">
-        <v>0.0009717296617172966</v>
+        <v>0.001605838816058388</v>
       </c>
       <c r="O39">
-        <v>0.0009717296617172966</v>
+        <v>0.001605838816058388</v>
       </c>
       <c r="P39">
-        <v>-0.004453017140530171</v>
+        <v>0.01884381815643818</v>
       </c>
       <c r="Q39">
-        <v>0.0006172016101720161</v>
+        <v>0.003626220288262203</v>
       </c>
       <c r="R39">
-        <v>0.0006172016101720161</v>
+        <v>0.003626220288262203</v>
       </c>
       <c r="S39">
-        <v>0.0006172016101720161</v>
+        <v>0.003626220288262203</v>
       </c>
       <c r="T39">
-        <v>0.0006172016101720161</v>
+        <v>0.003626220288262203</v>
       </c>
       <c r="U39">
-        <v>-0.00267487399474874</v>
+        <v>0.004578978633789787</v>
       </c>
       <c r="V39">
-        <v>0.004700882663008827</v>
+        <v>-0.004571226585712265</v>
       </c>
       <c r="W39">
-        <v>-0.004069170760691708</v>
+        <v>0.006018457044184571</v>
       </c>
       <c r="X39">
-        <v>-0.009843904958439051</v>
+        <v>0.01867548365475484</v>
       </c>
       <c r="Z39">
-        <v>-0.001403200130032001</v>
+        <v>0.02222528213425282</v>
       </c>
       <c r="AA39">
-        <v>0.01135044084550441</v>
+        <v>-0.01476930848769308</v>
       </c>
       <c r="AB39">
-        <v>0.01135044084550441</v>
+        <v>-0.01476930848769308</v>
       </c>
       <c r="AC39">
-        <v>0.01135044084550441</v>
+        <v>-0.01476930848769308</v>
       </c>
       <c r="AD39">
-        <v>0.01135044084550441</v>
+        <v>-0.01476930848769308</v>
       </c>
       <c r="AE39">
-        <v>0.01135044084550441</v>
+        <v>-0.01476930848769308</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -3973,85 +3976,174 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.006871916168719162</v>
+        <v>-0.01361492160414922</v>
       </c>
       <c r="D40">
-        <v>0.006039517200395172</v>
+        <v>-0.003414632878146329</v>
       </c>
       <c r="E40">
-        <v>-0.02647553842875538</v>
+        <v>-0.01607695313276953</v>
       </c>
       <c r="F40">
-        <v>0.02546910942269109</v>
+        <v>0.01582963605829636</v>
       </c>
       <c r="G40">
-        <v>-0.02166037824060378</v>
+        <v>-0.01268240691082407</v>
       </c>
       <c r="I40">
-        <v>-0.01122632369226324</v>
+        <v>-0.004787736899877369</v>
       </c>
       <c r="J40">
-        <v>-0.005812534920374801</v>
+        <v>0.004762300362111251</v>
       </c>
       <c r="K40">
-        <v>0.00698765204187652</v>
+        <v>-0.005076502802765028</v>
       </c>
       <c r="L40">
-        <v>0.00698765204187652</v>
+        <v>-0.005076502802765028</v>
       </c>
       <c r="M40">
-        <v>0.00698765204187652</v>
+        <v>-0.005076502802765028</v>
       </c>
       <c r="N40">
-        <v>0.00698765204187652</v>
+        <v>-0.005076502802765028</v>
       </c>
       <c r="O40">
-        <v>0.00698765204187652</v>
+        <v>-0.005076502802765028</v>
       </c>
       <c r="P40">
-        <v>0.0257150603451506</v>
+        <v>0.01526803767268038</v>
       </c>
       <c r="Q40">
-        <v>0.008095612508956124</v>
+        <v>-0.00235451392754514</v>
       </c>
       <c r="R40">
-        <v>0.008095612508956124</v>
+        <v>-0.00235451392754514</v>
       </c>
       <c r="S40">
-        <v>0.008095612508956124</v>
+        <v>-0.00235451392754514</v>
       </c>
       <c r="T40">
-        <v>0.008095612508956124</v>
+        <v>-0.00235451392754514</v>
       </c>
       <c r="U40">
-        <v>0.02028659732286597</v>
+        <v>-0.005412959238129593</v>
       </c>
       <c r="V40">
-        <v>-0.01210241932902419</v>
+        <v>-0.009911732607117325</v>
       </c>
       <c r="W40">
-        <v>0.003038046414380464</v>
+        <v>0.02190236928302369</v>
       </c>
       <c r="X40">
-        <v>0.02052032323320323</v>
+        <v>0.00839552897995529</v>
       </c>
       <c r="Z40">
-        <v>0.01810725553307255</v>
+        <v>0.008934060413340605</v>
       </c>
       <c r="AA40">
-        <v>-0.0178076103220761</v>
+        <v>0.002313497891134979</v>
       </c>
       <c r="AB40">
-        <v>-0.0178076103220761</v>
+        <v>0.002313497891134979</v>
       </c>
       <c r="AC40">
-        <v>-0.0178076103220761</v>
+        <v>0.002313497891134979</v>
       </c>
       <c r="AD40">
-        <v>-0.0178076103220761</v>
+        <v>0.002313497891134979</v>
       </c>
       <c r="AE40">
-        <v>-0.0178076103220761</v>
+        <v>0.002313497891134979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>-0.05110894066308941</v>
+      </c>
+      <c r="D41">
+        <v>-0.0122099903780999</v>
+      </c>
+      <c r="E41">
+        <v>0.01095737631757376</v>
+      </c>
+      <c r="F41">
+        <v>-0.01123788923237889</v>
+      </c>
+      <c r="G41">
+        <v>0.01161666360816664</v>
+      </c>
+      <c r="I41">
+        <v>-0.0179105802351058</v>
+      </c>
+      <c r="J41">
+        <v>0.003378724123417833</v>
+      </c>
+      <c r="K41">
+        <v>-0.01266125188261252</v>
+      </c>
+      <c r="L41">
+        <v>-0.01266125188261252</v>
+      </c>
+      <c r="M41">
+        <v>-0.01266125188261252</v>
+      </c>
+      <c r="N41">
+        <v>-0.01266125188261252</v>
+      </c>
+      <c r="O41">
+        <v>-0.01266125188261252</v>
+      </c>
+      <c r="P41">
+        <v>-0.01110248946302489</v>
+      </c>
+      <c r="Q41">
+        <v>-0.01261757226617572</v>
+      </c>
+      <c r="R41">
+        <v>-0.01261757226617572</v>
+      </c>
+      <c r="S41">
+        <v>-0.01261757226617572</v>
+      </c>
+      <c r="T41">
+        <v>-0.01261757226617572</v>
+      </c>
+      <c r="U41">
+        <v>-0.006200729786007299</v>
+      </c>
+      <c r="V41">
+        <v>-0.004897461708974617</v>
+      </c>
+      <c r="W41">
+        <v>0.006247533146475331</v>
+      </c>
+      <c r="X41">
+        <v>-0.006268292222682922</v>
+      </c>
+      <c r="Z41">
+        <v>-0.01570733778107338</v>
+      </c>
+      <c r="AA41">
+        <v>0.01039989263599893</v>
+      </c>
+      <c r="AB41">
+        <v>0.01039989263599893</v>
+      </c>
+      <c r="AC41">
+        <v>0.01039989263599893</v>
+      </c>
+      <c r="AD41">
+        <v>0.01039989263599893</v>
+      </c>
+      <c r="AE41">
+        <v>0.01039989263599893</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -794,85 +794,85 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.2539536547515366</v>
+        <v>0.2630657489385274</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01112697495510899</v>
       </c>
       <c r="E4">
-        <v>0.3580882127328821</v>
+        <v>0.3271486946976359</v>
       </c>
       <c r="F4">
-        <v>-0.01679969961599699</v>
+        <v>0.0188522942008171</v>
       </c>
       <c r="G4">
-        <v>-0.2092298578122986</v>
+        <v>-0.2429391975693625</v>
       </c>
       <c r="I4">
-        <v>-0.06871125243911252</v>
+        <v>-0.07593050544422666</v>
       </c>
       <c r="J4">
-        <v>0.02494441758713834</v>
+        <v>0.02864409651454177</v>
       </c>
       <c r="K4">
-        <v>-0.1675319493673195</v>
+        <v>-0.1659277870691842</v>
       </c>
       <c r="L4">
-        <v>-0.1675319493673195</v>
+        <v>-0.1659277870691842</v>
       </c>
       <c r="M4">
-        <v>-0.1675319493673195</v>
+        <v>-0.1659277870691842</v>
       </c>
       <c r="N4">
-        <v>-0.1675319493673195</v>
+        <v>-0.1659277870691842</v>
       </c>
       <c r="O4">
-        <v>-0.1675319493673195</v>
+        <v>-0.1659277870691842</v>
       </c>
       <c r="P4">
-        <v>-0.04037411181174112</v>
+        <v>-0.004920949858139842</v>
       </c>
       <c r="Q4">
-        <v>0.02995235043552351</v>
+        <v>0.04029379518427805</v>
       </c>
       <c r="R4">
-        <v>0.02995235043552351</v>
+        <v>0.04029379518427805</v>
       </c>
       <c r="S4">
-        <v>0.02995235043552351</v>
+        <v>0.04029379518427805</v>
       </c>
       <c r="T4">
-        <v>0.02995235043552351</v>
+        <v>0.04029379518427805</v>
       </c>
       <c r="U4">
-        <v>0.2429343567653436</v>
+        <v>0.2707498680585917</v>
       </c>
       <c r="V4">
-        <v>0.9908888613328886</v>
+        <v>0.9909069134438581</v>
       </c>
       <c r="W4">
-        <v>0.010369200331692</v>
+        <v>0.01648824621075385</v>
       </c>
       <c r="X4">
-        <v>-0.5913066180090661</v>
+        <v>-0.5739189011862329</v>
       </c>
       <c r="Z4">
-        <v>-0.3250906774189067</v>
+        <v>-0.2950468412741695</v>
       </c>
       <c r="AA4">
-        <v>-0.1615344408433444</v>
+        <v>-0.1831960991046266</v>
       </c>
       <c r="AB4">
-        <v>-0.1615344408433444</v>
+        <v>-0.1831960991046266</v>
       </c>
       <c r="AC4">
-        <v>-0.1615344408433444</v>
+        <v>-0.1831960991046266</v>
       </c>
       <c r="AD4">
-        <v>-0.1615344408433444</v>
+        <v>-0.1831960991046266</v>
       </c>
       <c r="AE4">
-        <v>-0.1615344408433444</v>
+        <v>-0.1831960991046266</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -881,85 +881,85 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.002460376584603766</v>
+        <v>0.02414424173662878</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>-0.001765577465087148</v>
       </c>
       <c r="E5">
-        <v>-0.006160118773601188</v>
+        <v>0.00287812984965828</v>
       </c>
       <c r="F5">
-        <v>-0.0004933948489339485</v>
+        <v>0.001320394825318669</v>
       </c>
       <c r="G5">
-        <v>0.004710400283104003</v>
+        <v>-0.004888235912316186</v>
       </c>
       <c r="I5">
-        <v>0.0008057554280575544</v>
+        <v>-0.008631421634865966</v>
       </c>
       <c r="J5">
-        <v>0.004328495092995976</v>
+        <v>0.006781200853302098</v>
       </c>
       <c r="K5">
-        <v>0.002685447626854476</v>
+        <v>-0.01199071926547999</v>
       </c>
       <c r="L5">
-        <v>0.002685447626854476</v>
+        <v>-0.01199071926547999</v>
       </c>
       <c r="M5">
-        <v>0.002685447626854476</v>
+        <v>-0.01199071926547999</v>
       </c>
       <c r="N5">
-        <v>0.002685447626854476</v>
+        <v>-0.01199071926547999</v>
       </c>
       <c r="O5">
-        <v>0.002685447626854476</v>
+        <v>-0.01199071926547999</v>
       </c>
       <c r="P5">
-        <v>7.130271671302717E-05</v>
+        <v>0.001119871494060492</v>
       </c>
       <c r="Q5">
-        <v>-0.002424158100241581</v>
+        <v>-0.007448346444505413</v>
       </c>
       <c r="R5">
-        <v>-0.002424158100241581</v>
+        <v>-0.007448346444505413</v>
       </c>
       <c r="S5">
-        <v>-0.002424158100241581</v>
+        <v>-0.007448346444505413</v>
       </c>
       <c r="T5">
-        <v>-0.002424158100241581</v>
+        <v>-0.007448346444505413</v>
       </c>
       <c r="U5">
-        <v>-0.006822961676229616</v>
+        <v>0.01958367478255742</v>
       </c>
       <c r="V5">
-        <v>-0.01968692773686928</v>
+        <v>0.006937261866207218</v>
       </c>
       <c r="W5">
-        <v>-0.0129290800292908</v>
+        <v>0.006129820337965944</v>
       </c>
       <c r="X5">
-        <v>0.005945732039457321</v>
+        <v>-0.006612695868948374</v>
       </c>
       <c r="Z5">
-        <v>0.005146840563468405</v>
+        <v>-0.002327864239497879</v>
       </c>
       <c r="AA5">
-        <v>0.01032193563121936</v>
+        <v>-0.007717490487773289</v>
       </c>
       <c r="AB5">
-        <v>0.01032193563121936</v>
+        <v>-0.007717490487773289</v>
       </c>
       <c r="AC5">
-        <v>0.01032193563121936</v>
+        <v>-0.007717490487773289</v>
       </c>
       <c r="AD5">
-        <v>0.01032193563121936</v>
+        <v>-0.007717490487773289</v>
       </c>
       <c r="AE5">
-        <v>0.01032193563121936</v>
+        <v>-0.007717490487773289</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -968,85 +968,85 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.2893679397136794</v>
+        <v>0.2994896128514002</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.01058144402471006</v>
       </c>
       <c r="E6">
-        <v>0.01256328583763286</v>
+        <v>0.006187550252930473</v>
       </c>
       <c r="F6">
-        <v>-0.01358696699186967</v>
+        <v>-0.00978380919193452</v>
       </c>
       <c r="G6">
-        <v>0.0009118882891188828</v>
+        <v>-0.001984080757563762</v>
       </c>
       <c r="I6">
-        <v>-0.5849067788570678</v>
+        <v>-0.5765672125869877</v>
       </c>
       <c r="J6">
-        <v>-0.0003120903351189057</v>
+        <v>-0.02418299402501762</v>
       </c>
       <c r="K6">
-        <v>0.007247951448479514</v>
+        <v>0.001402810475043914</v>
       </c>
       <c r="L6">
-        <v>0.007247951448479514</v>
+        <v>0.001402810475043914</v>
       </c>
       <c r="M6">
-        <v>0.007247951448479514</v>
+        <v>0.001402810475043914</v>
       </c>
       <c r="N6">
-        <v>0.007247951448479514</v>
+        <v>0.001402810475043914</v>
       </c>
       <c r="O6">
-        <v>0.007247951448479514</v>
+        <v>0.001402810475043914</v>
       </c>
       <c r="P6">
-        <v>-0.009440449606404496</v>
+        <v>-0.005878658927791547</v>
       </c>
       <c r="Q6">
-        <v>0.008037268676372687</v>
+        <v>0.003123008767547013</v>
       </c>
       <c r="R6">
-        <v>0.008037268676372687</v>
+        <v>0.003123008767547013</v>
       </c>
       <c r="S6">
-        <v>0.008037268676372687</v>
+        <v>0.003123008767547013</v>
       </c>
       <c r="T6">
-        <v>0.008037268676372687</v>
+        <v>0.003123008767547013</v>
       </c>
       <c r="U6">
-        <v>0.03675540552755405</v>
+        <v>0.0670415030787735</v>
       </c>
       <c r="V6">
-        <v>-0.00103186701431867</v>
+        <v>-0.005220105972189156</v>
       </c>
       <c r="W6">
-        <v>-0.00729577795295778</v>
+        <v>-0.006831603880181311</v>
       </c>
       <c r="X6">
-        <v>0.003686886372868864</v>
+        <v>0.01955312097739252</v>
       </c>
       <c r="Z6">
-        <v>-0.2262952314189523</v>
+        <v>-0.2097357631833714</v>
       </c>
       <c r="AA6">
-        <v>-0.01187946877079469</v>
+        <v>-0.005904231021941111</v>
       </c>
       <c r="AB6">
-        <v>-0.01187946877079469</v>
+        <v>-0.005904231021941111</v>
       </c>
       <c r="AC6">
-        <v>-0.01187946877079469</v>
+        <v>-0.005904231021941111</v>
       </c>
       <c r="AD6">
-        <v>-0.01187946877079469</v>
+        <v>-0.005904231021941111</v>
       </c>
       <c r="AE6">
-        <v>-0.01187946877079469</v>
+        <v>-0.005904231021941111</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1055,85 +1055,85 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>-0.0001966011379660114</v>
+        <v>-0.01937297170114019</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.00489838524059977</v>
       </c>
       <c r="E7">
-        <v>-0.007607017168070171</v>
+        <v>0.004970776085480876</v>
       </c>
       <c r="F7">
-        <v>0.004926785905267859</v>
+        <v>-0.009254207347721992</v>
       </c>
       <c r="G7">
-        <v>-0.001812220314122203</v>
+        <v>0.00916278199473097</v>
       </c>
       <c r="I7">
-        <v>0.02121450398014504</v>
+        <v>0.01477474387148038</v>
       </c>
       <c r="J7">
-        <v>-0.002280658783407365</v>
+        <v>0.007431437741578614</v>
       </c>
       <c r="K7">
-        <v>0.007592379087923791</v>
+        <v>0.004336422934944109</v>
       </c>
       <c r="L7">
-        <v>0.007592379087923791</v>
+        <v>0.004336422934944109</v>
       </c>
       <c r="M7">
-        <v>0.007592379087923791</v>
+        <v>0.004336422934944109</v>
       </c>
       <c r="N7">
-        <v>0.007592379087923791</v>
+        <v>0.004336422934944109</v>
       </c>
       <c r="O7">
-        <v>0.007592379087923791</v>
+        <v>0.004336422934944109</v>
       </c>
       <c r="P7">
-        <v>0.005266152640661527</v>
+        <v>-0.008410273889223031</v>
       </c>
       <c r="Q7">
-        <v>0.004548341697483417</v>
+        <v>0.001292310606129853</v>
       </c>
       <c r="R7">
-        <v>0.004548341697483417</v>
+        <v>0.001292310606129853</v>
       </c>
       <c r="S7">
-        <v>0.004548341697483417</v>
+        <v>0.001292310606129853</v>
       </c>
       <c r="T7">
-        <v>0.004548341697483417</v>
+        <v>0.001292310606129853</v>
       </c>
       <c r="U7">
-        <v>-0.01457430380574304</v>
+        <v>-0.01392142446752226</v>
       </c>
       <c r="V7">
-        <v>-0.01112494905924949</v>
+        <v>-0.0153285245207582</v>
       </c>
       <c r="W7">
-        <v>0.006252944798529447</v>
+        <v>0.004997785484340399</v>
       </c>
       <c r="X7">
-        <v>0.004051510456515105</v>
+        <v>-0.0004132653111447705</v>
       </c>
       <c r="Z7">
-        <v>0.008207671198076711</v>
+        <v>0.01131974623937104</v>
       </c>
       <c r="AA7">
-        <v>-0.00127404201674042</v>
+        <v>-0.008033189961456093</v>
       </c>
       <c r="AB7">
-        <v>-0.00127404201674042</v>
+        <v>-0.008033189961456093</v>
       </c>
       <c r="AC7">
-        <v>-0.00127404201674042</v>
+        <v>-0.008033189961456093</v>
       </c>
       <c r="AD7">
-        <v>-0.00127404201674042</v>
+        <v>-0.008033189961456093</v>
       </c>
       <c r="AE7">
-        <v>-0.00127404201674042</v>
+        <v>-0.008033189961456093</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1142,85 +1142,85 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.307584395631844</v>
+        <v>0.3148963665921308</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.004681714306817144</v>
+        <v>0.0001557910571217353</v>
       </c>
       <c r="F8">
-        <v>-0.003719666725196667</v>
+        <v>0.005794129074908267</v>
       </c>
       <c r="G8">
-        <v>0.01821311351013114</v>
+        <v>0.007034724508355072</v>
       </c>
       <c r="I8">
-        <v>0.7474452434864525</v>
+        <v>0.7407263913941624</v>
       </c>
       <c r="J8">
-        <v>0.02437932620786971</v>
+        <v>0.02002337945961799</v>
       </c>
       <c r="K8">
-        <v>-0.02708383769483838</v>
+        <v>-0.0316555519243055</v>
       </c>
       <c r="L8">
-        <v>-0.02708383769483838</v>
+        <v>-0.0316555519243055</v>
       </c>
       <c r="M8">
-        <v>-0.02708383769483838</v>
+        <v>-0.0316555519243055</v>
       </c>
       <c r="N8">
-        <v>-0.02708383769483838</v>
+        <v>-0.0316555519243055</v>
       </c>
       <c r="O8">
-        <v>-0.02708383769483838</v>
+        <v>-0.0316555519243055</v>
       </c>
       <c r="P8">
-        <v>-0.008868462316684622</v>
+        <v>0.0001276838926200608</v>
       </c>
       <c r="Q8">
-        <v>-0.02799051432390514</v>
+        <v>-0.03173250124582033</v>
       </c>
       <c r="R8">
-        <v>-0.02799051432390514</v>
+        <v>-0.03173250124582033</v>
       </c>
       <c r="S8">
-        <v>-0.02799051432390514</v>
+        <v>-0.03173250124582033</v>
       </c>
       <c r="T8">
-        <v>-0.02799051432390514</v>
+        <v>-0.03173250124582033</v>
       </c>
       <c r="U8">
-        <v>0.0277950899659509</v>
+        <v>0.02380740034855313</v>
       </c>
       <c r="V8">
-        <v>0.001843003242430033</v>
+        <v>0.009474101398032836</v>
       </c>
       <c r="W8">
-        <v>-0.006565161833651619</v>
+        <v>0.01268454685444605</v>
       </c>
       <c r="X8">
-        <v>-0.02976428219764282</v>
+        <v>-0.02883110463798601</v>
       </c>
       <c r="Z8">
-        <v>0.252787097683871</v>
+        <v>0.258674781783981</v>
       </c>
       <c r="AA8">
-        <v>0.03137897605378976</v>
+        <v>0.03457593129024893</v>
       </c>
       <c r="AB8">
-        <v>0.03137897605378976</v>
+        <v>0.03457593129024893</v>
       </c>
       <c r="AC8">
-        <v>0.03137897605378976</v>
+        <v>0.03457593129024893</v>
       </c>
       <c r="AD8">
-        <v>0.03137897605378976</v>
+        <v>0.03457593129024893</v>
       </c>
       <c r="AE8">
-        <v>0.03137897605378976</v>
+        <v>0.03457593129024893</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1231,85 +1231,85 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.003861168422611684</v>
+        <v>-0.0004595367962427625</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.01311056793141513</v>
       </c>
       <c r="E9">
-        <v>0.01613564500135645</v>
+        <v>-0.009389405677959466</v>
       </c>
       <c r="F9">
-        <v>-0.01166989785269898</v>
+        <v>0.01255639613369369</v>
       </c>
       <c r="G9">
-        <v>0.007734231221342312</v>
+        <v>-0.01186831916981749</v>
       </c>
       <c r="I9">
-        <v>0.001272640824726408</v>
+        <v>0.002077868352779193</v>
       </c>
       <c r="J9">
-        <v>-0.01761753621696283</v>
+        <v>-0.007254445706714798</v>
       </c>
       <c r="K9">
-        <v>-0.004856159832561598</v>
+        <v>0.008895777467121524</v>
       </c>
       <c r="L9">
-        <v>-0.004856159832561598</v>
+        <v>0.008895777467121524</v>
       </c>
       <c r="M9">
-        <v>-0.004856159832561598</v>
+        <v>0.008895777467121524</v>
       </c>
       <c r="N9">
-        <v>-0.004856159832561598</v>
+        <v>0.008895777467121524</v>
       </c>
       <c r="O9">
-        <v>-0.004856159832561598</v>
+        <v>0.008895777467121524</v>
       </c>
       <c r="P9">
-        <v>-0.01192764855527649</v>
+        <v>0.01238673764666778</v>
       </c>
       <c r="Q9">
-        <v>-0.004970181841701818</v>
+        <v>0.01106613589165838</v>
       </c>
       <c r="R9">
-        <v>-0.004970181841701818</v>
+        <v>0.01106613589165838</v>
       </c>
       <c r="S9">
-        <v>-0.004970181841701818</v>
+        <v>0.01106613589165838</v>
       </c>
       <c r="T9">
-        <v>-0.004970181841701818</v>
+        <v>0.01106613589165838</v>
       </c>
       <c r="U9">
-        <v>0.009270708308707083</v>
+        <v>-0.00773871930841749</v>
       </c>
       <c r="V9">
-        <v>0.01382349832223498</v>
+        <v>0.006143167525674494</v>
       </c>
       <c r="W9">
-        <v>0.004175853221758532</v>
+        <v>-0.008255286105551348</v>
       </c>
       <c r="X9">
-        <v>-0.01312283541522835</v>
+        <v>-0.003630576291102756</v>
       </c>
       <c r="Z9">
-        <v>-0.01864735477847355</v>
+        <v>0.0103481022632516</v>
       </c>
       <c r="AA9">
-        <v>0.0002029581500295815</v>
+        <v>-0.003942826116294159</v>
       </c>
       <c r="AB9">
-        <v>0.0002029581500295815</v>
+        <v>-0.003942826116294159</v>
       </c>
       <c r="AC9">
-        <v>0.0002029581500295815</v>
+        <v>-0.003942826116294159</v>
       </c>
       <c r="AD9">
-        <v>0.0002029581500295815</v>
+        <v>-0.003942826116294159</v>
       </c>
       <c r="AE9">
-        <v>0.0002029581500295815</v>
+        <v>-0.003942826116294159</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1320,85 +1320,85 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3616189057481891</v>
+        <v>0.3410764932980703</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.01630515048914298</v>
       </c>
       <c r="E10">
-        <v>0.01118963213189632</v>
+        <v>-0.003956829155575456</v>
       </c>
       <c r="F10">
-        <v>-0.005970094127700941</v>
+        <v>0.008721965644093214</v>
       </c>
       <c r="G10">
-        <v>0.001548103695481037</v>
+        <v>-0.009829140645767825</v>
       </c>
       <c r="I10">
-        <v>-0.01147237074672371</v>
+        <v>0.02077876719966824</v>
       </c>
       <c r="J10">
-        <v>0.004192917386772231</v>
+        <v>0.01772238247123005</v>
       </c>
       <c r="K10">
-        <v>-0.001144004087440041</v>
+        <v>-0.0009906756951668079</v>
       </c>
       <c r="L10">
-        <v>-0.001144004087440041</v>
+        <v>-0.0009906756951668079</v>
       </c>
       <c r="M10">
-        <v>-0.001144004087440041</v>
+        <v>-0.0009906756951668079</v>
       </c>
       <c r="N10">
-        <v>-0.001144004087440041</v>
+        <v>-0.0009906756951668079</v>
       </c>
       <c r="O10">
-        <v>-0.001144004087440041</v>
+        <v>-0.0009906756951668079</v>
       </c>
       <c r="P10">
-        <v>-0.006327280863272809</v>
+        <v>0.00828826548106665</v>
       </c>
       <c r="Q10">
-        <v>0.002216203414162034</v>
+        <v>0.004444907319451677</v>
       </c>
       <c r="R10">
-        <v>0.002216203414162034</v>
+        <v>0.004444907319451677</v>
       </c>
       <c r="S10">
-        <v>0.002216203414162034</v>
+        <v>0.004444907319451677</v>
       </c>
       <c r="T10">
-        <v>0.002216203414162034</v>
+        <v>0.004444907319451677</v>
       </c>
       <c r="U10">
-        <v>-0.4276805870688059</v>
+        <v>-0.4222573854493342</v>
       </c>
       <c r="V10">
-        <v>0.01968483350884833</v>
+        <v>0.01204467454757304</v>
       </c>
       <c r="W10">
-        <v>0.009430588714305887</v>
+        <v>-0.01545237354613084</v>
       </c>
       <c r="X10">
-        <v>-0.01682867559628675</v>
+        <v>0.003924743194136613</v>
       </c>
       <c r="Z10">
-        <v>-0.01020841167008412</v>
+        <v>0.01404075715688683</v>
       </c>
       <c r="AA10">
-        <v>0.002040140816401408</v>
+        <v>-0.01000812069543939</v>
       </c>
       <c r="AB10">
-        <v>0.002040140816401408</v>
+        <v>-0.01000812069543939</v>
       </c>
       <c r="AC10">
-        <v>0.002040140816401408</v>
+        <v>-0.01000812069543939</v>
       </c>
       <c r="AD10">
-        <v>0.002040140816401408</v>
+        <v>-0.01000812069543939</v>
       </c>
       <c r="AE10">
-        <v>0.002040140816401408</v>
+        <v>-0.01000812069543939</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1409,85 +1409,85 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.4964427540804275</v>
+        <v>0.5131450288850787</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>-0.002207518206367472</v>
       </c>
       <c r="E11">
-        <v>-0.0281065099010651</v>
+        <v>0.004058417407162773</v>
       </c>
       <c r="F11">
-        <v>0.02342056351820564</v>
+        <v>-0.0003007330359489537</v>
       </c>
       <c r="G11">
-        <v>-0.01971655298916553</v>
+        <v>-0.003862215763472122</v>
       </c>
       <c r="I11">
-        <v>-0.001040180350401804</v>
+        <v>-0.004211141151736581</v>
       </c>
       <c r="J11">
-        <v>-0.01822913508499427</v>
+        <v>-0.004300268888584006</v>
       </c>
       <c r="K11">
-        <v>0.01340896619008966</v>
+        <v>-0.007366616622915886</v>
       </c>
       <c r="L11">
-        <v>0.01340896619008966</v>
+        <v>-0.007366616622915886</v>
       </c>
       <c r="M11">
-        <v>0.01340896619008966</v>
+        <v>-0.007366616622915886</v>
       </c>
       <c r="N11">
-        <v>0.01340896619008966</v>
+        <v>-0.007366616622915886</v>
       </c>
       <c r="O11">
-        <v>0.01340896619008966</v>
+        <v>-0.007366616622915886</v>
       </c>
       <c r="P11">
-        <v>0.02393785325937853</v>
+        <v>-0.0005638379619349683</v>
       </c>
       <c r="Q11">
-        <v>0.01416891760568918</v>
+        <v>-0.004392963842077561</v>
       </c>
       <c r="R11">
-        <v>0.01416891760568918</v>
+        <v>-0.004392963842077561</v>
       </c>
       <c r="S11">
-        <v>0.01416891760568918</v>
+        <v>-0.004392963842077561</v>
       </c>
       <c r="T11">
-        <v>0.01416891760568918</v>
+        <v>-0.004392963842077561</v>
       </c>
       <c r="U11">
-        <v>0.688988298769883</v>
+        <v>0.6875767337902615</v>
       </c>
       <c r="V11">
-        <v>-0.0204169097521691</v>
+        <v>0.007932892295826444</v>
       </c>
       <c r="W11">
-        <v>0.004843196208431962</v>
+        <v>-0.009165062111954097</v>
       </c>
       <c r="X11">
-        <v>0.03025521909855219</v>
+        <v>0.00334096184126503</v>
       </c>
       <c r="Z11">
-        <v>0.03559380545593806</v>
+        <v>0.0006987837765434965</v>
       </c>
       <c r="AA11">
-        <v>-0.01852980612529806</v>
+        <v>-0.009233318066145597</v>
       </c>
       <c r="AB11">
-        <v>-0.01852980612529806</v>
+        <v>-0.009233318066145597</v>
       </c>
       <c r="AC11">
-        <v>-0.01852980612529806</v>
+        <v>-0.009233318066145597</v>
       </c>
       <c r="AD11">
-        <v>-0.01852980612529806</v>
+        <v>-0.009233318066145597</v>
       </c>
       <c r="AE11">
-        <v>-0.01852980612529806</v>
+        <v>-0.009233318066145597</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1498,85 +1498,85 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.02341559955015599</v>
+        <v>0.007430424561412885</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>0.005172416705819012</v>
       </c>
       <c r="E12">
-        <v>0.002335527527355275</v>
+        <v>-0.006575184688674762</v>
       </c>
       <c r="F12">
-        <v>0.006081509832815099</v>
+        <v>0.00583899454435929</v>
       </c>
       <c r="G12">
-        <v>-0.01135085312950853</v>
+        <v>-0.00470300090942189</v>
       </c>
       <c r="I12">
-        <v>0.006581050229810503</v>
+        <v>1.678703932479749E-05</v>
       </c>
       <c r="J12">
-        <v>0.006524544047015572</v>
+        <v>-0.01181433817481854</v>
       </c>
       <c r="K12">
-        <v>-0.01348279371882794</v>
+        <v>0.01945929264780145</v>
       </c>
       <c r="L12">
-        <v>-0.01348279371882794</v>
+        <v>0.01945929264780145</v>
       </c>
       <c r="M12">
-        <v>-0.01348279371882794</v>
+        <v>0.01945929264780145</v>
       </c>
       <c r="N12">
-        <v>-0.01348279371882794</v>
+        <v>0.01945929264780145</v>
       </c>
       <c r="O12">
-        <v>-0.01348279371882794</v>
+        <v>0.01945929264780145</v>
       </c>
       <c r="P12">
-        <v>0.004879486104794861</v>
+        <v>0.006242264019410377</v>
       </c>
       <c r="Q12">
-        <v>-0.00473528305135283</v>
+        <v>0.02008661827479091</v>
       </c>
       <c r="R12">
-        <v>-0.00473528305135283</v>
+        <v>0.02008661827479091</v>
       </c>
       <c r="S12">
-        <v>-0.00473528305135283</v>
+        <v>0.02008661827479091</v>
       </c>
       <c r="T12">
-        <v>-0.00473528305135283</v>
+        <v>0.02008661827479091</v>
       </c>
       <c r="U12">
-        <v>0.008060066180600662</v>
+        <v>0.0101880832685638</v>
       </c>
       <c r="V12">
-        <v>0.0225542199455422</v>
+        <v>-0.003427332053552064</v>
       </c>
       <c r="W12">
-        <v>0.0003599394755993948</v>
+        <v>-0.001754903558670368</v>
       </c>
       <c r="X12">
-        <v>-0.007048642366486423</v>
+        <v>0.006021208195643879</v>
       </c>
       <c r="Z12">
-        <v>0.001952970967529709</v>
+        <v>0.01366102931501609</v>
       </c>
       <c r="AA12">
-        <v>-0.01560550765205508</v>
+        <v>-0.00892014196750222</v>
       </c>
       <c r="AB12">
-        <v>-0.01560550765205508</v>
+        <v>-0.00892014196750222</v>
       </c>
       <c r="AC12">
-        <v>-0.01560550765205508</v>
+        <v>-0.00892014196750222</v>
       </c>
       <c r="AD12">
-        <v>-0.01560550765205508</v>
+        <v>-0.00892014196750222</v>
       </c>
       <c r="AE12">
-        <v>-0.01560550765205508</v>
+        <v>-0.00892014196750222</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1587,85 +1587,85 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.09250151505701515</v>
+        <v>0.1153699685370308</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.01257064383704131</v>
       </c>
       <c r="E13">
-        <v>0.005089091546890916</v>
+        <v>-0.001290820426419069</v>
       </c>
       <c r="F13">
-        <v>-0.001462348538623485</v>
+        <v>0.002879878005935594</v>
       </c>
       <c r="G13">
-        <v>-0.000530285405302854</v>
+        <v>-0.003663686916620109</v>
       </c>
       <c r="I13">
-        <v>-0.007829091186290911</v>
+        <v>-0.01222010571437665</v>
       </c>
       <c r="J13">
-        <v>0.01267725406593232</v>
+        <v>-0.002548964723919683</v>
       </c>
       <c r="K13">
-        <v>0.02082445313224453</v>
+        <v>0.004962094577532728</v>
       </c>
       <c r="L13">
-        <v>0.02082445313224453</v>
+        <v>0.004962094577532728</v>
       </c>
       <c r="M13">
-        <v>0.02082445313224453</v>
+        <v>0.004962094577532728</v>
       </c>
       <c r="N13">
-        <v>0.02082445313224453</v>
+        <v>0.004962094577532728</v>
       </c>
       <c r="O13">
-        <v>0.02082445313224453</v>
+        <v>0.004962094577532728</v>
       </c>
       <c r="P13">
-        <v>-0.001089249526892495</v>
+        <v>0.003274310840223607</v>
       </c>
       <c r="Q13">
-        <v>0.01838086645580866</v>
+        <v>0.004973167765205747</v>
       </c>
       <c r="R13">
-        <v>0.01838086645580866</v>
+        <v>0.004973167765205747</v>
       </c>
       <c r="S13">
-        <v>0.01838086645580866</v>
+        <v>0.004973167765205747</v>
       </c>
       <c r="T13">
-        <v>0.01838086645580866</v>
+        <v>0.004973167765205747</v>
       </c>
       <c r="U13">
-        <v>0.06204549770045498</v>
+        <v>0.1072645055744454</v>
       </c>
       <c r="V13">
-        <v>0.007060281454602814</v>
+        <v>0.0006331724864558202</v>
       </c>
       <c r="W13">
-        <v>-0.00903891689438917</v>
+        <v>-0.004343650942869547</v>
       </c>
       <c r="X13">
-        <v>-0.01742366095823661</v>
+        <v>-0.001622696814417138</v>
       </c>
       <c r="Z13">
-        <v>-0.0164978606129786</v>
+        <v>-0.00867248249488254</v>
       </c>
       <c r="AA13">
-        <v>-0.00459648102996481</v>
+        <v>-0.007636876619326199</v>
       </c>
       <c r="AB13">
-        <v>-0.00459648102996481</v>
+        <v>-0.007636876619326199</v>
       </c>
       <c r="AC13">
-        <v>-0.00459648102996481</v>
+        <v>-0.007636876619326199</v>
       </c>
       <c r="AD13">
-        <v>-0.00459648102996481</v>
+        <v>-0.007636876619326199</v>
       </c>
       <c r="AE13">
-        <v>-0.00459648102996481</v>
+        <v>-0.007636876619326199</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1674,85 +1674,85 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.3999854378438544</v>
+        <v>-0.3993144006846001</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.007575327587114496</v>
       </c>
       <c r="E14">
-        <v>-0.001948150483481505</v>
+        <v>-0.001980654898135233</v>
       </c>
       <c r="F14">
-        <v>0.003876248678762486</v>
+        <v>-0.005438555756852433</v>
       </c>
       <c r="G14">
-        <v>-0.004973890825738908</v>
+        <v>0.01232074071594907</v>
       </c>
       <c r="I14">
-        <v>-0.01461605487816055</v>
+        <v>5.67575165118362E-05</v>
       </c>
       <c r="J14">
-        <v>-0.004448339004961657</v>
+        <v>-0.00636517866902652</v>
       </c>
       <c r="K14">
-        <v>0.007772384585723846</v>
+        <v>-0.006757686011838845</v>
       </c>
       <c r="L14">
-        <v>0.007772384585723846</v>
+        <v>-0.006757686011838845</v>
       </c>
       <c r="M14">
-        <v>0.007772384585723846</v>
+        <v>-0.006757686011838845</v>
       </c>
       <c r="N14">
-        <v>0.007772384585723846</v>
+        <v>-0.006757686011838845</v>
       </c>
       <c r="O14">
-        <v>0.007772384585723846</v>
+        <v>-0.006757686011838845</v>
       </c>
       <c r="P14">
-        <v>0.003942920103429201</v>
+        <v>-0.005407658404807164</v>
       </c>
       <c r="Q14">
-        <v>0.009336848877368489</v>
+        <v>-0.01212364664255698</v>
       </c>
       <c r="R14">
-        <v>0.009336848877368489</v>
+        <v>-0.01212364664255698</v>
       </c>
       <c r="S14">
-        <v>0.009336848877368489</v>
+        <v>-0.01212364664255698</v>
       </c>
       <c r="T14">
-        <v>0.009336848877368489</v>
+        <v>-0.01212364664255698</v>
       </c>
       <c r="U14">
-        <v>-0.07430361166703611</v>
+        <v>-0.07019463259679114</v>
       </c>
       <c r="V14">
-        <v>0.004846744740467447</v>
+        <v>-0.0216111289548614</v>
       </c>
       <c r="W14">
-        <v>-0.0117172703611727</v>
+        <v>0.01107284672770073</v>
       </c>
       <c r="X14">
-        <v>-0.002120803233208032</v>
+        <v>0.008202284823473202</v>
       </c>
       <c r="Z14">
-        <v>-0.007786957001869569</v>
+        <v>0.001106599728228121</v>
       </c>
       <c r="AA14">
-        <v>0.0006903886509038865</v>
+        <v>0.01904799653199995</v>
       </c>
       <c r="AB14">
-        <v>0.0006903886509038865</v>
+        <v>0.01904799653199995</v>
       </c>
       <c r="AC14">
-        <v>0.0006903886509038865</v>
+        <v>0.01904799653199995</v>
       </c>
       <c r="AD14">
-        <v>0.0006903886509038865</v>
+        <v>0.01904799653199995</v>
       </c>
       <c r="AE14">
-        <v>0.0006903886509038865</v>
+        <v>0.01904799653199995</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1763,85 +1763,85 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.03224583507445835</v>
+        <v>0.002506195492284305</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01679604588743822</v>
       </c>
       <c r="E15">
-        <v>0.008071989704719897</v>
+        <v>-0.02114051791625809</v>
       </c>
       <c r="F15">
-        <v>-0.00778354199383542</v>
+        <v>0.0235627964931687</v>
       </c>
       <c r="G15">
-        <v>0.006560539781605397</v>
+        <v>-0.02459454500147727</v>
       </c>
       <c r="I15">
-        <v>-0.004730086271300863</v>
+        <v>-0.02272686987073234</v>
       </c>
       <c r="J15">
-        <v>0.001173245557243574</v>
+        <v>-0.02464830851889339</v>
       </c>
       <c r="K15">
-        <v>-0.01016120374161204</v>
+        <v>0.019986943531046</v>
       </c>
       <c r="L15">
-        <v>-0.01016120374161204</v>
+        <v>0.019986943531046</v>
       </c>
       <c r="M15">
-        <v>-0.01016120374161204</v>
+        <v>0.019986943531046</v>
       </c>
       <c r="N15">
-        <v>-0.01016120374161204</v>
+        <v>0.019986943531046</v>
       </c>
       <c r="O15">
-        <v>-0.01016120374161204</v>
+        <v>0.019986943531046</v>
       </c>
       <c r="P15">
-        <v>-0.007816614366166144</v>
+        <v>0.02398918952326859</v>
       </c>
       <c r="Q15">
-        <v>-0.01105826066658261</v>
+        <v>0.02340466780319794</v>
       </c>
       <c r="R15">
-        <v>-0.01105826066658261</v>
+        <v>0.02340466780319794</v>
       </c>
       <c r="S15">
-        <v>-0.01105826066658261</v>
+        <v>0.02340466780319794</v>
       </c>
       <c r="T15">
-        <v>-0.01105826066658261</v>
+        <v>0.02340466780319794</v>
       </c>
       <c r="U15">
-        <v>0.0224449696044497</v>
+        <v>0.03569427039366048</v>
       </c>
       <c r="V15">
-        <v>-0.0009242356292423564</v>
+        <v>0.0004012955687702433</v>
       </c>
       <c r="W15">
-        <v>-0.01280991688409917</v>
+        <v>-0.002053902782092231</v>
       </c>
       <c r="X15">
-        <v>-0.01123538914035389</v>
+        <v>0.017475007866797</v>
       </c>
       <c r="Z15">
-        <v>-0.007729838633298386</v>
+        <v>0.01229729294995771</v>
       </c>
       <c r="AA15">
-        <v>0.008304796187047962</v>
+        <v>-0.0174410556475165</v>
       </c>
       <c r="AB15">
-        <v>0.008304796187047962</v>
+        <v>-0.0174410556475165</v>
       </c>
       <c r="AC15">
-        <v>0.008304796187047962</v>
+        <v>-0.0174410556475165</v>
       </c>
       <c r="AD15">
-        <v>0.008304796187047962</v>
+        <v>-0.0174410556475165</v>
       </c>
       <c r="AE15">
-        <v>0.008304796187047962</v>
+        <v>-0.0174410556475165</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1852,85 +1852,85 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.02772259740122598</v>
+        <v>-0.006156215721190871</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.008682973330983959</v>
       </c>
       <c r="E16">
-        <v>-0.02726818269268183</v>
+        <v>0.01361931354092678</v>
       </c>
       <c r="F16">
-        <v>0.02306721747867217</v>
+        <v>-0.007731686534870104</v>
       </c>
       <c r="G16">
-        <v>-0.02011940094919401</v>
+        <v>0.001351545161742893</v>
       </c>
       <c r="I16">
-        <v>-0.007086758710867586</v>
+        <v>-0.006802320645348761</v>
       </c>
       <c r="J16">
-        <v>-0.003861721695339959</v>
+        <v>0.002435936815361882</v>
       </c>
       <c r="K16">
-        <v>0.001524449763244498</v>
+        <v>-0.008212080948626266</v>
       </c>
       <c r="L16">
-        <v>0.001524449763244498</v>
+        <v>-0.008212080948626266</v>
       </c>
       <c r="M16">
-        <v>0.001524449763244498</v>
+        <v>-0.008212080948626266</v>
       </c>
       <c r="N16">
-        <v>0.001524449763244498</v>
+        <v>-0.008212080948626266</v>
       </c>
       <c r="O16">
-        <v>0.001524449763244498</v>
+        <v>-0.008212080948626266</v>
       </c>
       <c r="P16">
-        <v>0.02315841255958413</v>
+        <v>-0.007746629792916091</v>
       </c>
       <c r="Q16">
-        <v>0.004095621160956212</v>
+        <v>-0.002719311487801742</v>
       </c>
       <c r="R16">
-        <v>0.004095621160956212</v>
+        <v>-0.002719311487801742</v>
       </c>
       <c r="S16">
-        <v>0.004095621160956212</v>
+        <v>-0.002719311487801742</v>
       </c>
       <c r="T16">
-        <v>0.004095621160956212</v>
+        <v>-0.002719311487801742</v>
       </c>
       <c r="U16">
-        <v>-0.02587897200678972</v>
+        <v>-0.03020546257352286</v>
       </c>
       <c r="V16">
-        <v>-0.01402351748023517</v>
+        <v>0.01599866804685419</v>
       </c>
       <c r="W16">
-        <v>0.004277973330779733</v>
+        <v>-0.008323101880048468</v>
       </c>
       <c r="X16">
-        <v>0.01891545634515457</v>
+        <v>-0.002628299337942177</v>
       </c>
       <c r="Z16">
-        <v>0.01933122458531224</v>
+        <v>-0.003872888591763885</v>
       </c>
       <c r="AA16">
-        <v>-0.00321436804414368</v>
+        <v>-0.009921464944085389</v>
       </c>
       <c r="AB16">
-        <v>-0.00321436804414368</v>
+        <v>-0.009921464944085389</v>
       </c>
       <c r="AC16">
-        <v>-0.00321436804414368</v>
+        <v>-0.009921464944085389</v>
       </c>
       <c r="AD16">
-        <v>-0.00321436804414368</v>
+        <v>-0.009921464944085389</v>
       </c>
       <c r="AE16">
-        <v>-0.00321436804414368</v>
+        <v>-0.009921464944085389</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -1941,85 +1941,85 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>0.02167381417273814</v>
+        <v>0.02525301337114084</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.01099503082804736</v>
       </c>
       <c r="E17">
-        <v>0.0136704401927044</v>
+        <v>0.004295456926491515</v>
       </c>
       <c r="F17">
-        <v>-0.01388937406289374</v>
+        <v>-0.007276484996507578</v>
       </c>
       <c r="G17">
-        <v>0.01384185533441855</v>
+        <v>0.006440759795949373</v>
       </c>
       <c r="I17">
-        <v>0.00133401496934015</v>
+        <v>0.001674324026161313</v>
       </c>
       <c r="J17">
-        <v>0.01832933020863767</v>
+        <v>0.002457622057992151</v>
       </c>
       <c r="K17">
-        <v>-0.01511154166311542</v>
+        <v>-0.01691074425641788</v>
       </c>
       <c r="L17">
-        <v>-0.01511154166311542</v>
+        <v>-0.01691074425641788</v>
       </c>
       <c r="M17">
-        <v>-0.01511154166311542</v>
+        <v>-0.01691074425641788</v>
       </c>
       <c r="N17">
-        <v>-0.01511154166311542</v>
+        <v>-0.01691074425641788</v>
       </c>
       <c r="O17">
-        <v>-0.01511154166311542</v>
+        <v>-0.01691074425641788</v>
       </c>
       <c r="P17">
-        <v>-0.01410843410108434</v>
+        <v>-0.007679495065304611</v>
       </c>
       <c r="Q17">
-        <v>-0.01575238746152388</v>
+        <v>-0.01498655456228992</v>
       </c>
       <c r="R17">
-        <v>-0.01575238746152388</v>
+        <v>-0.01498655456228992</v>
       </c>
       <c r="S17">
-        <v>-0.01575238746152388</v>
+        <v>-0.01498655456228992</v>
       </c>
       <c r="T17">
-        <v>-0.01575238746152388</v>
+        <v>-0.01498655456228992</v>
       </c>
       <c r="U17">
-        <v>-0.004178573633785736</v>
+        <v>0.01998309619504838</v>
       </c>
       <c r="V17">
-        <v>0.001993201399932014</v>
+        <v>-0.005486329656036402</v>
       </c>
       <c r="W17">
-        <v>0.01027403663474037</v>
+        <v>0.01151900230498441</v>
       </c>
       <c r="X17">
-        <v>-0.01875415513954155</v>
+        <v>-0.0008269329035458268</v>
       </c>
       <c r="Z17">
-        <v>-0.01688060522480605</v>
+        <v>0.001559966204061972</v>
       </c>
       <c r="AA17">
-        <v>0.02045203710052037</v>
+        <v>0.009514405508037588</v>
       </c>
       <c r="AB17">
-        <v>0.02045203710052037</v>
+        <v>0.009514405508037588</v>
       </c>
       <c r="AC17">
-        <v>0.02045203710052037</v>
+        <v>0.009514405508037588</v>
       </c>
       <c r="AD17">
-        <v>0.02045203710052037</v>
+        <v>0.009514405508037588</v>
       </c>
       <c r="AE17">
-        <v>0.02045203710052037</v>
+        <v>0.009514405508037588</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2030,85 +2030,85 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>0.01155633331956333</v>
+        <v>-0.003434123959908188</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.002837576856837139</v>
       </c>
       <c r="E18">
-        <v>0.003013297578132975</v>
+        <v>-0.002933337491145899</v>
       </c>
       <c r="F18">
-        <v>5.673199256731993E-05</v>
+        <v>0.006059683102495049</v>
       </c>
       <c r="G18">
-        <v>-0.003073432182734322</v>
+        <v>-0.009017102812767233</v>
       </c>
       <c r="I18">
-        <v>-0.007629596488295965</v>
+        <v>0.005805693231338957</v>
       </c>
       <c r="J18">
-        <v>0.008194575860407432</v>
+        <v>-0.01411777247575624</v>
       </c>
       <c r="K18">
-        <v>0.001228764120287641</v>
+        <v>-0.007117322384645664</v>
       </c>
       <c r="L18">
-        <v>0.001228764120287641</v>
+        <v>-0.007117322384645664</v>
       </c>
       <c r="M18">
-        <v>0.001228764120287641</v>
+        <v>-0.007117322384645664</v>
       </c>
       <c r="N18">
-        <v>0.001228764120287641</v>
+        <v>-0.007117322384645664</v>
       </c>
       <c r="O18">
-        <v>0.001228764120287641</v>
+        <v>-0.007117322384645664</v>
       </c>
       <c r="P18">
-        <v>-0.0001226983572269836</v>
+        <v>0.005757934589967728</v>
       </c>
       <c r="Q18">
-        <v>0.003458363806583638</v>
+        <v>-0.0009362222490034727</v>
       </c>
       <c r="R18">
-        <v>0.003458363806583638</v>
+        <v>-0.0009362222490034727</v>
       </c>
       <c r="S18">
-        <v>0.003458363806583638</v>
+        <v>-0.0009362222490034727</v>
       </c>
       <c r="T18">
-        <v>0.003458363806583638</v>
+        <v>-0.0009362222490034727</v>
       </c>
       <c r="U18">
-        <v>0.007317714157177141</v>
+        <v>-0.01015374182271472</v>
       </c>
       <c r="V18">
-        <v>0.009279273092792731</v>
+        <v>0.006480251351253929</v>
       </c>
       <c r="W18">
-        <v>-0.01051650140116501</v>
+        <v>-0.02178248347316381</v>
       </c>
       <c r="X18">
-        <v>-6.154537261545372E-05</v>
+        <v>-0.002188779268574676</v>
       </c>
       <c r="Z18">
-        <v>0.00122238903622389</v>
+        <v>0.005358384435287258</v>
       </c>
       <c r="AA18">
-        <v>-0.006162189277621893</v>
+        <v>-0.0008712400683006261</v>
       </c>
       <c r="AB18">
-        <v>-0.006162189277621893</v>
+        <v>-0.0008712400683006261</v>
       </c>
       <c r="AC18">
-        <v>-0.006162189277621893</v>
+        <v>-0.0008712400683006261</v>
       </c>
       <c r="AD18">
-        <v>-0.006162189277621893</v>
+        <v>-0.0008712400683006261</v>
       </c>
       <c r="AE18">
-        <v>-0.006162189277621893</v>
+        <v>-0.0008712400683006261</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2117,85 +2117,85 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.0206798099307981</v>
+        <v>0.001723190722237355</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02570739963605312</v>
       </c>
       <c r="E19">
-        <v>0.004200122646001226</v>
+        <v>-0.005088320306067506</v>
       </c>
       <c r="F19">
-        <v>0.000318045399180454</v>
+        <v>0.006848511927320499</v>
       </c>
       <c r="G19">
-        <v>-0.002883877240838773</v>
+        <v>-0.007250745792980404</v>
       </c>
       <c r="I19">
-        <v>0.001417676534176765</v>
+        <v>-0.03061340968145953</v>
       </c>
       <c r="J19">
-        <v>0.0006236747802295138</v>
+        <v>-0.0108228148459799</v>
       </c>
       <c r="K19">
-        <v>-0.009294473324944734</v>
+        <v>0.008378961435608774</v>
       </c>
       <c r="L19">
-        <v>-0.009294473324944734</v>
+        <v>0.008378961435608774</v>
       </c>
       <c r="M19">
-        <v>-0.009294473324944734</v>
+        <v>0.008378961435608774</v>
       </c>
       <c r="N19">
-        <v>-0.009294473324944734</v>
+        <v>0.008378961435608774</v>
       </c>
       <c r="O19">
-        <v>-0.009294473324944734</v>
+        <v>0.008378961435608774</v>
       </c>
       <c r="P19">
-        <v>-0.0002527196065271961</v>
+        <v>0.006912070936126109</v>
       </c>
       <c r="Q19">
-        <v>-0.007499688230996882</v>
+        <v>0.008792836543638072</v>
       </c>
       <c r="R19">
-        <v>-0.007499688230996882</v>
+        <v>0.008792836543638072</v>
       </c>
       <c r="S19">
-        <v>-0.007499688230996882</v>
+        <v>0.008792836543638072</v>
       </c>
       <c r="T19">
-        <v>-0.007499688230996882</v>
+        <v>0.008792836543638072</v>
       </c>
       <c r="U19">
-        <v>0.004769809367698093</v>
+        <v>0.01448114277314286</v>
       </c>
       <c r="V19">
-        <v>0.0148380702643807</v>
+        <v>0.002370199747971871</v>
       </c>
       <c r="W19">
-        <v>-0.007856058138560581</v>
+        <v>0.01081524715336324</v>
       </c>
       <c r="X19">
-        <v>-0.01390969519909695</v>
+        <v>0.007657636244650567</v>
       </c>
       <c r="Z19">
-        <v>-0.004009519228095192</v>
+        <v>0.001099738282808411</v>
       </c>
       <c r="AA19">
-        <v>0.01038121675981217</v>
+        <v>-0.01319204826081326</v>
       </c>
       <c r="AB19">
-        <v>0.01038121675981217</v>
+        <v>-0.01319204826081326</v>
       </c>
       <c r="AC19">
-        <v>0.01038121675981217</v>
+        <v>-0.01319204826081326</v>
       </c>
       <c r="AD19">
-        <v>0.01038121675981217</v>
+        <v>-0.01319204826081326</v>
       </c>
       <c r="AE19">
-        <v>0.01038121675981217</v>
+        <v>-0.01319204826081326</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2206,85 +2206,85 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.001115839367158394</v>
+        <v>0.007846115560095557</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.006780813410637711</v>
       </c>
       <c r="E20">
-        <v>0.0027617800476178</v>
+        <v>0.001972038335500599</v>
       </c>
       <c r="F20">
-        <v>-0.007380473137804731</v>
+        <v>-0.002374299435535929</v>
       </c>
       <c r="G20">
-        <v>0.01050700802107008</v>
+        <v>0.003843511958492375</v>
       </c>
       <c r="I20">
-        <v>-0.008259163282591632</v>
+        <v>-0.001226860472294695</v>
       </c>
       <c r="J20">
-        <v>0.01341735858407152</v>
+        <v>-0.0149599308992014</v>
       </c>
       <c r="K20">
-        <v>0.0003349532793495328</v>
+        <v>-0.02633011271609552</v>
       </c>
       <c r="L20">
-        <v>0.0003349532793495328</v>
+        <v>-0.02633011271609552</v>
       </c>
       <c r="M20">
-        <v>0.0003349532793495328</v>
+        <v>-0.02633011271609552</v>
       </c>
       <c r="N20">
-        <v>0.0003349532793495328</v>
+        <v>-0.02633011271609552</v>
       </c>
       <c r="O20">
-        <v>0.0003349532793495328</v>
+        <v>-0.02633011271609552</v>
       </c>
       <c r="P20">
-        <v>-0.0069279600332796</v>
+        <v>-0.002898407154662612</v>
       </c>
       <c r="Q20">
-        <v>-0.004642464718424647</v>
+        <v>-0.02433352648177385</v>
       </c>
       <c r="R20">
-        <v>-0.004642464718424647</v>
+        <v>-0.02433352648177385</v>
       </c>
       <c r="S20">
-        <v>-0.004642464718424647</v>
+        <v>-0.02433352648177385</v>
       </c>
       <c r="T20">
-        <v>-0.004642464718424647</v>
+        <v>-0.02433352648177385</v>
       </c>
       <c r="U20">
-        <v>0.0009277738052777382</v>
+        <v>0.01677653798869591</v>
       </c>
       <c r="V20">
-        <v>-0.01793639131136392</v>
+        <v>0.003723840995685016</v>
       </c>
       <c r="W20">
-        <v>0.02820094386600944</v>
+        <v>-0.002600209446878273</v>
       </c>
       <c r="X20">
-        <v>0.007028662114286621</v>
+        <v>0.008003089742235778</v>
       </c>
       <c r="Z20">
-        <v>-0.0003468235474682355</v>
+        <v>0.005880008787187638</v>
       </c>
       <c r="AA20">
-        <v>0.006571249205712493</v>
+        <v>-0.0005909721186089394</v>
       </c>
       <c r="AB20">
-        <v>0.006571249205712493</v>
+        <v>-0.0005909721186089394</v>
       </c>
       <c r="AC20">
-        <v>0.006571249205712493</v>
+        <v>-0.0005909721186089394</v>
       </c>
       <c r="AD20">
-        <v>0.006571249205712493</v>
+        <v>-0.0005909721186089394</v>
       </c>
       <c r="AE20">
-        <v>0.006571249205712493</v>
+        <v>-0.0005909721186089394</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2295,85 +2295,85 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>0.01273547691135477</v>
+        <v>0.005411053865797717</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>-0.0001334091348970178</v>
       </c>
       <c r="E21">
-        <v>0.01655416718154167</v>
+        <v>-0.01277616535587759</v>
       </c>
       <c r="F21">
-        <v>-0.01692728530927285</v>
+        <v>0.01475001951171906</v>
       </c>
       <c r="G21">
-        <v>0.01733983817339838</v>
+        <v>-0.01615360754927512</v>
       </c>
       <c r="I21">
-        <v>0.01527920219679202</v>
+        <v>-0.01569672359682381</v>
       </c>
       <c r="J21">
-        <v>0.02265939976165947</v>
+        <v>-0.005794449071435881</v>
       </c>
       <c r="K21">
-        <v>-0.004026224728262247</v>
+        <v>0.02270600714384386</v>
       </c>
       <c r="L21">
-        <v>-0.004026224728262247</v>
+        <v>0.02270600714384386</v>
       </c>
       <c r="M21">
-        <v>-0.004026224728262247</v>
+        <v>0.02270600714384386</v>
       </c>
       <c r="N21">
-        <v>-0.004026224728262247</v>
+        <v>0.02270600714384386</v>
       </c>
       <c r="O21">
-        <v>-0.004026224728262247</v>
+        <v>0.02270600714384386</v>
       </c>
       <c r="P21">
-        <v>-0.0167749801797498</v>
+        <v>0.01506598828228107</v>
       </c>
       <c r="Q21">
-        <v>-0.009492142078921422</v>
+        <v>0.02529212980925203</v>
       </c>
       <c r="R21">
-        <v>-0.009492142078921422</v>
+        <v>0.02529212980925203</v>
       </c>
       <c r="S21">
-        <v>-0.009492142078921422</v>
+        <v>0.02529212980925203</v>
       </c>
       <c r="T21">
-        <v>-0.009492142078921422</v>
+        <v>0.02529212980925203</v>
       </c>
       <c r="U21">
-        <v>0.004364805727648057</v>
+        <v>-0.0008671883338623179</v>
       </c>
       <c r="V21">
-        <v>0.002640140606401406</v>
+        <v>0.003269152293268005</v>
       </c>
       <c r="W21">
-        <v>-0.002548001257480013</v>
+        <v>0.008107435251678676</v>
       </c>
       <c r="X21">
-        <v>-0.01233778337137783</v>
+        <v>0.006216997761203091</v>
       </c>
       <c r="Z21">
-        <v>-0.008157573249575731</v>
+        <v>0.00169913278436145</v>
       </c>
       <c r="AA21">
-        <v>0.01898231801782318</v>
+        <v>-0.02275540540242821</v>
       </c>
       <c r="AB21">
-        <v>0.01898231801782318</v>
+        <v>-0.02275540540242821</v>
       </c>
       <c r="AC21">
-        <v>0.01898231801782318</v>
+        <v>-0.02275540540242821</v>
       </c>
       <c r="AD21">
-        <v>0.01898231801782318</v>
+        <v>-0.02275540540242821</v>
       </c>
       <c r="AE21">
-        <v>0.01898231801782318</v>
+        <v>-0.02275540540242821</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2382,85 +2382,85 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.01538535394585354</v>
+        <v>-0.008233444323960068</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.0117859004966547</v>
       </c>
       <c r="E22">
-        <v>-0.01285769184857692</v>
+        <v>0.005130228197347316</v>
       </c>
       <c r="F22">
-        <v>0.006654242682542427</v>
+        <v>-0.005685374526333978</v>
       </c>
       <c r="G22">
-        <v>-0.001652903104529031</v>
+        <v>0.005338573161540206</v>
       </c>
       <c r="I22">
-        <v>0.009875488058754879</v>
+        <v>0.006857900521217197</v>
       </c>
       <c r="J22">
-        <v>-0.00781592426019679</v>
+        <v>-0.001684932667215403</v>
       </c>
       <c r="K22">
-        <v>-0.002984396273843963</v>
+        <v>-0.01569953679999276</v>
       </c>
       <c r="L22">
-        <v>-0.002984396273843963</v>
+        <v>-0.01569953679999276</v>
       </c>
       <c r="M22">
-        <v>-0.002984396273843963</v>
+        <v>-0.01569953679999276</v>
       </c>
       <c r="N22">
-        <v>-0.002984396273843963</v>
+        <v>-0.01569953679999276</v>
       </c>
       <c r="O22">
-        <v>-0.002984396273843963</v>
+        <v>-0.01569953679999276</v>
       </c>
       <c r="P22">
-        <v>0.006550541789505419</v>
+        <v>-0.005826310567598604</v>
       </c>
       <c r="Q22">
-        <v>-0.00382606097026061</v>
+        <v>-0.01406675890729311</v>
       </c>
       <c r="R22">
-        <v>-0.00382606097026061</v>
+        <v>-0.01406675890729311</v>
       </c>
       <c r="S22">
-        <v>-0.00382606097026061</v>
+        <v>-0.01406675890729311</v>
       </c>
       <c r="T22">
-        <v>-0.00382606097026061</v>
+        <v>-0.01406675890729311</v>
       </c>
       <c r="U22">
-        <v>0.001036160290361603</v>
+        <v>0.0002605435353209928</v>
       </c>
       <c r="V22">
-        <v>-0.01520679876806799</v>
+        <v>0.0003881524513773821</v>
       </c>
       <c r="W22">
-        <v>0.0005167798491677986</v>
+        <v>6.685589166962332E-05</v>
       </c>
       <c r="X22">
-        <v>0.01229548878295489</v>
+        <v>-0.002329388591084197</v>
       </c>
       <c r="Z22">
-        <v>0.005529921571299216</v>
+        <v>0.001905345568833525</v>
       </c>
       <c r="AA22">
-        <v>0.00125542795255428</v>
+        <v>-0.0003828239356691241</v>
       </c>
       <c r="AB22">
-        <v>0.00125542795255428</v>
+        <v>-0.0003828239356691241</v>
       </c>
       <c r="AC22">
-        <v>0.00125542795255428</v>
+        <v>-0.0003828239356691241</v>
       </c>
       <c r="AD22">
-        <v>0.00125542795255428</v>
+        <v>-0.0003828239356691241</v>
       </c>
       <c r="AE22">
-        <v>0.00125542795255428</v>
+        <v>-0.0003828239356691241</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2469,85 +2469,85 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.002678611166786112</v>
+        <v>-0.009506715101667425</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.02077025807453528</v>
       </c>
       <c r="E23">
-        <v>0.005723880873238809</v>
+        <v>0.000783216762237762</v>
       </c>
       <c r="F23">
-        <v>-0.008357544491575445</v>
+        <v>-0.002671261893300967</v>
       </c>
       <c r="G23">
-        <v>0.009091067370910673</v>
+        <v>0.003298471317163615</v>
       </c>
       <c r="I23">
-        <v>0.0002724733227247332</v>
+        <v>-0.01858159104814986</v>
       </c>
       <c r="J23">
-        <v>-0.007095583916381768</v>
+        <v>0.01612862077853243</v>
       </c>
       <c r="K23">
-        <v>-0.002499155220991552</v>
+        <v>-0.002271252246425817</v>
       </c>
       <c r="L23">
-        <v>-0.002499155220991552</v>
+        <v>-0.002271252246425817</v>
       </c>
       <c r="M23">
-        <v>-0.002499155220991552</v>
+        <v>-0.002271252246425817</v>
       </c>
       <c r="N23">
-        <v>-0.002499155220991552</v>
+        <v>-0.002271252246425817</v>
       </c>
       <c r="O23">
-        <v>-0.002499155220991552</v>
+        <v>-0.002271252246425817</v>
       </c>
       <c r="P23">
-        <v>-0.008257056538570565</v>
+        <v>-0.002632025478625399</v>
       </c>
       <c r="Q23">
-        <v>-0.005377167353771673</v>
+        <v>-0.003508159015752486</v>
       </c>
       <c r="R23">
-        <v>-0.005377167353771673</v>
+        <v>-0.003508159015752486</v>
       </c>
       <c r="S23">
-        <v>-0.005377167353771673</v>
+        <v>-0.003508159015752486</v>
       </c>
       <c r="T23">
-        <v>-0.005377167353771673</v>
+        <v>-0.003508159015752486</v>
       </c>
       <c r="U23">
-        <v>-0.01096654647766547</v>
+        <v>-0.00350352446099257</v>
       </c>
       <c r="V23">
-        <v>-0.002553338545533386</v>
+        <v>-0.005096922595264417</v>
       </c>
       <c r="W23">
-        <v>0.02362653344026533</v>
+        <v>0.002026490469163914</v>
       </c>
       <c r="X23">
-        <v>-0.003373159629731596</v>
+        <v>0.006467820757309699</v>
       </c>
       <c r="Z23">
-        <v>-0.01237039214770392</v>
+        <v>-0.007822667442541681</v>
       </c>
       <c r="AA23">
-        <v>0.007644882568448826</v>
+        <v>-0.003013292179895191</v>
       </c>
       <c r="AB23">
-        <v>0.007644882568448826</v>
+        <v>-0.003013292179895191</v>
       </c>
       <c r="AC23">
-        <v>0.007644882568448826</v>
+        <v>-0.003013292179895191</v>
       </c>
       <c r="AD23">
-        <v>0.007644882568448826</v>
+        <v>-0.003013292179895191</v>
       </c>
       <c r="AE23">
-        <v>0.007644882568448826</v>
+        <v>-0.003013292179895191</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2556,85 +2556,85 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>0.001912121383121214</v>
+        <v>-0.001206593315728021</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>0.001018814640918979</v>
       </c>
       <c r="E24">
-        <v>0.001966429255664292</v>
+        <v>0.002497760453090008</v>
       </c>
       <c r="F24">
-        <v>-0.003462141682621417</v>
+        <v>-0.005054273024285517</v>
       </c>
       <c r="G24">
-        <v>0.002875117900751179</v>
+        <v>0.008995634953056797</v>
       </c>
       <c r="I24">
-        <v>-0.01163357474033575</v>
+        <v>0.008043011352234553</v>
       </c>
       <c r="J24">
-        <v>0.00965409761034651</v>
+        <v>-0.006528761312991545</v>
       </c>
       <c r="K24">
-        <v>0.0006884231228842313</v>
+        <v>-0.01043088271767004</v>
       </c>
       <c r="L24">
-        <v>0.0006884231228842313</v>
+        <v>-0.01043088271767004</v>
       </c>
       <c r="M24">
-        <v>0.0006884231228842313</v>
+        <v>-0.01043088271767004</v>
       </c>
       <c r="N24">
-        <v>0.0006884231228842313</v>
+        <v>-0.01043088271767004</v>
       </c>
       <c r="O24">
-        <v>0.0006884231228842313</v>
+        <v>-0.01043088271767004</v>
       </c>
       <c r="P24">
-        <v>-0.00314792797947928</v>
+        <v>-0.005237498613085916</v>
       </c>
       <c r="Q24">
-        <v>-0.0009812212058122121</v>
+        <v>-0.01477351619177369</v>
       </c>
       <c r="R24">
-        <v>-0.0009812212058122121</v>
+        <v>-0.01477351619177369</v>
       </c>
       <c r="S24">
-        <v>-0.0009812212058122121</v>
+        <v>-0.01477351619177369</v>
       </c>
       <c r="T24">
-        <v>-0.0009812212058122121</v>
+        <v>-0.01477351619177369</v>
       </c>
       <c r="U24">
-        <v>0.0132967597329676</v>
+        <v>-0.01247518922617483</v>
       </c>
       <c r="V24">
-        <v>-0.001961084383610844</v>
+        <v>-0.00961156341580568</v>
       </c>
       <c r="W24">
-        <v>-0.02431269295512693</v>
+        <v>-0.01414001122093768</v>
       </c>
       <c r="X24">
-        <v>0.003399981849999819</v>
+        <v>0.0001408892600138947</v>
       </c>
       <c r="Z24">
-        <v>-0.005836884382368845</v>
+        <v>-0.001329232028581751</v>
       </c>
       <c r="AA24">
-        <v>-0.002774793171747932</v>
+        <v>0.009189524042023814</v>
       </c>
       <c r="AB24">
-        <v>-0.002774793171747932</v>
+        <v>0.009189524042023814</v>
       </c>
       <c r="AC24">
-        <v>-0.002774793171747932</v>
+        <v>0.009189524042023814</v>
       </c>
       <c r="AD24">
-        <v>-0.002774793171747932</v>
+        <v>0.009189524042023814</v>
       </c>
       <c r="AE24">
-        <v>-0.002774793171747932</v>
+        <v>0.009189524042023814</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2645,85 +2645,85 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>-0.009354070953540709</v>
+        <v>-0.02255690402432663</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.01706367614943245</v>
       </c>
       <c r="E25">
-        <v>-0.01351072763110728</v>
+        <v>-0.0035844415638194</v>
       </c>
       <c r="F25">
-        <v>0.01168406774084068</v>
+        <v>0.004193639198338113</v>
       </c>
       <c r="G25">
-        <v>-0.01023241264232413</v>
+        <v>-0.004536208266190755</v>
       </c>
       <c r="I25">
-        <v>-0.005711243601112436</v>
+        <v>-0.006270654285478974</v>
       </c>
       <c r="J25">
-        <v>0.00369344771457993</v>
+        <v>-0.007190085545244442</v>
       </c>
       <c r="K25">
-        <v>-0.0007150598111505982</v>
+        <v>0.008147642142931909</v>
       </c>
       <c r="L25">
-        <v>-0.0007150598111505982</v>
+        <v>0.008147642142931909</v>
       </c>
       <c r="M25">
-        <v>-0.0007150598111505982</v>
+        <v>0.008147642142931909</v>
       </c>
       <c r="N25">
-        <v>-0.0007150598111505982</v>
+        <v>0.008147642142931909</v>
       </c>
       <c r="O25">
-        <v>-0.0007150598111505982</v>
+        <v>0.008147642142931909</v>
       </c>
       <c r="P25">
-        <v>0.01170771483307715</v>
+        <v>0.004271412793303325</v>
       </c>
       <c r="Q25">
-        <v>0.001549822443498224</v>
+        <v>0.009349151817955498</v>
       </c>
       <c r="R25">
-        <v>0.001549822443498224</v>
+        <v>0.009349151817955498</v>
       </c>
       <c r="S25">
-        <v>0.001549822443498224</v>
+        <v>0.009349151817955498</v>
       </c>
       <c r="T25">
-        <v>0.001549822443498224</v>
+        <v>0.009349151817955498</v>
       </c>
       <c r="U25">
-        <v>-0.001479970682799707</v>
+        <v>0.00276363001974422</v>
       </c>
       <c r="V25">
-        <v>-0.003653570772535708</v>
+        <v>0.003787226004487907</v>
       </c>
       <c r="W25">
-        <v>-0.007989545431895454</v>
+        <v>0.005185130706017668</v>
       </c>
       <c r="X25">
-        <v>0.005506063723060638</v>
+        <v>0.0004962916718170574</v>
       </c>
       <c r="Z25">
-        <v>0.006880920296809204</v>
+        <v>-0.0008737750683402355</v>
       </c>
       <c r="AA25">
-        <v>-0.000700713895007139</v>
+        <v>-0.009791360824865014</v>
       </c>
       <c r="AB25">
-        <v>-0.000700713895007139</v>
+        <v>-0.009791360824865014</v>
       </c>
       <c r="AC25">
-        <v>-0.000700713895007139</v>
+        <v>-0.009791360824865014</v>
       </c>
       <c r="AD25">
-        <v>-0.000700713895007139</v>
+        <v>-0.009791360824865014</v>
       </c>
       <c r="AE25">
-        <v>-0.000700713895007139</v>
+        <v>-0.009791360824865014</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2732,85 +2732,85 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.001553858943538589</v>
+        <v>-0.006608919572014369</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.007981843437216304</v>
       </c>
       <c r="E26">
-        <v>-0.004280922642809225</v>
+        <v>-0.001746729285105145</v>
       </c>
       <c r="F26">
-        <v>-0.001728425237284253</v>
+        <v>0.001638020814656575</v>
       </c>
       <c r="G26">
-        <v>0.00495944893359449</v>
+        <v>-0.002730734855167733</v>
       </c>
       <c r="I26">
-        <v>-0.01237438709174387</v>
+        <v>0.009640502775632857</v>
       </c>
       <c r="J26">
-        <v>0.01226762243121354</v>
+        <v>-0.01891834631205546</v>
       </c>
       <c r="K26">
-        <v>-0.01270014846700148</v>
+        <v>-0.0092097150501518</v>
       </c>
       <c r="L26">
-        <v>-0.01270014846700148</v>
+        <v>-0.0092097150501518</v>
       </c>
       <c r="M26">
-        <v>-0.01270014846700148</v>
+        <v>-0.0092097150501518</v>
       </c>
       <c r="N26">
-        <v>-0.01270014846700148</v>
+        <v>-0.0092097150501518</v>
       </c>
       <c r="O26">
-        <v>-0.01270014846700148</v>
+        <v>-0.0092097150501518</v>
       </c>
       <c r="P26">
-        <v>-0.001538844519388445</v>
+        <v>0.001046918149170596</v>
       </c>
       <c r="Q26">
-        <v>-0.01355587578355876</v>
+        <v>-0.008000956742202451</v>
       </c>
       <c r="R26">
-        <v>-0.01355587578355876</v>
+        <v>-0.008000956742202451</v>
       </c>
       <c r="S26">
-        <v>-0.01355587578355876</v>
+        <v>-0.008000956742202451</v>
       </c>
       <c r="T26">
-        <v>-0.01355587578355876</v>
+        <v>-0.008000956742202451</v>
       </c>
       <c r="U26">
-        <v>-0.01127403716874037</v>
+        <v>0.01160526130633221</v>
       </c>
       <c r="V26">
-        <v>-0.0173375601053756</v>
+        <v>0.001981981952843468</v>
       </c>
       <c r="W26">
-        <v>0.001942118767421188</v>
+        <v>-0.00330633019228641</v>
       </c>
       <c r="X26">
-        <v>0.006742331347423313</v>
+        <v>-0.001268020262000317</v>
       </c>
       <c r="Z26">
-        <v>0.003838124738381247</v>
+        <v>0.005962140608783448</v>
       </c>
       <c r="AA26">
-        <v>0.01280149781601498</v>
+        <v>0.004790802613918792</v>
       </c>
       <c r="AB26">
-        <v>0.01280149781601498</v>
+        <v>0.004790802613918792</v>
       </c>
       <c r="AC26">
-        <v>0.01280149781601498</v>
+        <v>0.004790802613918792</v>
       </c>
       <c r="AD26">
-        <v>0.01280149781601498</v>
+        <v>0.004790802613918792</v>
       </c>
       <c r="AE26">
-        <v>0.01280149781601498</v>
+        <v>0.004790802613918792</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -2821,85 +2821,85 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.001025007490250075</v>
+        <v>0.01759634748588043</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.02903286291457599</v>
       </c>
       <c r="E27">
-        <v>0.007709248205092483</v>
+        <v>0.007905557959461844</v>
       </c>
       <c r="F27">
-        <v>-0.003774548077745481</v>
+        <v>-0.009991208617050136</v>
       </c>
       <c r="G27">
-        <v>0.0008460266604602666</v>
+        <v>0.009443599577243746</v>
       </c>
       <c r="I27">
-        <v>-0.001396427809964278</v>
+        <v>0.007396593115571768</v>
       </c>
       <c r="J27">
-        <v>0.006662103943271829</v>
+        <v>-0.004634485360251778</v>
       </c>
       <c r="K27">
-        <v>0.0006846256508462565</v>
+        <v>-0.002804821239137832</v>
       </c>
       <c r="L27">
-        <v>0.0006846256508462565</v>
+        <v>-0.002804821239137832</v>
       </c>
       <c r="M27">
-        <v>0.0006846256508462565</v>
+        <v>-0.002804821239137832</v>
       </c>
       <c r="N27">
-        <v>0.0006846256508462565</v>
+        <v>-0.002804821239137832</v>
       </c>
       <c r="O27">
-        <v>0.0006846256508462565</v>
+        <v>-0.002804821239137832</v>
       </c>
       <c r="P27">
-        <v>-0.00372095193720952</v>
+        <v>-0.009949223335144116</v>
       </c>
       <c r="Q27">
-        <v>0.002628219134282191</v>
+        <v>-0.004501437468772461</v>
       </c>
       <c r="R27">
-        <v>0.002628219134282191</v>
+        <v>-0.004501437468772461</v>
       </c>
       <c r="S27">
-        <v>0.002628219134282191</v>
+        <v>-0.004501437468772461</v>
       </c>
       <c r="T27">
-        <v>0.002628219134282191</v>
+        <v>-0.004501437468772461</v>
       </c>
       <c r="U27">
-        <v>-0.008003744024037441</v>
+        <v>0.01053132053955188</v>
       </c>
       <c r="V27">
-        <v>0.007647292552472926</v>
+        <v>-0.004276338394942788</v>
       </c>
       <c r="W27">
-        <v>-0.004630984414309845</v>
+        <v>0.008737531284961427</v>
       </c>
       <c r="X27">
-        <v>-0.00729474600094746</v>
+        <v>-0.00582136504408383</v>
       </c>
       <c r="Z27">
-        <v>-0.003100032319000323</v>
+        <v>-0.001755814691497105</v>
       </c>
       <c r="AA27">
-        <v>-0.003191927587919276</v>
+        <v>0.005050150016408595</v>
       </c>
       <c r="AB27">
-        <v>-0.003191927587919276</v>
+        <v>0.005050150016408595</v>
       </c>
       <c r="AC27">
-        <v>-0.003191927587919276</v>
+        <v>0.005050150016408595</v>
       </c>
       <c r="AD27">
-        <v>-0.003191927587919276</v>
+        <v>0.005050150016408595</v>
       </c>
       <c r="AE27">
-        <v>-0.003191927587919276</v>
+        <v>0.005050150016408595</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -2908,85 +2908,85 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>0.005560139551601396</v>
+        <v>0.003770112832345514</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.009685264065394753</v>
       </c>
       <c r="E28">
-        <v>2.675030426750304E-05</v>
+        <v>-0.003056534789945857</v>
       </c>
       <c r="F28">
-        <v>0.002552999665529996</v>
+        <v>-0.001724754401949288</v>
       </c>
       <c r="G28">
-        <v>-0.004246247802462478</v>
+        <v>0.007696803682762559</v>
       </c>
       <c r="I28">
-        <v>0.002932327901323279</v>
+        <v>0.005251270863301108</v>
       </c>
       <c r="J28">
-        <v>-0.005651548448696698</v>
+        <v>0.008397870534748709</v>
       </c>
       <c r="K28">
-        <v>0.002901795293017953</v>
+        <v>0.002445838608528728</v>
       </c>
       <c r="L28">
-        <v>0.002901795293017953</v>
+        <v>0.002445838608528728</v>
       </c>
       <c r="M28">
-        <v>0.002901795293017953</v>
+        <v>0.002445838608528728</v>
       </c>
       <c r="N28">
-        <v>0.002901795293017953</v>
+        <v>0.002445838608528728</v>
       </c>
       <c r="O28">
-        <v>0.002901795293017953</v>
+        <v>0.002445838608528728</v>
       </c>
       <c r="P28">
-        <v>0.002331545411315454</v>
+        <v>-0.001558172860283951</v>
       </c>
       <c r="Q28">
-        <v>0.003673458552734586</v>
+        <v>-0.003511983242374739</v>
       </c>
       <c r="R28">
-        <v>0.003673458552734586</v>
+        <v>-0.003511983242374739</v>
       </c>
       <c r="S28">
-        <v>0.003673458552734586</v>
+        <v>-0.003511983242374739</v>
       </c>
       <c r="T28">
-        <v>0.003673458552734586</v>
+        <v>-0.003511983242374739</v>
       </c>
       <c r="U28">
-        <v>-0.004378569763785698</v>
+        <v>0.009925283170707551</v>
       </c>
       <c r="V28">
-        <v>0.003928961367289614</v>
+        <v>-0.01337056921672765</v>
       </c>
       <c r="W28">
-        <v>4.964595649645957E-05</v>
+        <v>-0.02442541074102204</v>
       </c>
       <c r="X28">
-        <v>-0.01492505628525056</v>
+        <v>0.01227634169963034</v>
       </c>
       <c r="Z28">
-        <v>-0.006434192392341924</v>
+        <v>-0.001939125264673832</v>
       </c>
       <c r="AA28">
-        <v>-0.002541205345412053</v>
+        <v>-0.003883872716935512</v>
       </c>
       <c r="AB28">
-        <v>-0.002541205345412053</v>
+        <v>-0.003883872716935512</v>
       </c>
       <c r="AC28">
-        <v>-0.002541205345412053</v>
+        <v>-0.003883872716935512</v>
       </c>
       <c r="AD28">
-        <v>-0.002541205345412053</v>
+        <v>-0.003883872716935512</v>
       </c>
       <c r="AE28">
-        <v>-0.002541205345412053</v>
+        <v>-0.003883872716935512</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -2997,85 +2997,85 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>-0.0330199599061996</v>
+        <v>-0.03670026565937916</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.01144191936627999</v>
       </c>
       <c r="E29">
-        <v>-0.0414300696543007</v>
+        <v>-0.03948081556220025</v>
       </c>
       <c r="F29">
-        <v>0.006060023700600237</v>
+        <v>0.009108060400125944</v>
       </c>
       <c r="G29">
-        <v>0.02062999464229994</v>
+        <v>0.01568120829970638</v>
       </c>
       <c r="I29">
-        <v>0.005999657663996576</v>
+        <v>0.01626038029313094</v>
       </c>
       <c r="J29">
-        <v>-0.005802956267180089</v>
+        <v>0.007592131701890908</v>
       </c>
       <c r="K29">
-        <v>0.0234162602341626</v>
+        <v>0.02748138797627169</v>
       </c>
       <c r="L29">
-        <v>0.0234162602341626</v>
+        <v>0.02748138797627169</v>
       </c>
       <c r="M29">
-        <v>0.0234162602341626</v>
+        <v>0.02748138797627169</v>
       </c>
       <c r="N29">
-        <v>0.0234162602341626</v>
+        <v>0.02748138797627169</v>
       </c>
       <c r="O29">
-        <v>0.0234162602341626</v>
+        <v>0.02748138797627169</v>
       </c>
       <c r="P29">
-        <v>0.007761495521614955</v>
+        <v>0.01073867013654172</v>
       </c>
       <c r="Q29">
-        <v>0.00207686098476861</v>
+        <v>0.007488943523264745</v>
       </c>
       <c r="R29">
-        <v>0.00207686098476861</v>
+        <v>0.007488943523264745</v>
       </c>
       <c r="S29">
-        <v>0.00207686098476861</v>
+        <v>0.007488943523264745</v>
       </c>
       <c r="T29">
-        <v>0.00207686098476861</v>
+        <v>0.007488943523264745</v>
       </c>
       <c r="U29">
-        <v>-0.04541274710212748</v>
+        <v>-0.0356544954321015</v>
       </c>
       <c r="V29">
-        <v>-0.1224586658405867</v>
+        <v>-0.1141230633066104</v>
       </c>
       <c r="W29">
-        <v>0.9914667796346679</v>
+        <v>0.9915458001100907</v>
       </c>
       <c r="X29">
-        <v>0.03286075028860751</v>
+        <v>0.03094870107732346</v>
       </c>
       <c r="Z29">
-        <v>0.01478455260384553</v>
+        <v>0.01909343535302243</v>
       </c>
       <c r="AA29">
-        <v>0.03337886934978869</v>
+        <v>0.03025267676176058</v>
       </c>
       <c r="AB29">
-        <v>0.03337886934978869</v>
+        <v>0.03025267676176058</v>
       </c>
       <c r="AC29">
-        <v>0.03337886934978869</v>
+        <v>0.03025267676176058</v>
       </c>
       <c r="AD29">
-        <v>0.03337886934978869</v>
+        <v>0.03025267676176058</v>
       </c>
       <c r="AE29">
-        <v>0.03337886934978869</v>
+        <v>0.03025267676176058</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3086,85 +3086,85 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>0.003554532683545327</v>
+        <v>0.02743915704592433</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.00527271484019867</v>
       </c>
       <c r="E30">
-        <v>0.01915552247955522</v>
+        <v>0.01827974815280857</v>
       </c>
       <c r="F30">
-        <v>-0.01777573331775734</v>
+        <v>-0.0185984252202879</v>
       </c>
       <c r="G30">
-        <v>0.01611320927313209</v>
+        <v>0.01738458048257157</v>
       </c>
       <c r="I30">
-        <v>0.006928606593286066</v>
+        <v>0.005566341251036583</v>
       </c>
       <c r="J30">
-        <v>0.01355291591429493</v>
+        <v>-0.004053370324949089</v>
       </c>
       <c r="K30">
-        <v>-0.004585628145856282</v>
+        <v>-0.009016799625262495</v>
       </c>
       <c r="L30">
-        <v>-0.004585628145856282</v>
+        <v>-0.009016799625262495</v>
       </c>
       <c r="M30">
-        <v>-0.004585628145856282</v>
+        <v>-0.009016799625262495</v>
       </c>
       <c r="N30">
-        <v>-0.004585628145856282</v>
+        <v>-0.009016799625262495</v>
       </c>
       <c r="O30">
-        <v>-0.004585628145856282</v>
+        <v>-0.009016799625262495</v>
       </c>
       <c r="P30">
-        <v>-0.01813852542138525</v>
+        <v>-0.01842112463158007</v>
       </c>
       <c r="Q30">
-        <v>-0.007561083723610838</v>
+        <v>-0.01390122804533169</v>
       </c>
       <c r="R30">
-        <v>-0.007561083723610838</v>
+        <v>-0.01390122804533169</v>
       </c>
       <c r="S30">
-        <v>-0.007561083723610838</v>
+        <v>-0.01390122804533169</v>
       </c>
       <c r="T30">
-        <v>-0.007561083723610838</v>
+        <v>-0.01390122804533169</v>
       </c>
       <c r="U30">
-        <v>-0.001982100667821006</v>
+        <v>-0.006744452331944569</v>
       </c>
       <c r="V30">
-        <v>0.01149808493498085</v>
+        <v>-0.003955200530550009</v>
       </c>
       <c r="W30">
-        <v>0.004717465739174658</v>
+        <v>-0.003087837235747458</v>
       </c>
       <c r="X30">
-        <v>-0.02163071380830714</v>
+        <v>-0.01308422783725356</v>
       </c>
       <c r="Z30">
-        <v>-0.02029695815896958</v>
+        <v>-0.015667391822928</v>
       </c>
       <c r="AA30">
-        <v>0.01550893721908937</v>
+        <v>0.01710456575163384</v>
       </c>
       <c r="AB30">
-        <v>0.01550893721908937</v>
+        <v>0.01710456575163384</v>
       </c>
       <c r="AC30">
-        <v>0.01550893721908937</v>
+        <v>0.01710456575163384</v>
       </c>
       <c r="AD30">
-        <v>0.01550893721908937</v>
+        <v>0.01710456575163384</v>
       </c>
       <c r="AE30">
-        <v>0.01550893721908937</v>
+        <v>0.01710456575163384</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3175,85 +3175,85 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>0.00171604499316045</v>
+        <v>-0.0108901052873454</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>0.001742901050670329</v>
       </c>
       <c r="E31">
-        <v>-0.000263966798639668</v>
+        <v>0.001316823629950369</v>
       </c>
       <c r="F31">
-        <v>0.01424115677841157</v>
+        <v>0.00235569598993275</v>
       </c>
       <c r="G31">
-        <v>-0.01944730542247306</v>
+        <v>-0.002115492033054563</v>
       </c>
       <c r="I31">
-        <v>-0.01204567066845671</v>
+        <v>0.006983031905984875</v>
       </c>
       <c r="J31">
-        <v>0.001086914957827579</v>
+        <v>0.01386327361118489</v>
       </c>
       <c r="K31">
-        <v>0.006695016354950164</v>
+        <v>0.02120310930786109</v>
       </c>
       <c r="L31">
-        <v>0.006695016354950164</v>
+        <v>0.02120310930786109</v>
       </c>
       <c r="M31">
-        <v>0.006695016354950164</v>
+        <v>0.02120310930786109</v>
       </c>
       <c r="N31">
-        <v>0.006695016354950164</v>
+        <v>0.02120310930786109</v>
       </c>
       <c r="O31">
-        <v>0.006695016354950164</v>
+        <v>0.02120310930786109</v>
       </c>
       <c r="P31">
-        <v>0.01308640283886403</v>
+        <v>0.001561490485335789</v>
       </c>
       <c r="Q31">
-        <v>0.01570936626109366</v>
+        <v>0.02223142117549096</v>
       </c>
       <c r="R31">
-        <v>0.01570936626109366</v>
+        <v>0.02223142117549096</v>
       </c>
       <c r="S31">
-        <v>0.01570936626109366</v>
+        <v>0.02223142117549096</v>
       </c>
       <c r="T31">
-        <v>0.01570936626109366</v>
+        <v>0.02223142117549096</v>
       </c>
       <c r="U31">
-        <v>0.01688881760488817</v>
+        <v>0.01147323849958185</v>
       </c>
       <c r="V31">
-        <v>0.03209343990893439</v>
+        <v>0.01447887238248238</v>
       </c>
       <c r="W31">
-        <v>0.1337964057539641</v>
+        <v>0.1260529032195766</v>
       </c>
       <c r="X31">
-        <v>-0.004903764409037645</v>
+        <v>0.01326881542607524</v>
       </c>
       <c r="Z31">
-        <v>0.001236039936360399</v>
+        <v>0.01396352309318005</v>
       </c>
       <c r="AA31">
-        <v>0.006552995105529951</v>
+        <v>0.02133716578651822</v>
       </c>
       <c r="AB31">
-        <v>0.006552995105529951</v>
+        <v>0.02133716578651822</v>
       </c>
       <c r="AC31">
-        <v>0.006552995105529951</v>
+        <v>0.02133716578651822</v>
       </c>
       <c r="AD31">
-        <v>0.006552995105529951</v>
+        <v>0.02133716578651822</v>
       </c>
       <c r="AE31">
-        <v>0.006552995105529951</v>
+        <v>0.02133716578651822</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3264,85 +3264,85 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>-0.005762838645628386</v>
+        <v>-0.01175955733218059</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>0.0008118716611229948</v>
       </c>
       <c r="E32">
-        <v>-0.005735441421354415</v>
+        <v>-0.00520132416720819</v>
       </c>
       <c r="F32">
-        <v>-0.001494080114940801</v>
+        <v>0.01051445845335091</v>
       </c>
       <c r="G32">
-        <v>0.006092510364925104</v>
+        <v>-0.01324511551945493</v>
       </c>
       <c r="I32">
-        <v>0.00185913703859137</v>
+        <v>-0.0009468225851066031</v>
       </c>
       <c r="J32">
-        <v>-0.003969044153100262</v>
+        <v>-0.002557668274878641</v>
       </c>
       <c r="K32">
-        <v>-0.006300268239002682</v>
+        <v>0.009150135166408365</v>
       </c>
       <c r="L32">
-        <v>-0.006300268239002682</v>
+        <v>0.009150135166408365</v>
       </c>
       <c r="M32">
-        <v>-0.006300268239002682</v>
+        <v>0.009150135166408365</v>
       </c>
       <c r="N32">
-        <v>-0.006300268239002682</v>
+        <v>0.009150135166408365</v>
       </c>
       <c r="O32">
-        <v>-0.006300268239002682</v>
+        <v>0.009150135166408365</v>
       </c>
       <c r="P32">
-        <v>-0.00119250605992506</v>
+        <v>0.01035005106796955</v>
       </c>
       <c r="Q32">
-        <v>-0.009158759107587591</v>
+        <v>0.01327901706685965</v>
       </c>
       <c r="R32">
-        <v>-0.009158759107587591</v>
+        <v>0.01327901706685965</v>
       </c>
       <c r="S32">
-        <v>-0.009158759107587591</v>
+        <v>0.01327901706685965</v>
       </c>
       <c r="T32">
-        <v>-0.009158759107587591</v>
+        <v>0.01327901706685965</v>
       </c>
       <c r="U32">
-        <v>-0.007680019156800191</v>
+        <v>-0.005766877707294965</v>
       </c>
       <c r="V32">
-        <v>-0.02315669961956699</v>
+        <v>0.01047280279645004</v>
       </c>
       <c r="W32">
-        <v>0.01060841575008416</v>
+        <v>-0.001030007383281366</v>
       </c>
       <c r="X32">
-        <v>0.01579986388999864</v>
+        <v>-0.004300096145314003</v>
       </c>
       <c r="Z32">
-        <v>0.009900781815007819</v>
+        <v>0.007647037853859967</v>
       </c>
       <c r="AA32">
-        <v>0.001564831671648317</v>
+        <v>-0.01043659806932185</v>
       </c>
       <c r="AB32">
-        <v>0.001564831671648317</v>
+        <v>-0.01043659806932185</v>
       </c>
       <c r="AC32">
-        <v>0.001564831671648317</v>
+        <v>-0.01043659806932185</v>
       </c>
       <c r="AD32">
-        <v>0.001564831671648317</v>
+        <v>-0.01043659806932185</v>
       </c>
       <c r="AE32">
-        <v>0.001564831671648317</v>
+        <v>-0.01043659806932185</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3353,85 +3353,85 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.3343118380271184</v>
+        <v>0.320823576770681</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>-0.005672794541762415</v>
       </c>
       <c r="E33">
-        <v>0.9318570488105704</v>
+        <v>0.9309648156010129</v>
       </c>
       <c r="F33">
-        <v>-0.9999567120275671</v>
+        <v>-0.9999568160540129</v>
       </c>
       <c r="G33">
-        <v>0.963943695195437</v>
+        <v>0.9642394319490537</v>
       </c>
       <c r="I33">
-        <v>0.2937654599256546</v>
+        <v>0.2953758536933727</v>
       </c>
       <c r="J33">
-        <v>0.1367331608506973</v>
+        <v>0.1447670789792872</v>
       </c>
       <c r="K33">
-        <v>-0.4202100209541001</v>
+        <v>-0.4040146620080417</v>
       </c>
       <c r="L33">
-        <v>-0.4202100209541001</v>
+        <v>-0.4040146620080417</v>
       </c>
       <c r="M33">
-        <v>-0.4202100209541001</v>
+        <v>-0.4040146620080417</v>
       </c>
       <c r="N33">
-        <v>-0.4202100209541001</v>
+        <v>-0.4040146620080417</v>
       </c>
       <c r="O33">
-        <v>-0.4202100209541001</v>
+        <v>-0.4040146620080417</v>
       </c>
       <c r="P33">
-        <v>-0.9992793404127934</v>
+        <v>-0.9992688278010756</v>
       </c>
       <c r="Q33">
-        <v>-0.6124279485642795</v>
+        <v>-0.6055130165080159</v>
       </c>
       <c r="R33">
-        <v>-0.6124279485642795</v>
+        <v>-0.6055130165080159</v>
       </c>
       <c r="S33">
-        <v>-0.6124279485642795</v>
+        <v>-0.6055130165080159</v>
       </c>
       <c r="T33">
-        <v>-0.6124279485642795</v>
+        <v>-0.6055130165080159</v>
       </c>
       <c r="U33">
-        <v>-0.2843292739552927</v>
+        <v>-0.2750749084542955</v>
       </c>
       <c r="V33">
-        <v>0.01626134879461348</v>
+        <v>-0.01870150918283608</v>
       </c>
       <c r="W33">
-        <v>-0.0002734698507346985</v>
+        <v>-0.001164721518198774</v>
       </c>
       <c r="X33">
-        <v>-0.6003992174319922</v>
+        <v>-0.5929702617729729</v>
       </c>
       <c r="Z33">
-        <v>-0.7283970338639704</v>
+        <v>-0.7283839187716238</v>
       </c>
       <c r="AA33">
-        <v>0.7595868430558684</v>
+        <v>0.7573930682327044</v>
       </c>
       <c r="AB33">
-        <v>0.7595868430558684</v>
+        <v>0.7573930682327044</v>
       </c>
       <c r="AC33">
-        <v>0.7595868430558684</v>
+        <v>0.7573930682327044</v>
       </c>
       <c r="AD33">
-        <v>0.7595868430558684</v>
+        <v>0.7573930682327044</v>
       </c>
       <c r="AE33">
-        <v>0.7595868430558684</v>
+        <v>0.7573930682327044</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3442,85 +3442,85 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.008457872712578727</v>
+        <v>0.01013858476779039</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.00213115580673681</v>
       </c>
       <c r="E34">
-        <v>0.007908502303085024</v>
+        <v>-0.005459415366553365</v>
       </c>
       <c r="F34">
-        <v>-0.008230589398305895</v>
+        <v>0.01171290292520161</v>
       </c>
       <c r="G34">
-        <v>0.007245476688454767</v>
+        <v>-0.01457044189953816</v>
       </c>
       <c r="I34">
-        <v>0.003543892307438923</v>
+        <v>-0.007018648375291382</v>
       </c>
       <c r="J34">
-        <v>-0.01149953467461537</v>
+        <v>-0.01006397185001711</v>
       </c>
       <c r="K34">
-        <v>-0.00294376698543767</v>
+        <v>0.01084888992732641</v>
       </c>
       <c r="L34">
-        <v>-0.00294376698543767</v>
+        <v>0.01084888992732641</v>
       </c>
       <c r="M34">
-        <v>-0.00294376698543767</v>
+        <v>0.01084888992732641</v>
       </c>
       <c r="N34">
-        <v>-0.00294376698543767</v>
+        <v>0.01084888992732641</v>
       </c>
       <c r="O34">
-        <v>-0.00294376698543767</v>
+        <v>0.01084888992732641</v>
       </c>
       <c r="P34">
-        <v>-0.008039499464394995</v>
+        <v>0.01137565327930708</v>
       </c>
       <c r="Q34">
-        <v>-0.004360735375607354</v>
+        <v>0.0145608319384505</v>
       </c>
       <c r="R34">
-        <v>-0.004360735375607354</v>
+        <v>0.0145608319384505</v>
       </c>
       <c r="S34">
-        <v>-0.004360735375607354</v>
+        <v>0.0145608319384505</v>
       </c>
       <c r="T34">
-        <v>-0.004360735375607354</v>
+        <v>0.0145608319384505</v>
       </c>
       <c r="U34">
-        <v>0.006207038270070383</v>
+        <v>0.002850448005475751</v>
       </c>
       <c r="V34">
-        <v>-0.005554894327548943</v>
+        <v>0.01583534884117733</v>
       </c>
       <c r="W34">
-        <v>0.00959957194799572</v>
+        <v>0.002108184665752885</v>
       </c>
       <c r="X34">
-        <v>0.001294901244949012</v>
+        <v>2.070834407356788E-05</v>
       </c>
       <c r="Z34">
-        <v>-0.005161644867616448</v>
+        <v>0.002892798420199976</v>
       </c>
       <c r="AA34">
-        <v>0.002002535612025356</v>
+        <v>-0.01042481498320024</v>
       </c>
       <c r="AB34">
-        <v>0.002002535612025356</v>
+        <v>-0.01042481498320024</v>
       </c>
       <c r="AC34">
-        <v>0.002002535612025356</v>
+        <v>-0.01042481498320024</v>
       </c>
       <c r="AD34">
-        <v>0.002002535612025356</v>
+        <v>-0.01042481498320024</v>
       </c>
       <c r="AE34">
-        <v>0.002002535612025356</v>
+        <v>-0.01042481498320024</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3531,85 +3531,85 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>-0.003591777107917771</v>
+        <v>-0.007140145541252275</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02401827414872304</v>
       </c>
       <c r="E35">
-        <v>0.002831896180318962</v>
+        <v>0.00720353078443017</v>
       </c>
       <c r="F35">
-        <v>-0.005876096794760968</v>
+        <v>-0.004747295581988994</v>
       </c>
       <c r="G35">
-        <v>0.006397901895979019</v>
+        <v>0.00125177659768401</v>
       </c>
       <c r="I35">
-        <v>0.008995806641958067</v>
+        <v>-0.009628424166069129</v>
       </c>
       <c r="J35">
-        <v>0.01099857512439863</v>
+        <v>0.021875988364632</v>
       </c>
       <c r="K35">
-        <v>0.02263870270638703</v>
+        <v>0.03729199727018746</v>
       </c>
       <c r="L35">
-        <v>0.02263870270638703</v>
+        <v>0.03729199727018746</v>
       </c>
       <c r="M35">
-        <v>0.02263870270638703</v>
+        <v>0.03729199727018746</v>
       </c>
       <c r="N35">
-        <v>0.02263870270638703</v>
+        <v>0.03729199727018746</v>
       </c>
       <c r="O35">
-        <v>0.02263870270638703</v>
+        <v>0.03729199727018746</v>
       </c>
       <c r="P35">
-        <v>-0.004620529330205293</v>
+        <v>-0.003573651266775802</v>
       </c>
       <c r="Q35">
-        <v>0.01542733321027333</v>
+        <v>0.03492617531915899</v>
       </c>
       <c r="R35">
-        <v>0.01542733321027333</v>
+        <v>0.03492617531915899</v>
       </c>
       <c r="S35">
-        <v>0.01542733321027333</v>
+        <v>0.03492617531915899</v>
       </c>
       <c r="T35">
-        <v>0.01542733321027333</v>
+        <v>0.03492617531915899</v>
       </c>
       <c r="U35">
-        <v>-0.01248317594883176</v>
+        <v>-0.003036424547444134</v>
       </c>
       <c r="V35">
-        <v>-0.01060020747400208</v>
+        <v>0.01102458999257172</v>
       </c>
       <c r="W35">
-        <v>-0.01203178497631785</v>
+        <v>0.007175648174619504</v>
       </c>
       <c r="X35">
-        <v>0.0001173429491734295</v>
+        <v>-0.01000646992197609</v>
       </c>
       <c r="Z35">
-        <v>0.006344391651443917</v>
+        <v>-0.009093263767082247</v>
       </c>
       <c r="AA35">
-        <v>0.09172414924124149</v>
+        <v>0.09738507049039175</v>
       </c>
       <c r="AB35">
-        <v>0.09172414924124149</v>
+        <v>0.09738507049039175</v>
       </c>
       <c r="AC35">
-        <v>0.09172414924124149</v>
+        <v>0.09738507049039175</v>
       </c>
       <c r="AD35">
-        <v>0.09172414924124149</v>
+        <v>0.09738507049039175</v>
       </c>
       <c r="AE35">
-        <v>0.09172414924124149</v>
+        <v>0.09738507049039175</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3620,85 +3620,85 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>0.003730678933306789</v>
+        <v>-0.001830141848908466</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.01595291422582679</v>
       </c>
       <c r="E36">
-        <v>0.00494204203342042</v>
+        <v>0.01248919130451862</v>
       </c>
       <c r="F36">
-        <v>0.0009719832697198328</v>
+        <v>-0.01353033984422406</v>
       </c>
       <c r="G36">
-        <v>-0.005175456519754566</v>
+        <v>0.01298946943733546</v>
       </c>
       <c r="I36">
-        <v>-0.001764421361644213</v>
+        <v>0.00170564798758825</v>
       </c>
       <c r="J36">
-        <v>0.02298731737703798</v>
+        <v>-0.004242393801464815</v>
       </c>
       <c r="K36">
-        <v>0.8655657645996577</v>
+        <v>0.867375931037124</v>
       </c>
       <c r="L36">
-        <v>0.8655657645996577</v>
+        <v>0.867375931037124</v>
       </c>
       <c r="M36">
-        <v>0.8655657645996577</v>
+        <v>0.867375931037124</v>
       </c>
       <c r="N36">
-        <v>0.8655657645996577</v>
+        <v>0.867375931037124</v>
       </c>
       <c r="O36">
-        <v>0.8655657645996577</v>
+        <v>0.867375931037124</v>
       </c>
       <c r="P36">
-        <v>0.02174476372944764</v>
+        <v>0.007745187472581056</v>
       </c>
       <c r="Q36">
-        <v>0.7527000281910003</v>
+        <v>0.7484162502174415</v>
       </c>
       <c r="R36">
-        <v>0.7527000281910003</v>
+        <v>0.7484162502174415</v>
       </c>
       <c r="S36">
-        <v>0.7527000281910003</v>
+        <v>0.7484162502174415</v>
       </c>
       <c r="T36">
-        <v>0.7527000281910003</v>
+        <v>0.7484162502174415</v>
       </c>
       <c r="U36">
-        <v>0.003164335771643358</v>
+        <v>-0.00723335734739621</v>
       </c>
       <c r="V36">
-        <v>0.01308290551082905</v>
+        <v>-0.005329393934834281</v>
       </c>
       <c r="W36">
-        <v>0.005444655714446558</v>
+        <v>0.009071474133929284</v>
       </c>
       <c r="X36">
-        <v>-0.006821787884217878</v>
+        <v>-0.008008987953265437</v>
       </c>
       <c r="Z36">
-        <v>-0.004682488738824887</v>
+        <v>-0.009573632446463008</v>
       </c>
       <c r="AA36">
-        <v>-0.3244781536967815</v>
+        <v>-0.3095710440557977</v>
       </c>
       <c r="AB36">
-        <v>-0.3244781536967815</v>
+        <v>-0.3095710440557977</v>
       </c>
       <c r="AC36">
-        <v>-0.3244781536967815</v>
+        <v>-0.3095710440557977</v>
       </c>
       <c r="AD36">
-        <v>-0.3244781536967815</v>
+        <v>-0.3095710440557977</v>
       </c>
       <c r="AE36">
-        <v>-0.3244781536967815</v>
+        <v>-0.3095710440557977</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3709,85 +3709,85 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.010879400112794</v>
+        <v>0.004587964009186938</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>-0.004795681270245021</v>
       </c>
       <c r="E37">
-        <v>0.008347741703477416</v>
+        <v>0.01652567601602619</v>
       </c>
       <c r="F37">
-        <v>-0.004383378775833787</v>
+        <v>-0.01621094575329603</v>
       </c>
       <c r="G37">
-        <v>0.003629931216299312</v>
+        <v>0.01355629481337961</v>
       </c>
       <c r="I37">
-        <v>-0.008189109909891098</v>
+        <v>0.004908297662629652</v>
       </c>
       <c r="J37">
-        <v>0.006692577703771661</v>
+        <v>-0.005044343704557753</v>
       </c>
       <c r="K37">
-        <v>0.005650964708509646</v>
+        <v>-0.004546755539793056</v>
       </c>
       <c r="L37">
-        <v>0.005650964708509646</v>
+        <v>-0.004546755539793056</v>
       </c>
       <c r="M37">
-        <v>0.005650964708509646</v>
+        <v>-0.004546755539793056</v>
       </c>
       <c r="N37">
-        <v>0.005650964708509646</v>
+        <v>-0.004546755539793056</v>
       </c>
       <c r="O37">
-        <v>0.005650964708509646</v>
+        <v>-0.004546755539793056</v>
       </c>
       <c r="P37">
-        <v>-0.004442471144424711</v>
+        <v>-0.01630396933287452</v>
       </c>
       <c r="Q37">
-        <v>0.00619155097391551</v>
+        <v>-0.007517353758083655</v>
       </c>
       <c r="R37">
-        <v>0.00619155097391551</v>
+        <v>-0.007517353758083655</v>
       </c>
       <c r="S37">
-        <v>0.00619155097391551</v>
+        <v>-0.007517353758083655</v>
       </c>
       <c r="T37">
-        <v>0.00619155097391551</v>
+        <v>-0.007517353758083655</v>
       </c>
       <c r="U37">
-        <v>0.003300976305009763</v>
+        <v>-0.01554733053198954</v>
       </c>
       <c r="V37">
-        <v>0.01030551401505514</v>
+        <v>0.004897451092147674</v>
       </c>
       <c r="W37">
-        <v>-0.007470609302706092</v>
+        <v>-0.0008082300126285941</v>
       </c>
       <c r="X37">
-        <v>-0.007980773167807731</v>
+        <v>-0.01094813501481461</v>
       </c>
       <c r="Z37">
-        <v>-0.00581151202611512</v>
+        <v>-0.01346672282760505</v>
       </c>
       <c r="AA37">
-        <v>-0.003605433840054338</v>
+        <v>0.01052316053942438</v>
       </c>
       <c r="AB37">
-        <v>-0.003605433840054338</v>
+        <v>0.01052316053942438</v>
       </c>
       <c r="AC37">
-        <v>-0.003605433840054338</v>
+        <v>0.01052316053942438</v>
       </c>
       <c r="AD37">
-        <v>-0.003605433840054338</v>
+        <v>0.01052316053942438</v>
       </c>
       <c r="AE37">
-        <v>-0.003605433840054338</v>
+        <v>0.01052316053942438</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -3798,85 +3798,85 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.01398364559583646</v>
+        <v>0.00531447805178872</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.01924398648818729</v>
       </c>
       <c r="E38">
-        <v>0.00118333203583332</v>
+        <v>-0.00194948735858574</v>
       </c>
       <c r="F38">
-        <v>-0.0004535847525358476</v>
+        <v>0.005260708793136076</v>
       </c>
       <c r="G38">
-        <v>0.0009084054810840547</v>
+        <v>-0.007704952479764884</v>
       </c>
       <c r="I38">
-        <v>-0.001833948462339485</v>
+        <v>0.01212909754889215</v>
       </c>
       <c r="J38">
-        <v>0.01386813335346512</v>
+        <v>0.0213756302606657</v>
       </c>
       <c r="K38">
-        <v>0.09476563030765631</v>
+        <v>0.1040894663295229</v>
       </c>
       <c r="L38">
-        <v>0.09476563030765631</v>
+        <v>0.1040894663295229</v>
       </c>
       <c r="M38">
-        <v>0.09476563030765631</v>
+        <v>0.1040894663295229</v>
       </c>
       <c r="N38">
-        <v>0.09476563030765631</v>
+        <v>0.1040894663295229</v>
       </c>
       <c r="O38">
-        <v>0.09476563030765631</v>
+        <v>0.1040894663295229</v>
       </c>
       <c r="P38">
-        <v>0.001822300602223006</v>
+        <v>0.007568333415130211</v>
       </c>
       <c r="Q38">
-        <v>0.0853857193578572</v>
+        <v>0.09809787521246682</v>
       </c>
       <c r="R38">
-        <v>0.0853857193578572</v>
+        <v>0.09809787521246682</v>
       </c>
       <c r="S38">
-        <v>0.0853857193578572</v>
+        <v>0.09809787521246682</v>
       </c>
       <c r="T38">
-        <v>0.0853857193578572</v>
+        <v>0.09809787521246682</v>
       </c>
       <c r="U38">
-        <v>-0.0007286515032865151</v>
+        <v>-0.01067886935435734</v>
       </c>
       <c r="V38">
-        <v>0.001888969182889692</v>
+        <v>0.007235516198992441</v>
       </c>
       <c r="W38">
-        <v>-0.008202724366027243</v>
+        <v>-0.004421750998777361</v>
       </c>
       <c r="X38">
-        <v>-0.002062910156629101</v>
+        <v>-0.01042869049107329</v>
       </c>
       <c r="Z38">
-        <v>0.0003504097475040975</v>
+        <v>0.001606084431345069</v>
       </c>
       <c r="AA38">
-        <v>0.2262072886500729</v>
+        <v>0.22658383565756</v>
       </c>
       <c r="AB38">
-        <v>0.2262072886500729</v>
+        <v>0.22658383565756</v>
       </c>
       <c r="AC38">
-        <v>0.2262072886500729</v>
+        <v>0.22658383565756</v>
       </c>
       <c r="AD38">
-        <v>0.2262072886500729</v>
+        <v>0.22658383565756</v>
       </c>
       <c r="AE38">
-        <v>0.2262072886500729</v>
+        <v>0.22658383565756</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -3887,85 +3887,85 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>0.009526005527260054</v>
+        <v>0.02075712381651756</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.01430752569230509</v>
       </c>
       <c r="E39">
-        <v>-0.01929627730896277</v>
+        <v>0.02304943214920988</v>
       </c>
       <c r="F39">
-        <v>0.01913936945939369</v>
+        <v>-0.0217119423861241</v>
       </c>
       <c r="G39">
-        <v>-0.01627277476272775</v>
+        <v>0.02134857253669645</v>
       </c>
       <c r="I39">
-        <v>0.0112343600443436</v>
+        <v>0.0180187713987308</v>
       </c>
       <c r="J39">
-        <v>-0.007541470593695201</v>
+        <v>0.03041722037105786</v>
       </c>
       <c r="K39">
-        <v>0.001605838816058388</v>
+        <v>0.001509758836089982</v>
       </c>
       <c r="L39">
-        <v>0.001605838816058388</v>
+        <v>0.001509758836089982</v>
       </c>
       <c r="M39">
-        <v>0.001605838816058388</v>
+        <v>0.001509758836089982</v>
       </c>
       <c r="N39">
-        <v>0.001605838816058388</v>
+        <v>0.001509758836089982</v>
       </c>
       <c r="O39">
-        <v>0.001605838816058388</v>
+        <v>0.001509758836089982</v>
       </c>
       <c r="P39">
-        <v>0.01884381815643818</v>
+        <v>-0.02174740034761563</v>
       </c>
       <c r="Q39">
-        <v>0.003626220288262203</v>
+        <v>-0.003127389095740455</v>
       </c>
       <c r="R39">
-        <v>0.003626220288262203</v>
+        <v>-0.003127389095740455</v>
       </c>
       <c r="S39">
-        <v>0.003626220288262203</v>
+        <v>-0.003127389095740455</v>
       </c>
       <c r="T39">
-        <v>0.003626220288262203</v>
+        <v>-0.003127389095740455</v>
       </c>
       <c r="U39">
-        <v>0.004578978633789787</v>
+        <v>0.003043456992866516</v>
       </c>
       <c r="V39">
-        <v>-0.004571226585712265</v>
+        <v>0.000678582010602844</v>
       </c>
       <c r="W39">
-        <v>0.006018457044184571</v>
+        <v>0.008881757693464965</v>
       </c>
       <c r="X39">
-        <v>0.01867548365475484</v>
+        <v>-0.01883308182551691</v>
       </c>
       <c r="Z39">
-        <v>0.02222528213425282</v>
+        <v>-0.01273203605831306</v>
       </c>
       <c r="AA39">
-        <v>-0.01476930848769308</v>
+        <v>0.01338821519356586</v>
       </c>
       <c r="AB39">
-        <v>-0.01476930848769308</v>
+        <v>0.01338821519356586</v>
       </c>
       <c r="AC39">
-        <v>-0.01476930848769308</v>
+        <v>0.01338821519356586</v>
       </c>
       <c r="AD39">
-        <v>-0.01476930848769308</v>
+        <v>0.01338821519356586</v>
       </c>
       <c r="AE39">
-        <v>-0.01476930848769308</v>
+        <v>0.01338821519356586</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -3976,85 +3976,85 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.01361492160414922</v>
+        <v>-0.005127942033249094</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.00962075250969926</v>
       </c>
       <c r="E40">
-        <v>-0.01607695313276953</v>
+        <v>0.001062752993168016</v>
       </c>
       <c r="F40">
-        <v>0.01582963605829636</v>
+        <v>-0.002727561792618153</v>
       </c>
       <c r="G40">
-        <v>-0.01268240691082407</v>
+        <v>0.003936132178689566</v>
       </c>
       <c r="I40">
-        <v>-0.004787736899877369</v>
+        <v>-0.01808922079826908</v>
       </c>
       <c r="J40">
-        <v>0.004762300362111251</v>
+        <v>0.009865458049088865</v>
       </c>
       <c r="K40">
-        <v>-0.005076502802765028</v>
+        <v>0.002323191809737372</v>
       </c>
       <c r="L40">
-        <v>-0.005076502802765028</v>
+        <v>0.002323191809737372</v>
       </c>
       <c r="M40">
-        <v>-0.005076502802765028</v>
+        <v>0.002323191809737372</v>
       </c>
       <c r="N40">
-        <v>-0.005076502802765028</v>
+        <v>0.002323191809737372</v>
       </c>
       <c r="O40">
-        <v>-0.005076502802765028</v>
+        <v>0.002323191809737372</v>
       </c>
       <c r="P40">
-        <v>0.01526803767268038</v>
+        <v>-0.002505631703212996</v>
       </c>
       <c r="Q40">
-        <v>-0.00235451392754514</v>
+        <v>0.0005673395948021812</v>
       </c>
       <c r="R40">
-        <v>-0.00235451392754514</v>
+        <v>0.0005673395948021812</v>
       </c>
       <c r="S40">
-        <v>-0.00235451392754514</v>
+        <v>0.0005673395948021812</v>
       </c>
       <c r="T40">
-        <v>-0.00235451392754514</v>
+        <v>0.0005673395948021812</v>
       </c>
       <c r="U40">
-        <v>-0.005412959238129593</v>
+        <v>-0.01168494393257725</v>
       </c>
       <c r="V40">
-        <v>-0.009911732607117325</v>
+        <v>-0.002257935082155236</v>
       </c>
       <c r="W40">
-        <v>0.02190236928302369</v>
+        <v>-0.002324921239451895</v>
       </c>
       <c r="X40">
-        <v>0.00839552897995529</v>
+        <v>-0.0007571215430800242</v>
       </c>
       <c r="Z40">
-        <v>0.008934060413340605</v>
+        <v>-0.005999256187488379</v>
       </c>
       <c r="AA40">
-        <v>0.002313497891134979</v>
+        <v>0.003740670386572975</v>
       </c>
       <c r="AB40">
-        <v>0.002313497891134979</v>
+        <v>0.003740670386572975</v>
       </c>
       <c r="AC40">
-        <v>0.002313497891134979</v>
+        <v>0.003740670386572975</v>
       </c>
       <c r="AD40">
-        <v>0.002313497891134979</v>
+        <v>0.003740670386572975</v>
       </c>
       <c r="AE40">
-        <v>0.002313497891134979</v>
+        <v>0.003740670386572975</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4065,85 +4065,85 @@
         <v>84</v>
       </c>
       <c r="C41">
-        <v>-0.05110894066308941</v>
+        <v>-0.0479028472250445</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.002546723336667552</v>
       </c>
       <c r="E41">
-        <v>0.01095737631757376</v>
+        <v>0.02686711225573613</v>
       </c>
       <c r="F41">
-        <v>-0.01123788923237889</v>
+        <v>-0.03406960049327502</v>
       </c>
       <c r="G41">
-        <v>0.01161666360816664</v>
+        <v>0.0354807419918866</v>
       </c>
       <c r="I41">
-        <v>-0.0179105802351058</v>
+        <v>0.01483031582547369</v>
       </c>
       <c r="J41">
-        <v>0.003378724123417833</v>
+        <v>0.004557792819623372</v>
       </c>
       <c r="K41">
-        <v>-0.01266125188261252</v>
+        <v>-0.02662041519719399</v>
       </c>
       <c r="L41">
-        <v>-0.01266125188261252</v>
+        <v>-0.02662041519719399</v>
       </c>
       <c r="M41">
-        <v>-0.01266125188261252</v>
+        <v>-0.02662041519719399</v>
       </c>
       <c r="N41">
-        <v>-0.01266125188261252</v>
+        <v>-0.02662041519719399</v>
       </c>
       <c r="O41">
-        <v>-0.01266125188261252</v>
+        <v>-0.02662041519719399</v>
       </c>
       <c r="P41">
-        <v>-0.01110248946302489</v>
+        <v>-0.03420494244851473</v>
       </c>
       <c r="Q41">
-        <v>-0.01261757226617572</v>
+        <v>-0.03641479849866873</v>
       </c>
       <c r="R41">
-        <v>-0.01261757226617572</v>
+        <v>-0.03641479849866873</v>
       </c>
       <c r="S41">
-        <v>-0.01261757226617572</v>
+        <v>-0.03641479849866873</v>
       </c>
       <c r="T41">
-        <v>-0.01261757226617572</v>
+        <v>-0.03641479849866873</v>
       </c>
       <c r="U41">
-        <v>-0.006200729786007299</v>
+        <v>-0.01738959041233735</v>
       </c>
       <c r="V41">
-        <v>-0.004897461708974617</v>
+        <v>-0.01242351846755498</v>
       </c>
       <c r="W41">
-        <v>0.006247533146475331</v>
+        <v>-0.00395084860860701</v>
       </c>
       <c r="X41">
-        <v>-0.006268292222682922</v>
+        <v>-0.01551646985963234</v>
       </c>
       <c r="Z41">
-        <v>-0.01570733778107338</v>
+        <v>-0.03212321996286281</v>
       </c>
       <c r="AA41">
-        <v>0.01039989263599893</v>
+        <v>0.03282333072380204</v>
       </c>
       <c r="AB41">
-        <v>0.01039989263599893</v>
+        <v>0.03282333072380204</v>
       </c>
       <c r="AC41">
-        <v>0.01039989263599893</v>
+        <v>0.03282333072380204</v>
       </c>
       <c r="AD41">
-        <v>0.01039989263599893</v>
+        <v>0.03282333072380204</v>
       </c>
       <c r="AE41">
-        <v>0.01039989263599893</v>
+        <v>0.03282333072380204</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -133,7 +133,7 @@
     <t>Stream-cellulosic ethanol</t>
   </si>
   <si>
-    <t>Stream-ethanol</t>
+    <t>Stream-advanced ethanol</t>
   </si>
   <si>
     <t>Stream-biodiesel</t>
